--- a/PHE.xlsx
+++ b/PHE.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0b3bbfbef5e37dc7/Documents/R_PHD_analysis/Multigenerational_analysis/life-history-traits-analysis/Tai/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{89BE5EBB-4BBC-48EF-8FCC-FE61CED8F79F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="8_{89BE5EBB-4BBC-48EF-8FCC-FE61CED8F79F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E44953F7-9A19-48FE-97F6-4F0D7340665B}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -898,7 +898,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="252">
+  <cellXfs count="249">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1485,6 +1485,57 @@
     <xf numFmtId="164" fontId="11" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1495,15 +1546,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1512,53 +1554,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -9916,22 +9911,22 @@
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
-      <c r="AA1" s="233" t="s">
+      <c r="AA1" s="247" t="s">
         <v>34</v>
       </c>
-      <c r="AB1" s="233"/>
-      <c r="AC1" s="233"/>
-      <c r="AD1" s="233"/>
-      <c r="AE1" s="233"/>
-      <c r="AF1" s="233"/>
+      <c r="AB1" s="247"/>
+      <c r="AC1" s="247"/>
+      <c r="AD1" s="247"/>
+      <c r="AE1" s="247"/>
+      <c r="AF1" s="247"/>
     </row>
     <row r="2" spans="1:56" ht="15.75" thickBot="1">
-      <c r="AA2" s="233"/>
-      <c r="AB2" s="233"/>
-      <c r="AC2" s="233"/>
-      <c r="AD2" s="233"/>
-      <c r="AE2" s="233"/>
-      <c r="AF2" s="233"/>
+      <c r="AA2" s="247"/>
+      <c r="AB2" s="247"/>
+      <c r="AC2" s="247"/>
+      <c r="AD2" s="247"/>
+      <c r="AE2" s="247"/>
+      <c r="AF2" s="247"/>
     </row>
     <row r="3" spans="1:56" ht="15.75" thickBot="1">
       <c r="A3" s="1"/>
@@ -9962,29 +9957,29 @@
       <c r="X3" s="1"/>
       <c r="Y3" s="1"/>
       <c r="Z3" s="1"/>
-      <c r="AA3" s="234"/>
-      <c r="AB3" s="234"/>
-      <c r="AC3" s="234"/>
-      <c r="AD3" s="234"/>
-      <c r="AE3" s="234"/>
-      <c r="AF3" s="234"/>
-      <c r="AG3" s="235" t="s">
+      <c r="AA3" s="248"/>
+      <c r="AB3" s="248"/>
+      <c r="AC3" s="248"/>
+      <c r="AD3" s="248"/>
+      <c r="AE3" s="248"/>
+      <c r="AF3" s="248"/>
+      <c r="AG3" s="236" t="s">
         <v>31</v>
       </c>
-      <c r="AH3" s="235"/>
-      <c r="AI3" s="235"/>
-      <c r="AJ3" s="235"/>
-      <c r="AK3" s="235"/>
-      <c r="AL3" s="235"/>
+      <c r="AH3" s="236"/>
+      <c r="AI3" s="236"/>
+      <c r="AJ3" s="236"/>
+      <c r="AK3" s="236"/>
+      <c r="AL3" s="236"/>
       <c r="AM3" s="1"/>
-      <c r="AS3" s="235" t="s">
+      <c r="AS3" s="236" t="s">
         <v>28</v>
       </c>
-      <c r="AT3" s="235"/>
-      <c r="AU3" s="235"/>
-      <c r="AV3" s="235"/>
-      <c r="AW3" s="235"/>
-      <c r="AX3" s="235"/>
+      <c r="AT3" s="236"/>
+      <c r="AU3" s="236"/>
+      <c r="AV3" s="236"/>
+      <c r="AW3" s="236"/>
+      <c r="AX3" s="236"/>
     </row>
     <row r="4" spans="1:56" ht="15.75" thickBot="1">
       <c r="A4" s="4" t="s">
@@ -9993,14 +9988,14 @@
       <c r="B4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="230" t="s">
+      <c r="C4" s="229" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="231"/>
-      <c r="E4" s="231"/>
-      <c r="F4" s="231"/>
-      <c r="G4" s="231"/>
-      <c r="H4" s="243"/>
+      <c r="D4" s="230"/>
+      <c r="E4" s="230"/>
+      <c r="F4" s="230"/>
+      <c r="G4" s="230"/>
+      <c r="H4" s="231"/>
       <c r="I4" s="237" t="s">
         <v>29</v>
       </c>
@@ -10017,54 +10012,54 @@
       <c r="R4" s="241"/>
       <c r="S4" s="241"/>
       <c r="T4" s="242"/>
-      <c r="U4" s="230" t="s">
+      <c r="U4" s="229" t="s">
         <v>32</v>
       </c>
-      <c r="V4" s="231"/>
-      <c r="W4" s="231"/>
-      <c r="X4" s="231"/>
-      <c r="Y4" s="231"/>
+      <c r="V4" s="230"/>
+      <c r="W4" s="230"/>
+      <c r="X4" s="230"/>
+      <c r="Y4" s="230"/>
       <c r="Z4" s="232"/>
-      <c r="AA4" s="230" t="s">
+      <c r="AA4" s="229" t="s">
         <v>33</v>
       </c>
-      <c r="AB4" s="231"/>
-      <c r="AC4" s="231"/>
-      <c r="AD4" s="231"/>
-      <c r="AE4" s="231"/>
+      <c r="AB4" s="230"/>
+      <c r="AC4" s="230"/>
+      <c r="AD4" s="230"/>
+      <c r="AE4" s="230"/>
       <c r="AF4" s="232"/>
-      <c r="AG4" s="230" t="s">
+      <c r="AG4" s="229" t="s">
         <v>4</v>
       </c>
-      <c r="AH4" s="231"/>
-      <c r="AI4" s="231"/>
-      <c r="AJ4" s="231"/>
-      <c r="AK4" s="231"/>
+      <c r="AH4" s="230"/>
+      <c r="AI4" s="230"/>
+      <c r="AJ4" s="230"/>
+      <c r="AK4" s="230"/>
       <c r="AL4" s="232"/>
-      <c r="AM4" s="230" t="s">
+      <c r="AM4" s="229" t="s">
         <v>20</v>
       </c>
-      <c r="AN4" s="231"/>
-      <c r="AO4" s="231"/>
-      <c r="AP4" s="231"/>
-      <c r="AQ4" s="231"/>
+      <c r="AN4" s="230"/>
+      <c r="AO4" s="230"/>
+      <c r="AP4" s="230"/>
+      <c r="AQ4" s="230"/>
       <c r="AR4" s="232"/>
-      <c r="AS4" s="230" t="s">
+      <c r="AS4" s="229" t="s">
         <v>21</v>
       </c>
-      <c r="AT4" s="231"/>
-      <c r="AU4" s="231"/>
-      <c r="AV4" s="231"/>
-      <c r="AW4" s="231"/>
+      <c r="AT4" s="230"/>
+      <c r="AU4" s="230"/>
+      <c r="AV4" s="230"/>
+      <c r="AW4" s="230"/>
       <c r="AX4" s="232"/>
-      <c r="AY4" s="226" t="s">
+      <c r="AY4" s="243" t="s">
         <v>22</v>
       </c>
-      <c r="AZ4" s="227"/>
-      <c r="BA4" s="227"/>
-      <c r="BB4" s="227"/>
-      <c r="BC4" s="227"/>
-      <c r="BD4" s="228"/>
+      <c r="AZ4" s="244"/>
+      <c r="BA4" s="244"/>
+      <c r="BB4" s="244"/>
+      <c r="BC4" s="244"/>
+      <c r="BD4" s="245"/>
     </row>
     <row r="5" spans="1:56" ht="15.75" thickBot="1">
       <c r="A5" s="56" t="s">
@@ -13917,11 +13912,11 @@
       <c r="S35" s="1"/>
       <c r="T35" s="1"/>
       <c r="U35" s="1"/>
-      <c r="V35" s="229" t="s">
+      <c r="V35" s="246" t="s">
         <v>23</v>
       </c>
-      <c r="W35" s="229"/>
-      <c r="X35" s="229"/>
+      <c r="W35" s="246"/>
+      <c r="X35" s="246"/>
       <c r="Y35" s="1"/>
       <c r="Z35" s="1"/>
       <c r="AA35" s="146">
@@ -13963,11 +13958,11 @@
       <c r="S36" s="146">
         <v>2666.35</v>
       </c>
-      <c r="V36" s="244" t="s">
+      <c r="V36" s="233" t="s">
         <v>24</v>
       </c>
-      <c r="W36" s="244"/>
-      <c r="X36" s="244"/>
+      <c r="W36" s="233"/>
+      <c r="X36" s="233"/>
       <c r="AA36" s="146">
         <v>3898.2</v>
       </c>
@@ -14002,11 +13997,11 @@
         <v>3440.5</v>
       </c>
       <c r="S37" s="146"/>
-      <c r="V37" s="245" t="s">
+      <c r="V37" s="234" t="s">
         <v>25</v>
       </c>
-      <c r="W37" s="245"/>
-      <c r="X37" s="245"/>
+      <c r="W37" s="234"/>
+      <c r="X37" s="234"/>
       <c r="AA37" s="146">
         <v>3991.51</v>
       </c>
@@ -14037,11 +14032,11 @@
         <v>2860.36</v>
       </c>
       <c r="S38" s="146"/>
-      <c r="V38" s="236" t="s">
+      <c r="V38" s="235" t="s">
         <v>26</v>
       </c>
-      <c r="W38" s="236"/>
-      <c r="X38" s="236"/>
+      <c r="W38" s="235"/>
+      <c r="X38" s="235"/>
       <c r="AA38" s="146">
         <v>4084.56</v>
       </c>
@@ -14345,22 +14340,22 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="C4:H4"/>
-    <mergeCell ref="U4:Z4"/>
-    <mergeCell ref="AA4:AF4"/>
-    <mergeCell ref="V36:X36"/>
-    <mergeCell ref="V37:X37"/>
-    <mergeCell ref="V38:X38"/>
-    <mergeCell ref="AG4:AL4"/>
-    <mergeCell ref="AS3:AX3"/>
-    <mergeCell ref="I4:N4"/>
-    <mergeCell ref="O4:T4"/>
     <mergeCell ref="AY4:BD4"/>
     <mergeCell ref="V35:X35"/>
     <mergeCell ref="AM4:AR4"/>
     <mergeCell ref="AS4:AX4"/>
     <mergeCell ref="AA1:AF3"/>
     <mergeCell ref="AG3:AL3"/>
+    <mergeCell ref="V38:X38"/>
+    <mergeCell ref="AG4:AL4"/>
+    <mergeCell ref="AS3:AX3"/>
+    <mergeCell ref="I4:N4"/>
+    <mergeCell ref="O4:T4"/>
+    <mergeCell ref="C4:H4"/>
+    <mergeCell ref="U4:Z4"/>
+    <mergeCell ref="AA4:AF4"/>
+    <mergeCell ref="V36:X36"/>
+    <mergeCell ref="V37:X37"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -14370,3878 +14365,3877 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF9DD8EE-93D2-4E99-9056-F4DEE3C948BE}">
   <dimension ref="A1:I157"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A122" workbookViewId="0">
-      <selection activeCell="D159" sqref="D159"/>
+    <sheetView tabSelected="1" topLeftCell="A111" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" style="247" customWidth="1"/>
-    <col min="2" max="2" width="12" style="247" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" style="247" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" style="247" customWidth="1"/>
-    <col min="5" max="5" width="16" style="247" customWidth="1"/>
-    <col min="6" max="6" width="16.7109375" style="247" customWidth="1"/>
-    <col min="7" max="7" width="16.5703125" style="247" customWidth="1"/>
-    <col min="8" max="8" width="19.42578125" style="247" customWidth="1"/>
-    <col min="9" max="9" width="14.140625" style="251" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="247"/>
+    <col min="1" max="1" width="11.5703125" customWidth="1"/>
+    <col min="2" max="2" width="12" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" customWidth="1"/>
+    <col min="5" max="5" width="16" customWidth="1"/>
+    <col min="6" max="6" width="16.7109375" customWidth="1"/>
+    <col min="7" max="7" width="16.5703125" customWidth="1"/>
+    <col min="8" max="8" width="19.42578125" customWidth="1"/>
+    <col min="9" max="9" width="14.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="246" t="s">
+      <c r="A1" s="226" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="246" t="s">
+      <c r="B1" s="226" t="s">
         <v>36</v>
       </c>
-      <c r="C1" s="246" t="s">
+      <c r="C1" s="226" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="226" t="s">
         <v>48</v>
       </c>
-      <c r="D1" s="246" t="s">
+      <c r="E1" s="226" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1" s="226" t="s">
+        <v>43</v>
+      </c>
+      <c r="G1" s="226" t="s">
+        <v>46</v>
+      </c>
+      <c r="H1" s="226" t="s">
+        <v>47</v>
+      </c>
+      <c r="I1" s="226"/>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="227">
+        <v>7</v>
+      </c>
+      <c r="F2" s="1">
+        <v>4.0007999999999999</v>
+      </c>
+      <c r="G2" s="228">
+        <v>65</v>
+      </c>
+      <c r="H2" s="1">
+        <v>5</v>
+      </c>
+      <c r="I2" s="1"/>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="227">
+        <v>9</v>
+      </c>
+      <c r="F3" s="1">
+        <v>3.9379599999999999</v>
+      </c>
+      <c r="G3" s="228">
+        <v>58</v>
+      </c>
+      <c r="H3" s="1">
+        <v>3</v>
+      </c>
+      <c r="I3" s="1"/>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="227">
+        <v>7</v>
+      </c>
+      <c r="F4" s="1">
+        <v>3.9877699999999998</v>
+      </c>
+      <c r="G4" s="228">
+        <v>59</v>
+      </c>
+      <c r="H4" s="1">
+        <v>4</v>
+      </c>
+      <c r="I4" s="1"/>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="227">
+        <v>7</v>
+      </c>
+      <c r="F5" s="1">
+        <v>3.9621599999999999</v>
+      </c>
+      <c r="G5" s="228">
+        <v>48</v>
+      </c>
+      <c r="H5" s="1">
+        <v>4</v>
+      </c>
+      <c r="I5" s="1"/>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="227">
+        <v>7</v>
+      </c>
+      <c r="F6" s="1">
+        <v>3.9470900000000002</v>
+      </c>
+      <c r="G6" s="228">
+        <v>58</v>
+      </c>
+      <c r="H6" s="1">
+        <v>4</v>
+      </c>
+      <c r="I6" s="1"/>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="227">
+        <v>7</v>
+      </c>
+      <c r="F7" s="1">
+        <v>3.7816100000000001</v>
+      </c>
+      <c r="G7" s="228">
+        <v>49</v>
+      </c>
+      <c r="H7" s="1">
+        <v>5</v>
+      </c>
+      <c r="I7" s="1"/>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="1">
+        <v>1</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="227">
+        <v>14</v>
+      </c>
+      <c r="F8" s="1">
+        <v>2.4706300000000003</v>
+      </c>
+      <c r="G8" s="228">
+        <v>0</v>
+      </c>
+      <c r="H8" s="1">
+        <v>3</v>
+      </c>
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="1">
+        <v>2</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="227"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="228"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="1">
+        <v>3</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="227"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="228"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="1">
+        <v>4</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" s="227">
+        <v>12</v>
+      </c>
+      <c r="F11" s="1">
+        <v>3.1534400000000002</v>
+      </c>
+      <c r="G11" s="228">
+        <v>0</v>
+      </c>
+      <c r="H11" s="1">
+        <v>5</v>
+      </c>
+      <c r="I11" s="1"/>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="1">
+        <v>5</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" s="227">
+        <v>13</v>
+      </c>
+      <c r="F12" s="1">
+        <v>2.66635</v>
+      </c>
+      <c r="G12" s="228">
+        <v>0</v>
+      </c>
+      <c r="H12" s="1">
+        <v>4</v>
+      </c>
+      <c r="I12" s="1"/>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="1">
+        <v>6</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" s="227"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="228"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="1">
+        <v>1</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14" s="227">
+        <v>8</v>
+      </c>
+      <c r="F14" s="1">
+        <v>3.8981999999999997</v>
+      </c>
+      <c r="G14" s="228">
+        <v>30</v>
+      </c>
+      <c r="H14" s="1">
+        <v>3</v>
+      </c>
+      <c r="I14" s="1"/>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="1">
+        <v>2</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15" s="227">
+        <v>8</v>
+      </c>
+      <c r="F15" s="1">
+        <v>3.9728699999999999</v>
+      </c>
+      <c r="G15" s="228">
+        <v>20</v>
+      </c>
+      <c r="H15" s="1">
+        <v>4</v>
+      </c>
+      <c r="I15" s="1"/>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="1">
+        <v>3</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16" s="227">
+        <v>8</v>
+      </c>
+      <c r="F16" s="1">
+        <v>3.8235999999999999</v>
+      </c>
+      <c r="G16" s="228">
+        <v>37</v>
+      </c>
+      <c r="H16" s="1">
+        <v>3</v>
+      </c>
+      <c r="I16" s="1"/>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="1">
+        <v>4</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17" s="227">
+        <v>7</v>
+      </c>
+      <c r="F17" s="1">
+        <v>3.95072</v>
+      </c>
+      <c r="G17" s="228">
+        <v>39</v>
+      </c>
+      <c r="H17" s="1">
+        <v>4</v>
+      </c>
+      <c r="I17" s="1"/>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="1">
+        <v>5</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E18" s="227">
+        <v>7</v>
+      </c>
+      <c r="F18" s="1">
+        <v>3.9121999999999999</v>
+      </c>
+      <c r="G18" s="228">
+        <v>33</v>
+      </c>
+      <c r="H18" s="1">
+        <v>3</v>
+      </c>
+      <c r="I18" s="1"/>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="1">
+        <v>6</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E19" s="227"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="228"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="1">
+        <v>1</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20" s="227">
+        <v>15</v>
+      </c>
+      <c r="F20" s="1">
+        <v>3.6478000000000002</v>
+      </c>
+      <c r="G20" s="228">
+        <v>9</v>
+      </c>
+      <c r="H20" s="1">
+        <v>7</v>
+      </c>
+      <c r="I20" s="1"/>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="1">
+        <v>2</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E21" s="227">
+        <v>15</v>
+      </c>
+      <c r="F21" s="1">
+        <v>3.6543099999999997</v>
+      </c>
+      <c r="G21" s="228">
+        <v>0</v>
+      </c>
+      <c r="H21" s="1">
+        <v>6</v>
+      </c>
+      <c r="I21" s="1"/>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="1">
+        <v>3</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E22" s="227">
+        <v>16</v>
+      </c>
+      <c r="F22" s="1">
+        <v>3.6524000000000001</v>
+      </c>
+      <c r="G22" s="228">
+        <v>10</v>
+      </c>
+      <c r="H22" s="1">
+        <v>6</v>
+      </c>
+      <c r="I22" s="1"/>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="1">
+        <v>4</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E23" s="227">
+        <v>15</v>
+      </c>
+      <c r="F23" s="1">
+        <v>3.0021799999999996</v>
+      </c>
+      <c r="G23" s="228">
+        <v>0</v>
+      </c>
+      <c r="H23" s="1">
+        <v>6</v>
+      </c>
+      <c r="I23" s="1"/>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="1">
+        <v>5</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E24" s="227">
+        <v>15</v>
+      </c>
+      <c r="F24" s="1">
+        <v>3.4405000000000001</v>
+      </c>
+      <c r="G24" s="228">
+        <v>8</v>
+      </c>
+      <c r="H24" s="1">
+        <v>6</v>
+      </c>
+      <c r="I24" s="1"/>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="1">
+        <v>6</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E25" s="227"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="228"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="1">
+        <v>1</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E26" s="227">
+        <v>9</v>
+      </c>
+      <c r="F26" s="1">
+        <v>3.9915100000000003</v>
+      </c>
+      <c r="G26" s="228">
+        <v>27</v>
+      </c>
+      <c r="H26" s="1">
+        <v>3</v>
+      </c>
+      <c r="I26" s="1"/>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="1">
+        <v>2</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E27" s="227">
+        <v>10</v>
+      </c>
+      <c r="F27" s="1">
+        <v>4.2533700000000003</v>
+      </c>
+      <c r="G27" s="228">
+        <v>42</v>
+      </c>
+      <c r="H27" s="1">
+        <v>3</v>
+      </c>
+      <c r="I27" s="1"/>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" s="1">
+        <v>3</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E28" s="227">
+        <v>9</v>
+      </c>
+      <c r="F28" s="1">
+        <v>4.3148400000000002</v>
+      </c>
+      <c r="G28" s="228">
+        <v>35</v>
+      </c>
+      <c r="H28" s="1">
+        <v>3</v>
+      </c>
+      <c r="I28" s="1"/>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" s="1">
+        <v>4</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E29" s="227">
+        <v>10</v>
+      </c>
+      <c r="F29" s="1">
+        <v>4.2094799999999992</v>
+      </c>
+      <c r="G29" s="228">
+        <v>36</v>
+      </c>
+      <c r="H29" s="1">
+        <v>3</v>
+      </c>
+      <c r="I29" s="1"/>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" s="1">
+        <v>5</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E30" s="227">
+        <v>8</v>
+      </c>
+      <c r="F30" s="1">
+        <v>3.9470300000000003</v>
+      </c>
+      <c r="G30" s="228">
+        <v>29</v>
+      </c>
+      <c r="H30" s="1">
+        <v>3</v>
+      </c>
+      <c r="I30" s="1"/>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" s="1">
+        <v>6</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E31" s="227">
+        <v>9</v>
+      </c>
+      <c r="F31" s="1">
+        <v>4.21061</v>
+      </c>
+      <c r="G31" s="228">
         <v>38</v>
       </c>
-      <c r="E1" s="246" t="s">
+      <c r="H31" s="1">
+        <v>3</v>
+      </c>
+      <c r="I31" s="1"/>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" s="1">
+        <v>1</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E32" s="227"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="228"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" s="1">
+        <v>2</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E33" s="227">
+        <v>17</v>
+      </c>
+      <c r="F33" s="1">
+        <v>1.5271700000000001</v>
+      </c>
+      <c r="G33" s="228">
+        <v>0</v>
+      </c>
+      <c r="H33" s="1">
+        <v>5</v>
+      </c>
+      <c r="I33" s="1"/>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34" s="1">
+        <v>3</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E34" s="227"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="228"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35" s="1">
+        <v>4</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E35" s="227"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="228"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36" s="1">
+        <v>5</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E36" s="227">
+        <v>17</v>
+      </c>
+      <c r="F36" s="1">
+        <v>2.86036</v>
+      </c>
+      <c r="G36" s="228">
+        <v>0</v>
+      </c>
+      <c r="H36" s="1">
+        <v>4</v>
+      </c>
+      <c r="I36" s="1"/>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37" s="1">
+        <v>6</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E37" s="227"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="228"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38" s="1">
+        <v>1</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E38" s="227">
+        <v>8</v>
+      </c>
+      <c r="F38" s="1">
+        <v>4.0845599999999997</v>
+      </c>
+      <c r="G38" s="228">
+        <v>36</v>
+      </c>
+      <c r="H38" s="1">
+        <v>3</v>
+      </c>
+      <c r="I38" s="1"/>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39" s="1">
+        <v>2</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E39" s="227">
+        <v>8</v>
+      </c>
+      <c r="F39" s="1">
+        <v>4.06663</v>
+      </c>
+      <c r="G39" s="228">
+        <v>28</v>
+      </c>
+      <c r="H39" s="1">
+        <v>3</v>
+      </c>
+      <c r="I39" s="1"/>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40" s="1">
+        <v>3</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E40" s="227">
+        <v>8</v>
+      </c>
+      <c r="F40" s="1">
+        <v>4.0334200000000004</v>
+      </c>
+      <c r="G40" s="228">
+        <v>36</v>
+      </c>
+      <c r="H40" s="1">
+        <v>3</v>
+      </c>
+      <c r="I40" s="1"/>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41" s="1">
+        <v>4</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E41" s="227"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="228"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42" s="1">
+        <v>5</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E42" s="227">
+        <v>8</v>
+      </c>
+      <c r="F42" s="1">
+        <v>3.9552700000000001</v>
+      </c>
+      <c r="G42" s="228">
+        <v>37</v>
+      </c>
+      <c r="H42" s="1">
+        <v>3</v>
+      </c>
+      <c r="I42" s="1"/>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43" s="1">
+        <v>6</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E43" s="227">
+        <v>8</v>
+      </c>
+      <c r="F43" s="1">
+        <v>4.1571199999999999</v>
+      </c>
+      <c r="G43" s="228">
+        <v>32</v>
+      </c>
+      <c r="H43" s="1">
+        <v>3</v>
+      </c>
+      <c r="I43" s="1"/>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44" s="1">
+        <v>1</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E44" s="227">
+        <v>16</v>
+      </c>
+      <c r="F44" s="1">
+        <v>3.4624899999999998</v>
+      </c>
+      <c r="G44" s="228">
+        <v>1</v>
+      </c>
+      <c r="H44" s="1">
+        <v>4</v>
+      </c>
+      <c r="I44" s="1"/>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45" s="1">
+        <v>2</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E45" s="227"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="228"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="1"/>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46" s="1">
+        <v>3</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E46" s="227"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="228"/>
+      <c r="H46" s="1"/>
+      <c r="I46" s="1"/>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47" s="1">
+        <v>4</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E47" s="227"/>
+      <c r="F47" s="1"/>
+      <c r="G47" s="228"/>
+      <c r="H47" s="1"/>
+      <c r="I47" s="1"/>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48" s="1">
+        <v>5</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E48" s="227"/>
+      <c r="F48" s="1"/>
+      <c r="G48" s="228"/>
+      <c r="H48" s="1"/>
+      <c r="I48" s="1"/>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49" s="1">
+        <v>6</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E49" s="227"/>
+      <c r="F49" s="1"/>
+      <c r="G49" s="228"/>
+      <c r="H49" s="1"/>
+      <c r="I49" s="1"/>
+    </row>
+    <row r="50" spans="1:9">
+      <c r="A50" s="1">
+        <v>1</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E50" s="227">
+        <v>8</v>
+      </c>
+      <c r="F50" s="1">
+        <v>3.98678</v>
+      </c>
+      <c r="G50" s="228">
+        <v>37</v>
+      </c>
+      <c r="H50" s="1">
+        <v>3</v>
+      </c>
+      <c r="I50" s="1"/>
+    </row>
+    <row r="51" spans="1:9">
+      <c r="A51" s="1">
+        <v>2</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E51" s="227">
+        <v>7</v>
+      </c>
+      <c r="F51" s="1">
+        <v>4.0082599999999999</v>
+      </c>
+      <c r="G51" s="228">
+        <v>32</v>
+      </c>
+      <c r="H51" s="1">
+        <v>3</v>
+      </c>
+      <c r="I51" s="1"/>
+    </row>
+    <row r="52" spans="1:9">
+      <c r="A52" s="1">
+        <v>3</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E52" s="227"/>
+      <c r="F52" s="1"/>
+      <c r="G52" s="228"/>
+      <c r="H52" s="1"/>
+      <c r="I52" s="1"/>
+    </row>
+    <row r="53" spans="1:9">
+      <c r="A53" s="1">
+        <v>4</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E53" s="227"/>
+      <c r="F53" s="1"/>
+      <c r="G53" s="228"/>
+      <c r="H53" s="1"/>
+      <c r="I53" s="1"/>
+    </row>
+    <row r="54" spans="1:9">
+      <c r="A54" s="1">
+        <v>5</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E54" s="227">
+        <v>7</v>
+      </c>
+      <c r="F54" s="1">
+        <v>3.9420000000000002</v>
+      </c>
+      <c r="G54" s="228">
+        <v>32</v>
+      </c>
+      <c r="H54" s="1">
+        <v>3</v>
+      </c>
+      <c r="I54" s="1"/>
+    </row>
+    <row r="55" spans="1:9">
+      <c r="A55" s="1">
+        <v>6</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E55" s="227">
+        <v>7</v>
+      </c>
+      <c r="F55" s="1">
+        <v>3.9389000000000003</v>
+      </c>
+      <c r="G55" s="228">
+        <v>34</v>
+      </c>
+      <c r="H55" s="1">
+        <v>3</v>
+      </c>
+      <c r="I55" s="1"/>
+    </row>
+    <row r="56" spans="1:9">
+      <c r="A56" s="1">
+        <v>1</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E56" s="227">
+        <v>17</v>
+      </c>
+      <c r="F56" s="1">
+        <v>2.5223899999999997</v>
+      </c>
+      <c r="G56" s="228">
+        <v>0</v>
+      </c>
+      <c r="H56" s="1">
+        <v>3</v>
+      </c>
+      <c r="I56" s="1"/>
+    </row>
+    <row r="57" spans="1:9">
+      <c r="A57" s="1">
+        <v>2</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E57" s="227">
+        <v>16</v>
+      </c>
+      <c r="F57" s="1">
+        <v>2.9872299999999998</v>
+      </c>
+      <c r="G57" s="228">
+        <v>0</v>
+      </c>
+      <c r="H57" s="1">
+        <v>4</v>
+      </c>
+      <c r="I57" s="1"/>
+    </row>
+    <row r="58" spans="1:9">
+      <c r="A58" s="1">
+        <v>3</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E58" s="227">
+        <v>16</v>
+      </c>
+      <c r="F58" s="1">
+        <v>2.6795900000000001</v>
+      </c>
+      <c r="G58" s="228">
+        <v>0</v>
+      </c>
+      <c r="H58" s="1">
+        <v>4</v>
+      </c>
+      <c r="I58" s="1"/>
+    </row>
+    <row r="59" spans="1:9">
+      <c r="A59" s="1">
+        <v>4</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E59" s="227">
+        <v>16</v>
+      </c>
+      <c r="F59" s="1">
+        <v>2.75787</v>
+      </c>
+      <c r="G59" s="228">
+        <v>0</v>
+      </c>
+      <c r="H59" s="1">
+        <v>4</v>
+      </c>
+      <c r="I59" s="1"/>
+    </row>
+    <row r="60" spans="1:9">
+      <c r="A60" s="1">
+        <v>5</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E60" s="227">
+        <v>17</v>
+      </c>
+      <c r="F60" s="1">
+        <v>2.6013800000000002</v>
+      </c>
+      <c r="G60" s="228">
+        <v>0</v>
+      </c>
+      <c r="H60" s="1">
+        <v>3</v>
+      </c>
+      <c r="I60" s="1"/>
+    </row>
+    <row r="61" spans="1:9">
+      <c r="A61" s="1">
+        <v>6</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E61" s="227"/>
+      <c r="F61" s="1"/>
+      <c r="G61" s="228"/>
+      <c r="H61" s="1"/>
+      <c r="I61" s="1"/>
+    </row>
+    <row r="62" spans="1:9">
+      <c r="A62" s="1">
+        <v>1</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E62" s="227">
+        <v>8</v>
+      </c>
+      <c r="F62" s="1">
+        <v>4.0862400000000001</v>
+      </c>
+      <c r="G62" s="228">
+        <v>14</v>
+      </c>
+      <c r="H62" s="1">
+        <v>4</v>
+      </c>
+      <c r="I62" s="1"/>
+    </row>
+    <row r="63" spans="1:9">
+      <c r="A63" s="1">
+        <v>2</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E63" s="227">
+        <v>9</v>
+      </c>
+      <c r="F63" s="1">
+        <v>4.2525000000000004</v>
+      </c>
+      <c r="G63" s="228">
+        <v>18</v>
+      </c>
+      <c r="H63" s="1">
+        <v>4</v>
+      </c>
+      <c r="I63" s="1"/>
+    </row>
+    <row r="64" spans="1:9">
+      <c r="A64" s="1">
+        <v>3</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E64" s="227">
+        <v>7</v>
+      </c>
+      <c r="F64" s="1">
+        <v>4.0791199999999996</v>
+      </c>
+      <c r="G64" s="228">
+        <v>20</v>
+      </c>
+      <c r="H64" s="1">
+        <v>5</v>
+      </c>
+      <c r="I64" s="1"/>
+    </row>
+    <row r="65" spans="1:9">
+      <c r="A65" s="1">
+        <v>4</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E65" s="227">
+        <v>8</v>
+      </c>
+      <c r="F65" s="1">
+        <v>4.1455699999999993</v>
+      </c>
+      <c r="G65" s="228">
+        <v>17</v>
+      </c>
+      <c r="H65" s="1">
+        <v>4</v>
+      </c>
+      <c r="I65" s="1"/>
+    </row>
+    <row r="66" spans="1:9">
+      <c r="A66" s="1">
+        <v>5</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E66" s="227">
+        <v>8</v>
+      </c>
+      <c r="F66" s="1">
+        <v>4.1727700000000008</v>
+      </c>
+      <c r="G66" s="228">
+        <v>14</v>
+      </c>
+      <c r="H66" s="1">
+        <v>4</v>
+      </c>
+      <c r="I66" s="1"/>
+    </row>
+    <row r="67" spans="1:9">
+      <c r="A67" s="1">
+        <v>6</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E67" s="227">
+        <v>8</v>
+      </c>
+      <c r="F67" s="1">
+        <v>4.1418999999999997</v>
+      </c>
+      <c r="G67" s="228">
+        <v>13</v>
+      </c>
+      <c r="H67" s="1">
+        <v>4</v>
+      </c>
+      <c r="I67" s="1"/>
+    </row>
+    <row r="68" spans="1:9">
+      <c r="A68" s="1">
+        <v>1</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E68" s="227"/>
+      <c r="F68" s="1"/>
+      <c r="G68" s="228"/>
+      <c r="H68" s="1"/>
+      <c r="I68" s="1"/>
+    </row>
+    <row r="69" spans="1:9">
+      <c r="A69" s="1">
+        <v>2</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E69" s="227"/>
+      <c r="F69" s="1"/>
+      <c r="G69" s="228"/>
+      <c r="H69" s="1"/>
+      <c r="I69" s="1"/>
+    </row>
+    <row r="70" spans="1:9">
+      <c r="A70" s="1">
+        <v>3</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E70" s="227"/>
+      <c r="F70" s="1"/>
+      <c r="G70" s="228"/>
+      <c r="H70" s="1"/>
+      <c r="I70" s="1"/>
+    </row>
+    <row r="71" spans="1:9">
+      <c r="A71" s="1">
+        <v>4</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E71" s="227">
+        <v>18</v>
+      </c>
+      <c r="F71" s="1">
+        <v>3.25522</v>
+      </c>
+      <c r="G71" s="228">
+        <v>0</v>
+      </c>
+      <c r="H71" s="1">
+        <v>3</v>
+      </c>
+      <c r="I71" s="1"/>
+    </row>
+    <row r="72" spans="1:9">
+      <c r="A72" s="1">
+        <v>5</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E72" s="227">
+        <v>18</v>
+      </c>
+      <c r="F72" s="1">
+        <v>2.8711899999999999</v>
+      </c>
+      <c r="G72" s="228">
+        <v>0</v>
+      </c>
+      <c r="H72" s="1">
+        <v>2</v>
+      </c>
+      <c r="I72" s="1"/>
+    </row>
+    <row r="73" spans="1:9">
+      <c r="A73" s="1">
+        <v>6</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E73" s="227">
+        <v>18</v>
+      </c>
+      <c r="F73" s="1">
+        <v>2.6543000000000001</v>
+      </c>
+      <c r="G73" s="228">
+        <v>0</v>
+      </c>
+      <c r="H73" s="1">
+        <v>3</v>
+      </c>
+      <c r="I73" s="1"/>
+    </row>
+    <row r="74" spans="1:9">
+      <c r="A74" s="1">
+        <v>1</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E74" s="227"/>
+      <c r="F74" s="1"/>
+      <c r="G74" s="228"/>
+      <c r="H74" s="1"/>
+      <c r="I74" s="1"/>
+    </row>
+    <row r="75" spans="1:9">
+      <c r="A75" s="1">
+        <v>2</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E75" s="227">
+        <v>8</v>
+      </c>
+      <c r="F75" s="1">
+        <v>4.0327299999999999</v>
+      </c>
+      <c r="G75" s="228">
+        <v>27</v>
+      </c>
+      <c r="H75" s="1">
+        <v>3</v>
+      </c>
+      <c r="I75" s="1"/>
+    </row>
+    <row r="76" spans="1:9">
+      <c r="A76" s="1">
+        <v>3</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E76" s="227">
+        <v>8</v>
+      </c>
+      <c r="F76" s="1">
+        <v>3.9025599999999998</v>
+      </c>
+      <c r="G76" s="228">
+        <v>24</v>
+      </c>
+      <c r="H76" s="1">
+        <v>3</v>
+      </c>
+      <c r="I76" s="1"/>
+    </row>
+    <row r="77" spans="1:9">
+      <c r="A77" s="1">
+        <v>4</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E77" s="227">
+        <v>9</v>
+      </c>
+      <c r="F77" s="1">
+        <v>3.8350900000000001</v>
+      </c>
+      <c r="G77" s="228">
+        <v>16</v>
+      </c>
+      <c r="H77" s="1">
+        <v>3</v>
+      </c>
+      <c r="I77" s="1"/>
+    </row>
+    <row r="78" spans="1:9">
+      <c r="A78" s="1">
+        <v>5</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E78" s="227">
+        <v>8</v>
+      </c>
+      <c r="F78" s="1">
+        <v>3.88646</v>
+      </c>
+      <c r="G78" s="228">
+        <v>36</v>
+      </c>
+      <c r="H78" s="1">
+        <v>3</v>
+      </c>
+      <c r="I78" s="1"/>
+    </row>
+    <row r="79" spans="1:9">
+      <c r="A79" s="1">
+        <v>6</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E79" s="227">
+        <v>8</v>
+      </c>
+      <c r="F79" s="1"/>
+      <c r="G79" s="228"/>
+      <c r="H79" s="1"/>
+      <c r="I79" s="1"/>
+    </row>
+    <row r="80" spans="1:9">
+      <c r="A80" s="1">
+        <v>1</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E80" s="227">
+        <v>15</v>
+      </c>
+      <c r="F80" s="1">
+        <v>2.7825199999999999</v>
+      </c>
+      <c r="G80" s="228">
+        <v>5</v>
+      </c>
+      <c r="H80" s="1">
+        <v>3</v>
+      </c>
+      <c r="I80" s="1"/>
+    </row>
+    <row r="81" spans="1:9">
+      <c r="A81" s="1">
+        <v>2</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E81" s="227"/>
+      <c r="F81" s="1"/>
+      <c r="G81" s="228"/>
+      <c r="H81" s="1"/>
+      <c r="I81" s="1"/>
+    </row>
+    <row r="82" spans="1:9">
+      <c r="A82" s="1">
+        <v>3</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E82" s="227"/>
+      <c r="F82" s="1"/>
+      <c r="G82" s="228"/>
+      <c r="H82" s="1"/>
+      <c r="I82" s="1"/>
+    </row>
+    <row r="83" spans="1:9">
+      <c r="A83" s="1">
+        <v>4</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E83" s="227"/>
+      <c r="F83" s="1"/>
+      <c r="G83" s="228"/>
+      <c r="H83" s="1"/>
+      <c r="I83" s="1"/>
+    </row>
+    <row r="84" spans="1:9">
+      <c r="A84" s="1">
+        <v>5</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E84" s="227">
+        <v>15</v>
+      </c>
+      <c r="F84" s="1">
+        <v>2.5973200000000003</v>
+      </c>
+      <c r="G84" s="228">
+        <v>3</v>
+      </c>
+      <c r="H84" s="1">
+        <v>3</v>
+      </c>
+      <c r="I84" s="1"/>
+    </row>
+    <row r="85" spans="1:9">
+      <c r="A85" s="1">
+        <v>6</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E85" s="227"/>
+      <c r="F85" s="1"/>
+      <c r="G85" s="228"/>
+      <c r="H85" s="1"/>
+      <c r="I85" s="1"/>
+    </row>
+    <row r="86" spans="1:9">
+      <c r="A86" s="1">
+        <v>1</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E86" s="227">
+        <v>7</v>
+      </c>
+      <c r="F86" s="1">
+        <v>4.0568299999999997</v>
+      </c>
+      <c r="G86" s="228">
+        <v>35</v>
+      </c>
+      <c r="H86" s="1">
+        <v>3</v>
+      </c>
+      <c r="I86" s="1"/>
+    </row>
+    <row r="87" spans="1:9">
+      <c r="A87" s="1">
+        <v>2</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E87" s="227">
+        <v>6</v>
+      </c>
+      <c r="F87" s="1">
+        <v>4.0282299999999998</v>
+      </c>
+      <c r="G87" s="228">
+        <v>24</v>
+      </c>
+      <c r="H87" s="1">
+        <v>3</v>
+      </c>
+      <c r="I87" s="1"/>
+    </row>
+    <row r="88" spans="1:9">
+      <c r="A88" s="1">
+        <v>3</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E88" s="227">
+        <v>7</v>
+      </c>
+      <c r="F88" s="1">
+        <v>4.1567100000000003</v>
+      </c>
+      <c r="G88" s="228">
+        <v>31</v>
+      </c>
+      <c r="H88" s="1">
+        <v>2</v>
+      </c>
+      <c r="I88" s="1"/>
+    </row>
+    <row r="89" spans="1:9">
+      <c r="A89" s="1">
+        <v>4</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E89" s="227">
+        <v>6</v>
+      </c>
+      <c r="F89" s="1">
+        <v>3.9956199999999997</v>
+      </c>
+      <c r="G89" s="228">
+        <v>33</v>
+      </c>
+      <c r="H89" s="1">
+        <v>3</v>
+      </c>
+      <c r="I89" s="1"/>
+    </row>
+    <row r="90" spans="1:9">
+      <c r="A90" s="1">
+        <v>5</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E90" s="227"/>
+      <c r="F90" s="1"/>
+      <c r="G90" s="228"/>
+      <c r="H90" s="1"/>
+      <c r="I90" s="1"/>
+    </row>
+    <row r="91" spans="1:9">
+      <c r="A91" s="1">
+        <v>6</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E91" s="227">
+        <v>6</v>
+      </c>
+      <c r="F91" s="1">
+        <v>4.0515699999999999</v>
+      </c>
+      <c r="G91" s="228">
+        <v>28</v>
+      </c>
+      <c r="H91" s="1">
+        <v>3</v>
+      </c>
+      <c r="I91" s="1"/>
+    </row>
+    <row r="92" spans="1:9">
+      <c r="A92" s="1">
+        <v>1</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E92" s="227">
+        <v>10</v>
+      </c>
+      <c r="F92" s="1">
+        <v>3.2398899999999999</v>
+      </c>
+      <c r="G92" s="228">
+        <v>0</v>
+      </c>
+      <c r="H92" s="1">
+        <v>6</v>
+      </c>
+      <c r="I92" s="1"/>
+    </row>
+    <row r="93" spans="1:9">
+      <c r="A93" s="1">
+        <v>2</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E93" s="227"/>
+      <c r="F93" s="1"/>
+      <c r="G93" s="228"/>
+      <c r="H93" s="1"/>
+      <c r="I93" s="1"/>
+    </row>
+    <row r="94" spans="1:9">
+      <c r="A94" s="1">
+        <v>3</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E94" s="227">
+        <v>12</v>
+      </c>
+      <c r="F94" s="1">
+        <v>2.8700199999999998</v>
+      </c>
+      <c r="G94" s="228">
+        <v>0</v>
+      </c>
+      <c r="H94" s="1">
+        <v>4</v>
+      </c>
+      <c r="I94" s="1"/>
+    </row>
+    <row r="95" spans="1:9">
+      <c r="A95" s="1">
+        <v>4</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E95" s="227">
+        <v>13</v>
+      </c>
+      <c r="F95" s="1">
+        <v>2.8383600000000002</v>
+      </c>
+      <c r="G95" s="228">
+        <v>0</v>
+      </c>
+      <c r="H95" s="1">
+        <v>3</v>
+      </c>
+      <c r="I95" s="1"/>
+    </row>
+    <row r="96" spans="1:9">
+      <c r="A96" s="1">
+        <v>5</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E96" s="227">
+        <v>10</v>
+      </c>
+      <c r="F96" s="1">
+        <v>3.1300599999999998</v>
+      </c>
+      <c r="G96" s="228">
+        <v>0</v>
+      </c>
+      <c r="H96" s="1">
+        <v>6</v>
+      </c>
+      <c r="I96" s="1"/>
+    </row>
+    <row r="97" spans="1:9">
+      <c r="A97" s="1">
+        <v>6</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E97" s="227">
+        <v>13</v>
+      </c>
+      <c r="F97" s="1">
+        <v>3.1825600000000001</v>
+      </c>
+      <c r="G97" s="228">
+        <v>0</v>
+      </c>
+      <c r="H97" s="1">
+        <v>4</v>
+      </c>
+      <c r="I97" s="1"/>
+    </row>
+    <row r="98" spans="1:9">
+      <c r="A98" s="1">
+        <v>1</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E98" s="227">
+        <v>9</v>
+      </c>
+      <c r="F98" s="1">
+        <v>3.8439200000000002</v>
+      </c>
+      <c r="G98" s="228">
+        <v>44</v>
+      </c>
+      <c r="H98" s="1">
+        <v>4</v>
+      </c>
+      <c r="I98" s="1"/>
+    </row>
+    <row r="99" spans="1:9">
+      <c r="A99" s="1">
+        <v>2</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E99" s="227">
+        <v>10</v>
+      </c>
+      <c r="F99" s="1">
+        <v>3.9466000000000001</v>
+      </c>
+      <c r="G99" s="228">
         <v>40</v>
       </c>
-      <c r="F1" s="246" t="s">
-        <v>43</v>
-      </c>
-      <c r="G1" s="246" t="s">
-        <v>46</v>
-      </c>
-      <c r="H1" s="246" t="s">
+      <c r="H99" s="1">
+        <v>3</v>
+      </c>
+      <c r="I99" s="1"/>
+    </row>
+    <row r="100" spans="1:9">
+      <c r="A100" s="1">
+        <v>3</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E100" s="227">
+        <v>8</v>
+      </c>
+      <c r="F100" s="1">
+        <v>3.8235000000000001</v>
+      </c>
+      <c r="G100" s="228">
+        <v>22</v>
+      </c>
+      <c r="H100" s="1">
+        <v>3</v>
+      </c>
+      <c r="I100" s="1"/>
+    </row>
+    <row r="101" spans="1:9">
+      <c r="A101" s="1">
+        <v>4</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E101" s="227">
+        <v>8</v>
+      </c>
+      <c r="F101" s="1">
+        <v>3.9007899999999998</v>
+      </c>
+      <c r="G101" s="228">
+        <v>44</v>
+      </c>
+      <c r="H101" s="1">
+        <v>4</v>
+      </c>
+      <c r="I101" s="1"/>
+    </row>
+    <row r="102" spans="1:9">
+      <c r="A102" s="1">
+        <v>5</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E102" s="227">
+        <v>8</v>
+      </c>
+      <c r="F102" s="1">
+        <v>3.9256500000000001</v>
+      </c>
+      <c r="G102" s="228">
+        <v>41</v>
+      </c>
+      <c r="H102" s="1">
+        <v>4</v>
+      </c>
+      <c r="I102" s="1"/>
+    </row>
+    <row r="103" spans="1:9">
+      <c r="A103" s="1">
+        <v>6</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E103" s="227">
+        <v>8</v>
+      </c>
+      <c r="F103" s="1">
+        <v>3.8233999999999999</v>
+      </c>
+      <c r="G103" s="228">
+        <v>41</v>
+      </c>
+      <c r="H103" s="1">
+        <v>4</v>
+      </c>
+      <c r="I103" s="1"/>
+    </row>
+    <row r="104" spans="1:9">
+      <c r="A104" s="1">
+        <v>1</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E104" s="227">
+        <v>17</v>
+      </c>
+      <c r="F104" s="1">
+        <v>2.15612</v>
+      </c>
+      <c r="G104" s="228">
+        <v>0</v>
+      </c>
+      <c r="H104" s="1">
+        <v>5</v>
+      </c>
+      <c r="I104" s="1"/>
+    </row>
+    <row r="105" spans="1:9">
+      <c r="A105" s="1">
+        <v>2</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E105" s="227">
+        <v>15</v>
+      </c>
+      <c r="F105" s="1">
+        <v>2.37175</v>
+      </c>
+      <c r="G105" s="228">
+        <v>4</v>
+      </c>
+      <c r="H105" s="1">
+        <v>6</v>
+      </c>
+      <c r="I105" s="1"/>
+    </row>
+    <row r="106" spans="1:9">
+      <c r="A106" s="1">
+        <v>3</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E106" s="227"/>
+      <c r="F106" s="1"/>
+      <c r="G106" s="228"/>
+      <c r="H106" s="1"/>
+      <c r="I106" s="1"/>
+    </row>
+    <row r="107" spans="1:9">
+      <c r="A107" s="1">
+        <v>4</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E107" s="227"/>
+      <c r="F107" s="1"/>
+      <c r="G107" s="228"/>
+      <c r="H107" s="1"/>
+      <c r="I107" s="1"/>
+    </row>
+    <row r="108" spans="1:9">
+      <c r="A108" s="1">
+        <v>5</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E108" s="227"/>
+      <c r="F108" s="1"/>
+      <c r="G108" s="228"/>
+      <c r="H108" s="1"/>
+      <c r="I108" s="1"/>
+    </row>
+    <row r="109" spans="1:9">
+      <c r="A109" s="1">
+        <v>6</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E109" s="227">
+        <v>17</v>
+      </c>
+      <c r="F109" s="1">
+        <v>2.5436999999999999</v>
+      </c>
+      <c r="G109" s="228">
+        <v>0</v>
+      </c>
+      <c r="H109" s="1">
+        <v>6</v>
+      </c>
+      <c r="I109" s="1"/>
+    </row>
+    <row r="110" spans="1:9">
+      <c r="A110" s="1">
+        <v>1</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E110" s="227">
+        <v>8</v>
+      </c>
+      <c r="F110" s="1">
+        <v>3.9968600000000003</v>
+      </c>
+      <c r="G110" s="228">
+        <v>26</v>
+      </c>
+      <c r="H110" s="1">
+        <v>3</v>
+      </c>
+      <c r="I110" s="1"/>
+    </row>
+    <row r="111" spans="1:9">
+      <c r="A111" s="1">
+        <v>2</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E111" s="227">
+        <v>8</v>
+      </c>
+      <c r="F111" s="1">
+        <v>4.0042200000000001</v>
+      </c>
+      <c r="G111" s="228">
+        <v>27</v>
+      </c>
+      <c r="H111" s="1">
+        <v>4</v>
+      </c>
+      <c r="I111" s="1"/>
+    </row>
+    <row r="112" spans="1:9">
+      <c r="A112" s="1">
+        <v>3</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E112" s="227">
+        <v>9</v>
+      </c>
+      <c r="F112" s="1">
+        <v>3.6261999999999999</v>
+      </c>
+      <c r="G112" s="228">
+        <v>25</v>
+      </c>
+      <c r="H112" s="1">
+        <v>3</v>
+      </c>
+      <c r="I112" s="1"/>
+    </row>
+    <row r="113" spans="1:9">
+      <c r="A113" s="1">
+        <v>4</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E113" s="227">
+        <v>8</v>
+      </c>
+      <c r="F113" s="1">
+        <v>3.8887199999999997</v>
+      </c>
+      <c r="G113" s="228">
+        <v>17</v>
+      </c>
+      <c r="H113" s="1">
+        <v>3</v>
+      </c>
+      <c r="I113" s="1"/>
+    </row>
+    <row r="114" spans="1:9">
+      <c r="A114" s="1">
+        <v>5</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E114" s="227">
+        <v>8</v>
+      </c>
+      <c r="F114" s="1">
+        <v>3.90835</v>
+      </c>
+      <c r="G114" s="228">
+        <v>27</v>
+      </c>
+      <c r="H114" s="1">
+        <v>4</v>
+      </c>
+      <c r="I114" s="1"/>
+    </row>
+    <row r="115" spans="1:9">
+      <c r="A115" s="1">
+        <v>6</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E115" s="227"/>
+      <c r="F115" s="1"/>
+      <c r="G115" s="228"/>
+      <c r="H115" s="1"/>
+      <c r="I115" s="1"/>
+    </row>
+    <row r="116" spans="1:9">
+      <c r="A116" s="1">
+        <v>1</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D116" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E116" s="227"/>
+      <c r="F116" s="1"/>
+      <c r="G116" s="228"/>
+      <c r="H116" s="1"/>
+      <c r="I116" s="1"/>
+    </row>
+    <row r="117" spans="1:9">
+      <c r="A117" s="1">
+        <v>2</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D117" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E117" s="227"/>
+      <c r="F117" s="1"/>
+      <c r="G117" s="228"/>
+      <c r="H117" s="1"/>
+      <c r="I117" s="1"/>
+    </row>
+    <row r="118" spans="1:9">
+      <c r="A118" s="1">
+        <v>3</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D118" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E118" s="227"/>
+      <c r="F118" s="1"/>
+      <c r="G118" s="228"/>
+      <c r="H118" s="1"/>
+      <c r="I118" s="1"/>
+    </row>
+    <row r="119" spans="1:9">
+      <c r="A119" s="1">
+        <v>4</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D119" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E119" s="227">
+        <v>14</v>
+      </c>
+      <c r="F119" s="1">
+        <v>2.8538699999999997</v>
+      </c>
+      <c r="G119" s="228">
+        <v>5</v>
+      </c>
+      <c r="H119" s="1">
+        <v>7</v>
+      </c>
+      <c r="I119" s="1"/>
+    </row>
+    <row r="120" spans="1:9">
+      <c r="A120" s="1">
+        <v>5</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D120" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E120" s="227">
+        <v>15</v>
+      </c>
+      <c r="F120" s="1">
+        <v>2.5787100000000001</v>
+      </c>
+      <c r="G120" s="228">
+        <v>5</v>
+      </c>
+      <c r="H120" s="1">
+        <v>6</v>
+      </c>
+      <c r="I120" s="1"/>
+    </row>
+    <row r="121" spans="1:9">
+      <c r="A121" s="1">
+        <v>6</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D121" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E121" s="227">
+        <v>15</v>
+      </c>
+      <c r="F121" s="1">
+        <v>2.6916199999999999</v>
+      </c>
+      <c r="G121" s="228">
+        <v>4</v>
+      </c>
+      <c r="H121" s="1">
+        <v>6</v>
+      </c>
+      <c r="I121" s="1"/>
+    </row>
+    <row r="122" spans="1:9">
+      <c r="A122" s="1">
+        <v>1</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D122" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E122" s="227">
+        <v>8</v>
+      </c>
+      <c r="F122" s="1">
+        <v>3.9277600000000001</v>
+      </c>
+      <c r="G122" s="228">
+        <v>38</v>
+      </c>
+      <c r="H122" s="1">
+        <v>3</v>
+      </c>
+      <c r="I122" s="1"/>
+    </row>
+    <row r="123" spans="1:9">
+      <c r="A123" s="1">
+        <v>2</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D123" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E123" s="227">
+        <v>9</v>
+      </c>
+      <c r="F123" s="1">
+        <v>3.8163899999999997</v>
+      </c>
+      <c r="G123" s="228">
+        <v>34</v>
+      </c>
+      <c r="H123" s="1">
+        <v>3</v>
+      </c>
+      <c r="I123" s="1"/>
+    </row>
+    <row r="124" spans="1:9">
+      <c r="A124" s="1">
+        <v>3</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D124" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E124" s="227">
+        <v>8</v>
+      </c>
+      <c r="F124" s="1">
+        <v>3.9497199999999997</v>
+      </c>
+      <c r="G124" s="228">
+        <v>41</v>
+      </c>
+      <c r="H124" s="1">
+        <v>3</v>
+      </c>
+      <c r="I124" s="1"/>
+    </row>
+    <row r="125" spans="1:9">
+      <c r="A125" s="1">
+        <v>4</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D125" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E125" s="227"/>
+      <c r="F125" s="1"/>
+      <c r="G125" s="228"/>
+      <c r="H125" s="1"/>
+      <c r="I125" s="1"/>
+    </row>
+    <row r="126" spans="1:9">
+      <c r="A126" s="1">
+        <v>5</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D126" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E126" s="227"/>
+      <c r="F126" s="1"/>
+      <c r="G126" s="228"/>
+      <c r="H126" s="1"/>
+      <c r="I126" s="1"/>
+    </row>
+    <row r="127" spans="1:9">
+      <c r="A127" s="1">
+        <v>6</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D127" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E127" s="227"/>
+      <c r="F127" s="1"/>
+      <c r="G127" s="228"/>
+      <c r="H127" s="1"/>
+      <c r="I127" s="1"/>
+    </row>
+    <row r="128" spans="1:9">
+      <c r="A128" s="1">
+        <v>1</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D128" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E128" s="227"/>
+      <c r="F128" s="1"/>
+      <c r="G128" s="228"/>
+      <c r="H128" s="1"/>
+      <c r="I128" s="1"/>
+    </row>
+    <row r="129" spans="1:9">
+      <c r="A129" s="1">
+        <v>2</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D129" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E129" s="227">
+        <v>19</v>
+      </c>
+      <c r="F129" s="1"/>
+      <c r="G129" s="228">
+        <v>0</v>
+      </c>
+      <c r="H129" s="1">
+        <v>4</v>
+      </c>
+      <c r="I129" s="1"/>
+    </row>
+    <row r="130" spans="1:9">
+      <c r="A130" s="1">
+        <v>3</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D130" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E130" s="227"/>
+      <c r="F130" s="1"/>
+      <c r="G130" s="228"/>
+      <c r="H130" s="1"/>
+      <c r="I130" s="1"/>
+    </row>
+    <row r="131" spans="1:9">
+      <c r="A131" s="1">
+        <v>4</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D131" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E131" s="227">
+        <v>16</v>
+      </c>
+      <c r="F131" s="1">
+        <v>3.3693899999999997</v>
+      </c>
+      <c r="G131" s="228">
+        <v>0</v>
+      </c>
+      <c r="H131" s="1">
+        <v>5</v>
+      </c>
+      <c r="I131" s="1"/>
+    </row>
+    <row r="132" spans="1:9">
+      <c r="A132" s="1">
+        <v>5</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D132" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E132" s="227"/>
+      <c r="F132" s="1"/>
+      <c r="G132" s="228"/>
+      <c r="H132" s="1"/>
+      <c r="I132" s="1"/>
+    </row>
+    <row r="133" spans="1:9">
+      <c r="A133" s="1">
+        <v>6</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D133" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E133" s="227"/>
+      <c r="F133" s="1"/>
+      <c r="G133" s="228"/>
+      <c r="H133" s="1"/>
+      <c r="I133" s="1"/>
+    </row>
+    <row r="134" spans="1:9">
+      <c r="A134" s="1">
+        <v>1</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D134" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E134" s="227">
+        <v>7</v>
+      </c>
+      <c r="F134" s="1">
+        <v>3.9051</v>
+      </c>
+      <c r="G134" s="228">
+        <v>33</v>
+      </c>
+      <c r="H134" s="1">
+        <v>3</v>
+      </c>
+      <c r="I134" s="1"/>
+    </row>
+    <row r="135" spans="1:9">
+      <c r="A135" s="1">
+        <v>2</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D135" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E135" s="227">
+        <v>7</v>
+      </c>
+      <c r="F135" s="1">
+        <v>3.87269</v>
+      </c>
+      <c r="G135" s="228">
+        <v>37</v>
+      </c>
+      <c r="H135" s="1">
+        <v>3</v>
+      </c>
+      <c r="I135" s="1"/>
+    </row>
+    <row r="136" spans="1:9">
+      <c r="A136" s="1">
+        <v>3</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D136" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E136" s="227"/>
+      <c r="F136" s="1"/>
+      <c r="G136" s="228"/>
+      <c r="H136" s="1"/>
+      <c r="I136" s="1"/>
+    </row>
+    <row r="137" spans="1:9">
+      <c r="A137" s="1">
+        <v>4</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D137" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E137" s="227">
+        <v>8</v>
+      </c>
+      <c r="F137" s="1">
+        <v>3.81928</v>
+      </c>
+      <c r="G137" s="228">
+        <v>34</v>
+      </c>
+      <c r="H137" s="1">
+        <v>3</v>
+      </c>
+      <c r="I137" s="1"/>
+    </row>
+    <row r="138" spans="1:9">
+      <c r="A138" s="1">
+        <v>5</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D138" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E138" s="227">
+        <v>7</v>
+      </c>
+      <c r="F138" s="1">
+        <v>3.8507699999999998</v>
+      </c>
+      <c r="G138" s="228">
+        <v>35</v>
+      </c>
+      <c r="H138" s="1">
+        <v>3</v>
+      </c>
+      <c r="I138" s="1"/>
+    </row>
+    <row r="139" spans="1:9">
+      <c r="A139" s="1">
+        <v>6</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D139" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E139" s="227">
+        <v>7</v>
+      </c>
+      <c r="F139" s="1">
+        <v>3.9354</v>
+      </c>
+      <c r="G139" s="228">
+        <v>37</v>
+      </c>
+      <c r="H139" s="1">
+        <v>3</v>
+      </c>
+      <c r="I139" s="1"/>
+    </row>
+    <row r="140" spans="1:9">
+      <c r="A140" s="1">
+        <v>1</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C140" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D140" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E140" s="227"/>
+      <c r="F140" s="1"/>
+      <c r="G140" s="228"/>
+      <c r="H140" s="1"/>
+      <c r="I140" s="1"/>
+    </row>
+    <row r="141" spans="1:9">
+      <c r="A141" s="1">
+        <v>2</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C141" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D141" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E141" s="227">
+        <v>13</v>
+      </c>
+      <c r="F141" s="1">
+        <v>2.6186599999999998</v>
+      </c>
+      <c r="G141" s="228">
+        <v>0</v>
+      </c>
+      <c r="H141" s="1">
+        <v>4</v>
+      </c>
+      <c r="I141" s="1"/>
+    </row>
+    <row r="142" spans="1:9">
+      <c r="A142" s="1">
+        <v>3</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C142" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D142" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E142" s="227"/>
+      <c r="F142" s="1"/>
+      <c r="G142" s="228"/>
+      <c r="H142" s="1"/>
+      <c r="I142" s="1"/>
+    </row>
+    <row r="143" spans="1:9">
+      <c r="A143" s="1">
+        <v>4</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C143" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D143" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E143" s="227">
+        <v>14</v>
+      </c>
+      <c r="F143" s="1">
+        <v>2.5307499999999998</v>
+      </c>
+      <c r="G143" s="228">
+        <v>0</v>
+      </c>
+      <c r="H143" s="1">
+        <v>4</v>
+      </c>
+      <c r="I143" s="1"/>
+    </row>
+    <row r="144" spans="1:9">
+      <c r="A144" s="1">
+        <v>5</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C144" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D144" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E144" s="227"/>
+      <c r="F144" s="1"/>
+      <c r="G144" s="228"/>
+      <c r="H144" s="1"/>
+      <c r="I144" s="1"/>
+    </row>
+    <row r="145" spans="1:9">
+      <c r="A145" s="1">
+        <v>6</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C145" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D145" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E145" s="227"/>
+      <c r="F145" s="1"/>
+      <c r="G145" s="228"/>
+      <c r="H145" s="1"/>
+      <c r="I145" s="1"/>
+    </row>
+    <row r="146" spans="1:9">
+      <c r="A146" s="1">
+        <v>1</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C146" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D146" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E146" s="227">
+        <v>8</v>
+      </c>
+      <c r="F146" s="1">
+        <v>3.7213499999999997</v>
+      </c>
+      <c r="G146" s="228">
+        <v>32</v>
+      </c>
+      <c r="H146" s="1">
+        <v>4</v>
+      </c>
+      <c r="I146" s="1"/>
+    </row>
+    <row r="147" spans="1:9">
+      <c r="A147" s="1">
+        <v>2</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C147" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D147" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E147" s="227">
+        <v>8</v>
+      </c>
+      <c r="F147" s="1">
+        <v>3.9912100000000001</v>
+      </c>
+      <c r="G147" s="228">
+        <v>40</v>
+      </c>
+      <c r="H147" s="1">
+        <v>3</v>
+      </c>
+      <c r="I147" s="1"/>
+    </row>
+    <row r="148" spans="1:9">
+      <c r="A148" s="1">
+        <v>3</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C148" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D148" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E148" s="227">
+        <v>9</v>
+      </c>
+      <c r="F148" s="1">
+        <v>3.8117800000000002</v>
+      </c>
+      <c r="G148" s="228">
+        <v>45</v>
+      </c>
+      <c r="H148" s="1">
+        <v>3</v>
+      </c>
+      <c r="I148" s="1"/>
+    </row>
+    <row r="149" spans="1:9">
+      <c r="A149" s="1">
+        <v>4</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C149" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D149" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E149" s="227">
+        <v>8</v>
+      </c>
+      <c r="F149" s="1">
+        <v>3.9439099999999998</v>
+      </c>
+      <c r="G149" s="228">
+        <v>40</v>
+      </c>
+      <c r="H149" s="1">
+        <v>3</v>
+      </c>
+      <c r="I149" s="1"/>
+    </row>
+    <row r="150" spans="1:9">
+      <c r="A150" s="1">
+        <v>5</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C150" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D150" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E150" s="227">
+        <v>9</v>
+      </c>
+      <c r="F150" s="1">
+        <v>3.9283600000000001</v>
+      </c>
+      <c r="G150" s="228">
         <v>47</v>
       </c>
-      <c r="I1" s="246"/>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="248">
+      <c r="H150" s="1">
+        <v>3</v>
+      </c>
+      <c r="I150" s="1"/>
+    </row>
+    <row r="151" spans="1:9">
+      <c r="A151" s="1">
+        <v>6</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C151" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D151" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E151" s="227">
+        <v>8</v>
+      </c>
+      <c r="F151" s="1">
+        <v>3.94997</v>
+      </c>
+      <c r="G151" s="228">
+        <v>40</v>
+      </c>
+      <c r="H151" s="1">
+        <v>3</v>
+      </c>
+      <c r="I151" s="1"/>
+    </row>
+    <row r="152" spans="1:9">
+      <c r="A152" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="248" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="248" t="s">
-        <v>26</v>
-      </c>
-      <c r="D2" s="248" t="s">
-        <v>37</v>
-      </c>
-      <c r="E2" s="249">
-        <v>7</v>
-      </c>
-      <c r="F2" s="248">
-        <v>4.0007999999999999</v>
-      </c>
-      <c r="G2" s="250">
-        <v>65</v>
-      </c>
-      <c r="H2" s="248">
+      <c r="B152" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C152" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D152" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E152" s="227">
+        <v>15</v>
+      </c>
+      <c r="F152" s="1">
+        <v>3.7448299999999999</v>
+      </c>
+      <c r="G152" s="228">
+        <v>19</v>
+      </c>
+      <c r="H152" s="1">
+        <v>6</v>
+      </c>
+      <c r="I152" s="1"/>
+    </row>
+    <row r="153" spans="1:9">
+      <c r="A153" s="1">
+        <v>2</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C153" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D153" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E153" s="227">
+        <v>15</v>
+      </c>
+      <c r="F153" s="1">
+        <v>3.5450500000000003</v>
+      </c>
+      <c r="G153" s="228">
+        <v>0</v>
+      </c>
+      <c r="H153" s="1">
+        <v>4</v>
+      </c>
+      <c r="I153" s="1"/>
+    </row>
+    <row r="154" spans="1:9">
+      <c r="A154" s="1">
+        <v>3</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C154" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D154" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E154" s="227">
+        <v>15</v>
+      </c>
+      <c r="F154" s="1">
+        <v>3.4198300000000001</v>
+      </c>
+      <c r="G154" s="228">
+        <v>0</v>
+      </c>
+      <c r="H154" s="1">
+        <v>6</v>
+      </c>
+      <c r="I154" s="1"/>
+    </row>
+    <row r="155" spans="1:9">
+      <c r="A155" s="1">
+        <v>4</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C155" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D155" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E155" s="227">
+        <v>15</v>
+      </c>
+      <c r="F155" s="1">
+        <v>3.58934</v>
+      </c>
+      <c r="G155" s="228">
+        <v>0</v>
+      </c>
+      <c r="H155" s="1">
+        <v>6</v>
+      </c>
+      <c r="I155" s="1"/>
+    </row>
+    <row r="156" spans="1:9">
+      <c r="A156" s="1">
         <v>5</v>
       </c>
-      <c r="I2" s="248"/>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="248">
-        <v>2</v>
-      </c>
-      <c r="B3" s="248" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="248" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" s="248" t="s">
-        <v>37</v>
-      </c>
-      <c r="E3" s="249">
-        <v>9</v>
-      </c>
-      <c r="F3" s="248">
-        <v>3.9379599999999999</v>
-      </c>
-      <c r="G3" s="250">
-        <v>58</v>
-      </c>
-      <c r="H3" s="248">
-        <v>3</v>
-      </c>
-      <c r="I3" s="248"/>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="248">
-        <v>3</v>
-      </c>
-      <c r="B4" s="248" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="248" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" s="248" t="s">
-        <v>37</v>
-      </c>
-      <c r="E4" s="249">
-        <v>7</v>
-      </c>
-      <c r="F4" s="248">
-        <v>3.9877699999999998</v>
-      </c>
-      <c r="G4" s="250">
-        <v>59</v>
-      </c>
-      <c r="H4" s="248">
-        <v>4</v>
-      </c>
-      <c r="I4" s="248"/>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="248">
-        <v>4</v>
-      </c>
-      <c r="B5" s="248" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="248" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" s="248" t="s">
-        <v>37</v>
-      </c>
-      <c r="E5" s="249">
-        <v>7</v>
-      </c>
-      <c r="F5" s="248">
-        <v>3.9621599999999999</v>
-      </c>
-      <c r="G5" s="250">
-        <v>48</v>
-      </c>
-      <c r="H5" s="248">
-        <v>4</v>
-      </c>
-      <c r="I5" s="248"/>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="248">
+      <c r="B156" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C156" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D156" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E156" s="227">
+        <v>15</v>
+      </c>
+      <c r="F156" s="1">
+        <v>3.7646700000000002</v>
+      </c>
+      <c r="G156" s="228">
+        <v>23</v>
+      </c>
+      <c r="H156" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="248" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="248" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" s="248" t="s">
-        <v>37</v>
-      </c>
-      <c r="E6" s="249">
-        <v>7</v>
-      </c>
-      <c r="F6" s="248">
-        <v>3.9470900000000002</v>
-      </c>
-      <c r="G6" s="250">
-        <v>58</v>
-      </c>
-      <c r="H6" s="248">
-        <v>4</v>
-      </c>
-      <c r="I6" s="248"/>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="248">
+      <c r="I156" s="1"/>
+    </row>
+    <row r="157" spans="1:9">
+      <c r="A157" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="248" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="248" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" s="248" t="s">
-        <v>37</v>
-      </c>
-      <c r="E7" s="249">
-        <v>7</v>
-      </c>
-      <c r="F7" s="248">
-        <v>3.7816100000000001</v>
-      </c>
-      <c r="G7" s="250">
+      <c r="B157" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C157" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D157" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="H7" s="248">
+      <c r="E157" s="227">
+        <v>15</v>
+      </c>
+      <c r="F157" s="1">
+        <v>3.5377899999999998</v>
+      </c>
+      <c r="G157" s="228">
+        <v>8</v>
+      </c>
+      <c r="H157" s="1">
         <v>5</v>
       </c>
-      <c r="I7" s="248"/>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="248">
-        <v>1</v>
-      </c>
-      <c r="B8" s="248" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="248" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" s="248" t="s">
-        <v>39</v>
-      </c>
-      <c r="E8" s="249">
-        <v>14</v>
-      </c>
-      <c r="F8" s="248">
-        <v>2.4706300000000003</v>
-      </c>
-      <c r="G8" s="250">
-        <v>0</v>
-      </c>
-      <c r="H8" s="248">
-        <v>3</v>
-      </c>
-      <c r="I8" s="248"/>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="248">
-        <v>2</v>
-      </c>
-      <c r="B9" s="248" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="248" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" s="248" t="s">
-        <v>39</v>
-      </c>
-      <c r="E9" s="249"/>
-      <c r="F9" s="248"/>
-      <c r="G9" s="250"/>
-      <c r="H9" s="248"/>
-      <c r="I9" s="248"/>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="248">
-        <v>3</v>
-      </c>
-      <c r="B10" s="248" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="248" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" s="248" t="s">
-        <v>39</v>
-      </c>
-      <c r="E10" s="249"/>
-      <c r="F10" s="248"/>
-      <c r="G10" s="250"/>
-      <c r="H10" s="248"/>
-      <c r="I10" s="248"/>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="248">
-        <v>4</v>
-      </c>
-      <c r="B11" s="248" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="248" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" s="248" t="s">
-        <v>39</v>
-      </c>
-      <c r="E11" s="249">
-        <v>12</v>
-      </c>
-      <c r="F11" s="248">
-        <v>3.1534400000000002</v>
-      </c>
-      <c r="G11" s="250">
-        <v>0</v>
-      </c>
-      <c r="H11" s="248">
-        <v>5</v>
-      </c>
-      <c r="I11" s="248"/>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="248">
-        <v>5</v>
-      </c>
-      <c r="B12" s="248" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" s="248" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" s="248" t="s">
-        <v>39</v>
-      </c>
-      <c r="E12" s="249">
-        <v>13</v>
-      </c>
-      <c r="F12" s="248">
-        <v>2.66635</v>
-      </c>
-      <c r="G12" s="250">
-        <v>0</v>
-      </c>
-      <c r="H12" s="248">
-        <v>4</v>
-      </c>
-      <c r="I12" s="248"/>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="248">
-        <v>6</v>
-      </c>
-      <c r="B13" s="248" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" s="248" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" s="248" t="s">
-        <v>39</v>
-      </c>
-      <c r="E13" s="249"/>
-      <c r="F13" s="248"/>
-      <c r="G13" s="250"/>
-      <c r="H13" s="248"/>
-      <c r="I13" s="248"/>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="248">
-        <v>1</v>
-      </c>
-      <c r="B14" s="248" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" s="248" t="s">
-        <v>26</v>
-      </c>
-      <c r="D14" s="248" t="s">
-        <v>37</v>
-      </c>
-      <c r="E14" s="249">
-        <v>8</v>
-      </c>
-      <c r="F14" s="248">
-        <v>3.8981999999999997</v>
-      </c>
-      <c r="G14" s="250">
-        <v>30</v>
-      </c>
-      <c r="H14" s="248">
-        <v>3</v>
-      </c>
-      <c r="I14" s="248"/>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" s="248">
-        <v>2</v>
-      </c>
-      <c r="B15" s="248" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15" s="248" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" s="248" t="s">
-        <v>37</v>
-      </c>
-      <c r="E15" s="249">
-        <v>8</v>
-      </c>
-      <c r="F15" s="248">
-        <v>3.9728699999999999</v>
-      </c>
-      <c r="G15" s="250">
-        <v>20</v>
-      </c>
-      <c r="H15" s="248">
-        <v>4</v>
-      </c>
-      <c r="I15" s="248"/>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" s="248">
-        <v>3</v>
-      </c>
-      <c r="B16" s="248" t="s">
-        <v>8</v>
-      </c>
-      <c r="C16" s="248" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" s="248" t="s">
-        <v>37</v>
-      </c>
-      <c r="E16" s="249">
-        <v>8</v>
-      </c>
-      <c r="F16" s="248">
-        <v>3.8235999999999999</v>
-      </c>
-      <c r="G16" s="250">
-        <v>37</v>
-      </c>
-      <c r="H16" s="248">
-        <v>3</v>
-      </c>
-      <c r="I16" s="248"/>
-    </row>
-    <row r="17" spans="1:9">
-      <c r="A17" s="248">
-        <v>4</v>
-      </c>
-      <c r="B17" s="248" t="s">
-        <v>8</v>
-      </c>
-      <c r="C17" s="248" t="s">
-        <v>26</v>
-      </c>
-      <c r="D17" s="248" t="s">
-        <v>37</v>
-      </c>
-      <c r="E17" s="249">
-        <v>7</v>
-      </c>
-      <c r="F17" s="248">
-        <v>3.95072</v>
-      </c>
-      <c r="G17" s="250">
-        <v>39</v>
-      </c>
-      <c r="H17" s="248">
-        <v>4</v>
-      </c>
-      <c r="I17" s="248"/>
-    </row>
-    <row r="18" spans="1:9">
-      <c r="A18" s="248">
-        <v>5</v>
-      </c>
-      <c r="B18" s="248" t="s">
-        <v>8</v>
-      </c>
-      <c r="C18" s="248" t="s">
-        <v>26</v>
-      </c>
-      <c r="D18" s="248" t="s">
-        <v>37</v>
-      </c>
-      <c r="E18" s="249">
-        <v>7</v>
-      </c>
-      <c r="F18" s="248">
-        <v>3.9121999999999999</v>
-      </c>
-      <c r="G18" s="250">
-        <v>33</v>
-      </c>
-      <c r="H18" s="248">
-        <v>3</v>
-      </c>
-      <c r="I18" s="248"/>
-    </row>
-    <row r="19" spans="1:9">
-      <c r="A19" s="248">
-        <v>6</v>
-      </c>
-      <c r="B19" s="248" t="s">
-        <v>8</v>
-      </c>
-      <c r="C19" s="248" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" s="248" t="s">
-        <v>37</v>
-      </c>
-      <c r="E19" s="249"/>
-      <c r="F19" s="248"/>
-      <c r="G19" s="250"/>
-      <c r="H19" s="248"/>
-      <c r="I19" s="248"/>
-    </row>
-    <row r="20" spans="1:9">
-      <c r="A20" s="248">
-        <v>1</v>
-      </c>
-      <c r="B20" s="248" t="s">
-        <v>8</v>
-      </c>
-      <c r="C20" s="248" t="s">
-        <v>26</v>
-      </c>
-      <c r="D20" s="248" t="s">
-        <v>39</v>
-      </c>
-      <c r="E20" s="249">
-        <v>15</v>
-      </c>
-      <c r="F20" s="248">
-        <v>3.6478000000000002</v>
-      </c>
-      <c r="G20" s="250">
-        <v>9</v>
-      </c>
-      <c r="H20" s="248">
-        <v>7</v>
-      </c>
-      <c r="I20" s="248"/>
-    </row>
-    <row r="21" spans="1:9">
-      <c r="A21" s="248">
-        <v>2</v>
-      </c>
-      <c r="B21" s="248" t="s">
-        <v>8</v>
-      </c>
-      <c r="C21" s="248" t="s">
-        <v>26</v>
-      </c>
-      <c r="D21" s="248" t="s">
-        <v>39</v>
-      </c>
-      <c r="E21" s="249">
-        <v>15</v>
-      </c>
-      <c r="F21" s="248">
-        <v>3.6543099999999997</v>
-      </c>
-      <c r="G21" s="250">
-        <v>0</v>
-      </c>
-      <c r="H21" s="248">
-        <v>6</v>
-      </c>
-      <c r="I21" s="248"/>
-    </row>
-    <row r="22" spans="1:9">
-      <c r="A22" s="248">
-        <v>3</v>
-      </c>
-      <c r="B22" s="248" t="s">
-        <v>8</v>
-      </c>
-      <c r="C22" s="248" t="s">
-        <v>26</v>
-      </c>
-      <c r="D22" s="248" t="s">
-        <v>39</v>
-      </c>
-      <c r="E22" s="249">
-        <v>16</v>
-      </c>
-      <c r="F22" s="248">
-        <v>3.6524000000000001</v>
-      </c>
-      <c r="G22" s="250">
-        <v>10</v>
-      </c>
-      <c r="H22" s="248">
-        <v>6</v>
-      </c>
-      <c r="I22" s="248"/>
-    </row>
-    <row r="23" spans="1:9">
-      <c r="A23" s="248">
-        <v>4</v>
-      </c>
-      <c r="B23" s="248" t="s">
-        <v>8</v>
-      </c>
-      <c r="C23" s="248" t="s">
-        <v>26</v>
-      </c>
-      <c r="D23" s="248" t="s">
-        <v>39</v>
-      </c>
-      <c r="E23" s="249">
-        <v>15</v>
-      </c>
-      <c r="F23" s="248">
-        <v>3.0021799999999996</v>
-      </c>
-      <c r="G23" s="250">
-        <v>0</v>
-      </c>
-      <c r="H23" s="248">
-        <v>6</v>
-      </c>
-      <c r="I23" s="248"/>
-    </row>
-    <row r="24" spans="1:9">
-      <c r="A24" s="248">
-        <v>5</v>
-      </c>
-      <c r="B24" s="248" t="s">
-        <v>8</v>
-      </c>
-      <c r="C24" s="248" t="s">
-        <v>26</v>
-      </c>
-      <c r="D24" s="248" t="s">
-        <v>39</v>
-      </c>
-      <c r="E24" s="249">
-        <v>15</v>
-      </c>
-      <c r="F24" s="248">
-        <v>3.4405000000000001</v>
-      </c>
-      <c r="G24" s="250">
-        <v>8</v>
-      </c>
-      <c r="H24" s="248">
-        <v>6</v>
-      </c>
-      <c r="I24" s="248"/>
-    </row>
-    <row r="25" spans="1:9">
-      <c r="A25" s="248">
-        <v>6</v>
-      </c>
-      <c r="B25" s="248" t="s">
-        <v>8</v>
-      </c>
-      <c r="C25" s="248" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" s="248" t="s">
-        <v>39</v>
-      </c>
-      <c r="E25" s="249"/>
-      <c r="F25" s="248"/>
-      <c r="G25" s="250"/>
-      <c r="H25" s="248"/>
-      <c r="I25" s="248"/>
-    </row>
-    <row r="26" spans="1:9">
-      <c r="A26" s="248">
-        <v>1</v>
-      </c>
-      <c r="B26" s="248" t="s">
-        <v>9</v>
-      </c>
-      <c r="C26" s="248" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" s="248" t="s">
-        <v>37</v>
-      </c>
-      <c r="E26" s="249">
-        <v>9</v>
-      </c>
-      <c r="F26" s="248">
-        <v>3.9915100000000003</v>
-      </c>
-      <c r="G26" s="250">
-        <v>27</v>
-      </c>
-      <c r="H26" s="248">
-        <v>3</v>
-      </c>
-      <c r="I26" s="248"/>
-    </row>
-    <row r="27" spans="1:9">
-      <c r="A27" s="248">
-        <v>2</v>
-      </c>
-      <c r="B27" s="248" t="s">
-        <v>9</v>
-      </c>
-      <c r="C27" s="248" t="s">
-        <v>26</v>
-      </c>
-      <c r="D27" s="248" t="s">
-        <v>37</v>
-      </c>
-      <c r="E27" s="249">
-        <v>10</v>
-      </c>
-      <c r="F27" s="248">
-        <v>4.2533700000000003</v>
-      </c>
-      <c r="G27" s="250">
-        <v>42</v>
-      </c>
-      <c r="H27" s="248">
-        <v>3</v>
-      </c>
-      <c r="I27" s="248"/>
-    </row>
-    <row r="28" spans="1:9">
-      <c r="A28" s="248">
-        <v>3</v>
-      </c>
-      <c r="B28" s="248" t="s">
-        <v>9</v>
-      </c>
-      <c r="C28" s="248" t="s">
-        <v>26</v>
-      </c>
-      <c r="D28" s="248" t="s">
-        <v>37</v>
-      </c>
-      <c r="E28" s="249">
-        <v>9</v>
-      </c>
-      <c r="F28" s="248">
-        <v>4.3148400000000002</v>
-      </c>
-      <c r="G28" s="250">
-        <v>35</v>
-      </c>
-      <c r="H28" s="248">
-        <v>3</v>
-      </c>
-      <c r="I28" s="248"/>
-    </row>
-    <row r="29" spans="1:9">
-      <c r="A29" s="248">
-        <v>4</v>
-      </c>
-      <c r="B29" s="248" t="s">
-        <v>9</v>
-      </c>
-      <c r="C29" s="248" t="s">
-        <v>26</v>
-      </c>
-      <c r="D29" s="248" t="s">
-        <v>37</v>
-      </c>
-      <c r="E29" s="249">
-        <v>10</v>
-      </c>
-      <c r="F29" s="248">
-        <v>4.2094799999999992</v>
-      </c>
-      <c r="G29" s="250">
-        <v>36</v>
-      </c>
-      <c r="H29" s="248">
-        <v>3</v>
-      </c>
-      <c r="I29" s="248"/>
-    </row>
-    <row r="30" spans="1:9">
-      <c r="A30" s="248">
-        <v>5</v>
-      </c>
-      <c r="B30" s="248" t="s">
-        <v>9</v>
-      </c>
-      <c r="C30" s="248" t="s">
-        <v>26</v>
-      </c>
-      <c r="D30" s="248" t="s">
-        <v>37</v>
-      </c>
-      <c r="E30" s="249">
-        <v>8</v>
-      </c>
-      <c r="F30" s="248">
-        <v>3.9470300000000003</v>
-      </c>
-      <c r="G30" s="250">
-        <v>29</v>
-      </c>
-      <c r="H30" s="248">
-        <v>3</v>
-      </c>
-      <c r="I30" s="248"/>
-    </row>
-    <row r="31" spans="1:9">
-      <c r="A31" s="248">
-        <v>6</v>
-      </c>
-      <c r="B31" s="248" t="s">
-        <v>9</v>
-      </c>
-      <c r="C31" s="248" t="s">
-        <v>26</v>
-      </c>
-      <c r="D31" s="248" t="s">
-        <v>37</v>
-      </c>
-      <c r="E31" s="249">
-        <v>9</v>
-      </c>
-      <c r="F31" s="248">
-        <v>4.21061</v>
-      </c>
-      <c r="G31" s="250">
-        <v>38</v>
-      </c>
-      <c r="H31" s="248">
-        <v>3</v>
-      </c>
-      <c r="I31" s="248"/>
-    </row>
-    <row r="32" spans="1:9">
-      <c r="A32" s="248">
-        <v>1</v>
-      </c>
-      <c r="B32" s="248" t="s">
-        <v>9</v>
-      </c>
-      <c r="C32" s="248" t="s">
-        <v>26</v>
-      </c>
-      <c r="D32" s="248" t="s">
-        <v>39</v>
-      </c>
-      <c r="E32" s="249"/>
-      <c r="F32" s="248"/>
-      <c r="G32" s="250"/>
-      <c r="H32" s="248"/>
-      <c r="I32" s="248"/>
-    </row>
-    <row r="33" spans="1:9">
-      <c r="A33" s="248">
-        <v>2</v>
-      </c>
-      <c r="B33" s="248" t="s">
-        <v>9</v>
-      </c>
-      <c r="C33" s="248" t="s">
-        <v>26</v>
-      </c>
-      <c r="D33" s="248" t="s">
-        <v>39</v>
-      </c>
-      <c r="E33" s="249">
-        <v>17</v>
-      </c>
-      <c r="F33" s="248">
-        <v>1.5271700000000001</v>
-      </c>
-      <c r="G33" s="250">
-        <v>0</v>
-      </c>
-      <c r="H33" s="248">
-        <v>5</v>
-      </c>
-      <c r="I33" s="248"/>
-    </row>
-    <row r="34" spans="1:9">
-      <c r="A34" s="248">
-        <v>3</v>
-      </c>
-      <c r="B34" s="248" t="s">
-        <v>9</v>
-      </c>
-      <c r="C34" s="248" t="s">
-        <v>26</v>
-      </c>
-      <c r="D34" s="248" t="s">
-        <v>39</v>
-      </c>
-      <c r="E34" s="249"/>
-      <c r="F34" s="248"/>
-      <c r="G34" s="250"/>
-      <c r="H34" s="248"/>
-      <c r="I34" s="248"/>
-    </row>
-    <row r="35" spans="1:9">
-      <c r="A35" s="248">
-        <v>4</v>
-      </c>
-      <c r="B35" s="248" t="s">
-        <v>9</v>
-      </c>
-      <c r="C35" s="248" t="s">
-        <v>26</v>
-      </c>
-      <c r="D35" s="248" t="s">
-        <v>39</v>
-      </c>
-      <c r="E35" s="249"/>
-      <c r="F35" s="248"/>
-      <c r="G35" s="250"/>
-      <c r="H35" s="248"/>
-      <c r="I35" s="248"/>
-    </row>
-    <row r="36" spans="1:9">
-      <c r="A36" s="248">
-        <v>5</v>
-      </c>
-      <c r="B36" s="248" t="s">
-        <v>9</v>
-      </c>
-      <c r="C36" s="248" t="s">
-        <v>26</v>
-      </c>
-      <c r="D36" s="248" t="s">
-        <v>39</v>
-      </c>
-      <c r="E36" s="249">
-        <v>17</v>
-      </c>
-      <c r="F36" s="248">
-        <v>2.86036</v>
-      </c>
-      <c r="G36" s="250">
-        <v>0</v>
-      </c>
-      <c r="H36" s="248">
-        <v>4</v>
-      </c>
-      <c r="I36" s="248"/>
-    </row>
-    <row r="37" spans="1:9">
-      <c r="A37" s="248">
-        <v>6</v>
-      </c>
-      <c r="B37" s="248" t="s">
-        <v>9</v>
-      </c>
-      <c r="C37" s="248" t="s">
-        <v>26</v>
-      </c>
-      <c r="D37" s="248" t="s">
-        <v>39</v>
-      </c>
-      <c r="E37" s="249"/>
-      <c r="F37" s="248"/>
-      <c r="G37" s="250"/>
-      <c r="H37" s="248"/>
-      <c r="I37" s="248"/>
-    </row>
-    <row r="38" spans="1:9">
-      <c r="A38" s="248">
-        <v>1</v>
-      </c>
-      <c r="B38" s="248" t="s">
-        <v>10</v>
-      </c>
-      <c r="C38" s="248" t="s">
-        <v>25</v>
-      </c>
-      <c r="D38" s="248" t="s">
-        <v>37</v>
-      </c>
-      <c r="E38" s="249">
-        <v>8</v>
-      </c>
-      <c r="F38" s="248">
-        <v>4.0845599999999997</v>
-      </c>
-      <c r="G38" s="250">
-        <v>36</v>
-      </c>
-      <c r="H38" s="248">
-        <v>3</v>
-      </c>
-      <c r="I38" s="248"/>
-    </row>
-    <row r="39" spans="1:9">
-      <c r="A39" s="248">
-        <v>2</v>
-      </c>
-      <c r="B39" s="248" t="s">
-        <v>10</v>
-      </c>
-      <c r="C39" s="248" t="s">
-        <v>25</v>
-      </c>
-      <c r="D39" s="248" t="s">
-        <v>37</v>
-      </c>
-      <c r="E39" s="249">
-        <v>8</v>
-      </c>
-      <c r="F39" s="248">
-        <v>4.06663</v>
-      </c>
-      <c r="G39" s="250">
-        <v>28</v>
-      </c>
-      <c r="H39" s="248">
-        <v>3</v>
-      </c>
-      <c r="I39" s="248"/>
-    </row>
-    <row r="40" spans="1:9">
-      <c r="A40" s="248">
-        <v>3</v>
-      </c>
-      <c r="B40" s="248" t="s">
-        <v>10</v>
-      </c>
-      <c r="C40" s="248" t="s">
-        <v>25</v>
-      </c>
-      <c r="D40" s="248" t="s">
-        <v>37</v>
-      </c>
-      <c r="E40" s="249">
-        <v>8</v>
-      </c>
-      <c r="F40" s="248">
-        <v>4.0334200000000004</v>
-      </c>
-      <c r="G40" s="250">
-        <v>36</v>
-      </c>
-      <c r="H40" s="248">
-        <v>3</v>
-      </c>
-      <c r="I40" s="248"/>
-    </row>
-    <row r="41" spans="1:9">
-      <c r="A41" s="248">
-        <v>4</v>
-      </c>
-      <c r="B41" s="248" t="s">
-        <v>10</v>
-      </c>
-      <c r="C41" s="248" t="s">
-        <v>25</v>
-      </c>
-      <c r="D41" s="248" t="s">
-        <v>37</v>
-      </c>
-      <c r="E41" s="249"/>
-      <c r="F41" s="248"/>
-      <c r="G41" s="250"/>
-      <c r="H41" s="248"/>
-      <c r="I41" s="248"/>
-    </row>
-    <row r="42" spans="1:9">
-      <c r="A42" s="248">
-        <v>5</v>
-      </c>
-      <c r="B42" s="248" t="s">
-        <v>10</v>
-      </c>
-      <c r="C42" s="248" t="s">
-        <v>25</v>
-      </c>
-      <c r="D42" s="248" t="s">
-        <v>37</v>
-      </c>
-      <c r="E42" s="249">
-        <v>8</v>
-      </c>
-      <c r="F42" s="248">
-        <v>3.9552700000000001</v>
-      </c>
-      <c r="G42" s="250">
-        <v>37</v>
-      </c>
-      <c r="H42" s="248">
-        <v>3</v>
-      </c>
-      <c r="I42" s="248"/>
-    </row>
-    <row r="43" spans="1:9">
-      <c r="A43" s="248">
-        <v>6</v>
-      </c>
-      <c r="B43" s="248" t="s">
-        <v>10</v>
-      </c>
-      <c r="C43" s="248" t="s">
-        <v>25</v>
-      </c>
-      <c r="D43" s="248" t="s">
-        <v>37</v>
-      </c>
-      <c r="E43" s="249">
-        <v>8</v>
-      </c>
-      <c r="F43" s="248">
-        <v>4.1571199999999999</v>
-      </c>
-      <c r="G43" s="250">
-        <v>32</v>
-      </c>
-      <c r="H43" s="248">
-        <v>3</v>
-      </c>
-      <c r="I43" s="248"/>
-    </row>
-    <row r="44" spans="1:9">
-      <c r="A44" s="248">
-        <v>1</v>
-      </c>
-      <c r="B44" s="248" t="s">
-        <v>10</v>
-      </c>
-      <c r="C44" s="248" t="s">
-        <v>25</v>
-      </c>
-      <c r="D44" s="248" t="s">
-        <v>39</v>
-      </c>
-      <c r="E44" s="249">
-        <v>16</v>
-      </c>
-      <c r="F44" s="248">
-        <v>3.4624899999999998</v>
-      </c>
-      <c r="G44" s="250">
-        <v>1</v>
-      </c>
-      <c r="H44" s="248">
-        <v>4</v>
-      </c>
-      <c r="I44" s="248"/>
-    </row>
-    <row r="45" spans="1:9">
-      <c r="A45" s="248">
-        <v>2</v>
-      </c>
-      <c r="B45" s="248" t="s">
-        <v>10</v>
-      </c>
-      <c r="C45" s="248" t="s">
-        <v>25</v>
-      </c>
-      <c r="D45" s="248" t="s">
-        <v>39</v>
-      </c>
-      <c r="E45" s="249"/>
-      <c r="F45" s="248"/>
-      <c r="G45" s="250"/>
-      <c r="H45" s="248"/>
-      <c r="I45" s="248"/>
-    </row>
-    <row r="46" spans="1:9">
-      <c r="A46" s="248">
-        <v>3</v>
-      </c>
-      <c r="B46" s="248" t="s">
-        <v>10</v>
-      </c>
-      <c r="C46" s="248" t="s">
-        <v>25</v>
-      </c>
-      <c r="D46" s="248" t="s">
-        <v>39</v>
-      </c>
-      <c r="E46" s="249"/>
-      <c r="F46" s="248"/>
-      <c r="G46" s="250"/>
-      <c r="H46" s="248"/>
-      <c r="I46" s="248"/>
-    </row>
-    <row r="47" spans="1:9">
-      <c r="A47" s="248">
-        <v>4</v>
-      </c>
-      <c r="B47" s="248" t="s">
-        <v>10</v>
-      </c>
-      <c r="C47" s="248" t="s">
-        <v>25</v>
-      </c>
-      <c r="D47" s="248" t="s">
-        <v>39</v>
-      </c>
-      <c r="E47" s="249"/>
-      <c r="F47" s="248"/>
-      <c r="G47" s="250"/>
-      <c r="H47" s="248"/>
-      <c r="I47" s="248"/>
-    </row>
-    <row r="48" spans="1:9">
-      <c r="A48" s="248">
-        <v>5</v>
-      </c>
-      <c r="B48" s="248" t="s">
-        <v>10</v>
-      </c>
-      <c r="C48" s="248" t="s">
-        <v>25</v>
-      </c>
-      <c r="D48" s="248" t="s">
-        <v>39</v>
-      </c>
-      <c r="E48" s="249"/>
-      <c r="F48" s="248"/>
-      <c r="G48" s="250"/>
-      <c r="H48" s="248"/>
-      <c r="I48" s="248"/>
-    </row>
-    <row r="49" spans="1:9">
-      <c r="A49" s="248">
-        <v>6</v>
-      </c>
-      <c r="B49" s="248" t="s">
-        <v>10</v>
-      </c>
-      <c r="C49" s="248" t="s">
-        <v>25</v>
-      </c>
-      <c r="D49" s="248" t="s">
-        <v>39</v>
-      </c>
-      <c r="E49" s="249"/>
-      <c r="F49" s="248"/>
-      <c r="G49" s="250"/>
-      <c r="H49" s="248"/>
-      <c r="I49" s="248"/>
-    </row>
-    <row r="50" spans="1:9">
-      <c r="A50" s="248">
-        <v>1</v>
-      </c>
-      <c r="B50" s="248" t="s">
-        <v>11</v>
-      </c>
-      <c r="C50" s="248" t="s">
-        <v>25</v>
-      </c>
-      <c r="D50" s="248" t="s">
-        <v>37</v>
-      </c>
-      <c r="E50" s="249">
-        <v>8</v>
-      </c>
-      <c r="F50" s="248">
-        <v>3.98678</v>
-      </c>
-      <c r="G50" s="250">
-        <v>37</v>
-      </c>
-      <c r="H50" s="248">
-        <v>3</v>
-      </c>
-      <c r="I50" s="248"/>
-    </row>
-    <row r="51" spans="1:9">
-      <c r="A51" s="248">
-        <v>2</v>
-      </c>
-      <c r="B51" s="248" t="s">
-        <v>11</v>
-      </c>
-      <c r="C51" s="248" t="s">
-        <v>25</v>
-      </c>
-      <c r="D51" s="248" t="s">
-        <v>37</v>
-      </c>
-      <c r="E51" s="249">
-        <v>7</v>
-      </c>
-      <c r="F51" s="248">
-        <v>4.0082599999999999</v>
-      </c>
-      <c r="G51" s="250">
-        <v>32</v>
-      </c>
-      <c r="H51" s="248">
-        <v>3</v>
-      </c>
-      <c r="I51" s="248"/>
-    </row>
-    <row r="52" spans="1:9">
-      <c r="A52" s="248">
-        <v>3</v>
-      </c>
-      <c r="B52" s="248" t="s">
-        <v>11</v>
-      </c>
-      <c r="C52" s="248" t="s">
-        <v>25</v>
-      </c>
-      <c r="D52" s="248" t="s">
-        <v>37</v>
-      </c>
-      <c r="E52" s="249"/>
-      <c r="F52" s="248"/>
-      <c r="G52" s="250"/>
-      <c r="H52" s="248"/>
-      <c r="I52" s="248"/>
-    </row>
-    <row r="53" spans="1:9">
-      <c r="A53" s="248">
-        <v>4</v>
-      </c>
-      <c r="B53" s="248" t="s">
-        <v>11</v>
-      </c>
-      <c r="C53" s="248" t="s">
-        <v>25</v>
-      </c>
-      <c r="D53" s="248" t="s">
-        <v>37</v>
-      </c>
-      <c r="E53" s="249"/>
-      <c r="F53" s="248"/>
-      <c r="G53" s="250"/>
-      <c r="H53" s="248"/>
-      <c r="I53" s="248"/>
-    </row>
-    <row r="54" spans="1:9">
-      <c r="A54" s="248">
-        <v>5</v>
-      </c>
-      <c r="B54" s="248" t="s">
-        <v>11</v>
-      </c>
-      <c r="C54" s="248" t="s">
-        <v>25</v>
-      </c>
-      <c r="D54" s="248" t="s">
-        <v>37</v>
-      </c>
-      <c r="E54" s="249">
-        <v>7</v>
-      </c>
-      <c r="F54" s="248">
-        <v>3.9420000000000002</v>
-      </c>
-      <c r="G54" s="250">
-        <v>32</v>
-      </c>
-      <c r="H54" s="248">
-        <v>3</v>
-      </c>
-      <c r="I54" s="248"/>
-    </row>
-    <row r="55" spans="1:9">
-      <c r="A55" s="248">
-        <v>6</v>
-      </c>
-      <c r="B55" s="248" t="s">
-        <v>11</v>
-      </c>
-      <c r="C55" s="248" t="s">
-        <v>25</v>
-      </c>
-      <c r="D55" s="248" t="s">
-        <v>37</v>
-      </c>
-      <c r="E55" s="249">
-        <v>7</v>
-      </c>
-      <c r="F55" s="248">
-        <v>3.9389000000000003</v>
-      </c>
-      <c r="G55" s="250">
-        <v>34</v>
-      </c>
-      <c r="H55" s="248">
-        <v>3</v>
-      </c>
-      <c r="I55" s="248"/>
-    </row>
-    <row r="56" spans="1:9">
-      <c r="A56" s="248">
-        <v>1</v>
-      </c>
-      <c r="B56" s="248" t="s">
-        <v>11</v>
-      </c>
-      <c r="C56" s="248" t="s">
-        <v>25</v>
-      </c>
-      <c r="D56" s="248" t="s">
-        <v>39</v>
-      </c>
-      <c r="E56" s="249">
-        <v>17</v>
-      </c>
-      <c r="F56" s="248">
-        <v>2.5223899999999997</v>
-      </c>
-      <c r="G56" s="250">
-        <v>0</v>
-      </c>
-      <c r="H56" s="248">
-        <v>3</v>
-      </c>
-      <c r="I56" s="248"/>
-    </row>
-    <row r="57" spans="1:9">
-      <c r="A57" s="248">
-        <v>2</v>
-      </c>
-      <c r="B57" s="248" t="s">
-        <v>11</v>
-      </c>
-      <c r="C57" s="248" t="s">
-        <v>25</v>
-      </c>
-      <c r="D57" s="248" t="s">
-        <v>39</v>
-      </c>
-      <c r="E57" s="249">
-        <v>16</v>
-      </c>
-      <c r="F57" s="248">
-        <v>2.9872299999999998</v>
-      </c>
-      <c r="G57" s="250">
-        <v>0</v>
-      </c>
-      <c r="H57" s="248">
-        <v>4</v>
-      </c>
-      <c r="I57" s="248"/>
-    </row>
-    <row r="58" spans="1:9">
-      <c r="A58" s="248">
-        <v>3</v>
-      </c>
-      <c r="B58" s="248" t="s">
-        <v>11</v>
-      </c>
-      <c r="C58" s="248" t="s">
-        <v>25</v>
-      </c>
-      <c r="D58" s="248" t="s">
-        <v>39</v>
-      </c>
-      <c r="E58" s="249">
-        <v>16</v>
-      </c>
-      <c r="F58" s="248">
-        <v>2.6795900000000001</v>
-      </c>
-      <c r="G58" s="250">
-        <v>0</v>
-      </c>
-      <c r="H58" s="248">
-        <v>4</v>
-      </c>
-      <c r="I58" s="248"/>
-    </row>
-    <row r="59" spans="1:9">
-      <c r="A59" s="248">
-        <v>4</v>
-      </c>
-      <c r="B59" s="248" t="s">
-        <v>11</v>
-      </c>
-      <c r="C59" s="248" t="s">
-        <v>25</v>
-      </c>
-      <c r="D59" s="248" t="s">
-        <v>39</v>
-      </c>
-      <c r="E59" s="249">
-        <v>16</v>
-      </c>
-      <c r="F59" s="248">
-        <v>2.75787</v>
-      </c>
-      <c r="G59" s="250">
-        <v>0</v>
-      </c>
-      <c r="H59" s="248">
-        <v>4</v>
-      </c>
-      <c r="I59" s="248"/>
-    </row>
-    <row r="60" spans="1:9">
-      <c r="A60" s="248">
-        <v>5</v>
-      </c>
-      <c r="B60" s="248" t="s">
-        <v>11</v>
-      </c>
-      <c r="C60" s="248" t="s">
-        <v>25</v>
-      </c>
-      <c r="D60" s="248" t="s">
-        <v>39</v>
-      </c>
-      <c r="E60" s="249">
-        <v>17</v>
-      </c>
-      <c r="F60" s="248">
-        <v>2.6013800000000002</v>
-      </c>
-      <c r="G60" s="250">
-        <v>0</v>
-      </c>
-      <c r="H60" s="248">
-        <v>3</v>
-      </c>
-      <c r="I60" s="248"/>
-    </row>
-    <row r="61" spans="1:9">
-      <c r="A61" s="248">
-        <v>6</v>
-      </c>
-      <c r="B61" s="248" t="s">
-        <v>11</v>
-      </c>
-      <c r="C61" s="248" t="s">
-        <v>25</v>
-      </c>
-      <c r="D61" s="248" t="s">
-        <v>39</v>
-      </c>
-      <c r="E61" s="249"/>
-      <c r="F61" s="248"/>
-      <c r="G61" s="250"/>
-      <c r="H61" s="248"/>
-      <c r="I61" s="248"/>
-    </row>
-    <row r="62" spans="1:9">
-      <c r="A62" s="248">
-        <v>1</v>
-      </c>
-      <c r="B62" s="248" t="s">
-        <v>12</v>
-      </c>
-      <c r="C62" s="248" t="s">
-        <v>25</v>
-      </c>
-      <c r="D62" s="248" t="s">
-        <v>37</v>
-      </c>
-      <c r="E62" s="249">
-        <v>8</v>
-      </c>
-      <c r="F62" s="248">
-        <v>4.0862400000000001</v>
-      </c>
-      <c r="G62" s="250">
-        <v>14</v>
-      </c>
-      <c r="H62" s="248">
-        <v>4</v>
-      </c>
-      <c r="I62" s="248"/>
-    </row>
-    <row r="63" spans="1:9">
-      <c r="A63" s="248">
-        <v>2</v>
-      </c>
-      <c r="B63" s="248" t="s">
-        <v>12</v>
-      </c>
-      <c r="C63" s="248" t="s">
-        <v>25</v>
-      </c>
-      <c r="D63" s="248" t="s">
-        <v>37</v>
-      </c>
-      <c r="E63" s="249">
-        <v>9</v>
-      </c>
-      <c r="F63" s="248">
-        <v>4.2525000000000004</v>
-      </c>
-      <c r="G63" s="250">
-        <v>18</v>
-      </c>
-      <c r="H63" s="248">
-        <v>4</v>
-      </c>
-      <c r="I63" s="248"/>
-    </row>
-    <row r="64" spans="1:9">
-      <c r="A64" s="248">
-        <v>3</v>
-      </c>
-      <c r="B64" s="248" t="s">
-        <v>12</v>
-      </c>
-      <c r="C64" s="248" t="s">
-        <v>25</v>
-      </c>
-      <c r="D64" s="248" t="s">
-        <v>37</v>
-      </c>
-      <c r="E64" s="249">
-        <v>7</v>
-      </c>
-      <c r="F64" s="248">
-        <v>4.0791199999999996</v>
-      </c>
-      <c r="G64" s="250">
-        <v>20</v>
-      </c>
-      <c r="H64" s="248">
-        <v>5</v>
-      </c>
-      <c r="I64" s="248"/>
-    </row>
-    <row r="65" spans="1:9">
-      <c r="A65" s="248">
-        <v>4</v>
-      </c>
-      <c r="B65" s="248" t="s">
-        <v>12</v>
-      </c>
-      <c r="C65" s="248" t="s">
-        <v>25</v>
-      </c>
-      <c r="D65" s="248" t="s">
-        <v>37</v>
-      </c>
-      <c r="E65" s="249">
-        <v>8</v>
-      </c>
-      <c r="F65" s="248">
-        <v>4.1455699999999993</v>
-      </c>
-      <c r="G65" s="250">
-        <v>17</v>
-      </c>
-      <c r="H65" s="248">
-        <v>4</v>
-      </c>
-      <c r="I65" s="248"/>
-    </row>
-    <row r="66" spans="1:9">
-      <c r="A66" s="248">
-        <v>5</v>
-      </c>
-      <c r="B66" s="248" t="s">
-        <v>12</v>
-      </c>
-      <c r="C66" s="248" t="s">
-        <v>25</v>
-      </c>
-      <c r="D66" s="248" t="s">
-        <v>37</v>
-      </c>
-      <c r="E66" s="249">
-        <v>8</v>
-      </c>
-      <c r="F66" s="248">
-        <v>4.1727700000000008</v>
-      </c>
-      <c r="G66" s="250">
-        <v>14</v>
-      </c>
-      <c r="H66" s="248">
-        <v>4</v>
-      </c>
-      <c r="I66" s="248"/>
-    </row>
-    <row r="67" spans="1:9">
-      <c r="A67" s="248">
-        <v>6</v>
-      </c>
-      <c r="B67" s="248" t="s">
-        <v>12</v>
-      </c>
-      <c r="C67" s="248" t="s">
-        <v>25</v>
-      </c>
-      <c r="D67" s="248" t="s">
-        <v>37</v>
-      </c>
-      <c r="E67" s="249">
-        <v>8</v>
-      </c>
-      <c r="F67" s="248">
-        <v>4.1418999999999997</v>
-      </c>
-      <c r="G67" s="250">
-        <v>13</v>
-      </c>
-      <c r="H67" s="248">
-        <v>4</v>
-      </c>
-      <c r="I67" s="248"/>
-    </row>
-    <row r="68" spans="1:9">
-      <c r="A68" s="248">
-        <v>1</v>
-      </c>
-      <c r="B68" s="248" t="s">
-        <v>12</v>
-      </c>
-      <c r="C68" s="248" t="s">
-        <v>25</v>
-      </c>
-      <c r="D68" s="248" t="s">
-        <v>39</v>
-      </c>
-      <c r="E68" s="249"/>
-      <c r="F68" s="248"/>
-      <c r="G68" s="250"/>
-      <c r="H68" s="248"/>
-      <c r="I68" s="248"/>
-    </row>
-    <row r="69" spans="1:9">
-      <c r="A69" s="248">
-        <v>2</v>
-      </c>
-      <c r="B69" s="248" t="s">
-        <v>12</v>
-      </c>
-      <c r="C69" s="248" t="s">
-        <v>25</v>
-      </c>
-      <c r="D69" s="248" t="s">
-        <v>39</v>
-      </c>
-      <c r="E69" s="249"/>
-      <c r="F69" s="248"/>
-      <c r="G69" s="250"/>
-      <c r="H69" s="248"/>
-      <c r="I69" s="248"/>
-    </row>
-    <row r="70" spans="1:9">
-      <c r="A70" s="248">
-        <v>3</v>
-      </c>
-      <c r="B70" s="248" t="s">
-        <v>12</v>
-      </c>
-      <c r="C70" s="248" t="s">
-        <v>25</v>
-      </c>
-      <c r="D70" s="248" t="s">
-        <v>39</v>
-      </c>
-      <c r="E70" s="249"/>
-      <c r="F70" s="248"/>
-      <c r="G70" s="250"/>
-      <c r="H70" s="248"/>
-      <c r="I70" s="248"/>
-    </row>
-    <row r="71" spans="1:9">
-      <c r="A71" s="248">
-        <v>4</v>
-      </c>
-      <c r="B71" s="248" t="s">
-        <v>12</v>
-      </c>
-      <c r="C71" s="248" t="s">
-        <v>25</v>
-      </c>
-      <c r="D71" s="248" t="s">
-        <v>39</v>
-      </c>
-      <c r="E71" s="249">
-        <v>18</v>
-      </c>
-      <c r="F71" s="248">
-        <v>3.25522</v>
-      </c>
-      <c r="G71" s="250">
-        <v>0</v>
-      </c>
-      <c r="H71" s="248">
-        <v>3</v>
-      </c>
-      <c r="I71" s="248"/>
-    </row>
-    <row r="72" spans="1:9">
-      <c r="A72" s="248">
-        <v>5</v>
-      </c>
-      <c r="B72" s="248" t="s">
-        <v>12</v>
-      </c>
-      <c r="C72" s="248" t="s">
-        <v>25</v>
-      </c>
-      <c r="D72" s="248" t="s">
-        <v>39</v>
-      </c>
-      <c r="E72" s="249">
-        <v>18</v>
-      </c>
-      <c r="F72" s="248">
-        <v>2.8711899999999999</v>
-      </c>
-      <c r="G72" s="250">
-        <v>0</v>
-      </c>
-      <c r="H72" s="248">
-        <v>2</v>
-      </c>
-      <c r="I72" s="248"/>
-    </row>
-    <row r="73" spans="1:9">
-      <c r="A73" s="248">
-        <v>6</v>
-      </c>
-      <c r="B73" s="248" t="s">
-        <v>12</v>
-      </c>
-      <c r="C73" s="248" t="s">
-        <v>25</v>
-      </c>
-      <c r="D73" s="248" t="s">
-        <v>39</v>
-      </c>
-      <c r="E73" s="249">
-        <v>18</v>
-      </c>
-      <c r="F73" s="248">
-        <v>2.6543000000000001</v>
-      </c>
-      <c r="G73" s="250">
-        <v>0</v>
-      </c>
-      <c r="H73" s="248">
-        <v>3</v>
-      </c>
-      <c r="I73" s="248"/>
-    </row>
-    <row r="74" spans="1:9">
-      <c r="A74" s="248">
-        <v>1</v>
-      </c>
-      <c r="B74" s="248" t="s">
-        <v>13</v>
-      </c>
-      <c r="C74" s="248" t="s">
-        <v>25</v>
-      </c>
-      <c r="D74" s="248" t="s">
-        <v>37</v>
-      </c>
-      <c r="E74" s="249"/>
-      <c r="F74" s="248"/>
-      <c r="G74" s="250"/>
-      <c r="H74" s="248"/>
-      <c r="I74" s="248"/>
-    </row>
-    <row r="75" spans="1:9">
-      <c r="A75" s="248">
-        <v>2</v>
-      </c>
-      <c r="B75" s="248" t="s">
-        <v>13</v>
-      </c>
-      <c r="C75" s="248" t="s">
-        <v>25</v>
-      </c>
-      <c r="D75" s="248" t="s">
-        <v>37</v>
-      </c>
-      <c r="E75" s="249">
-        <v>8</v>
-      </c>
-      <c r="F75" s="248">
-        <v>4.0327299999999999</v>
-      </c>
-      <c r="G75" s="250">
-        <v>27</v>
-      </c>
-      <c r="H75" s="248">
-        <v>3</v>
-      </c>
-      <c r="I75" s="248"/>
-    </row>
-    <row r="76" spans="1:9">
-      <c r="A76" s="248">
-        <v>3</v>
-      </c>
-      <c r="B76" s="248" t="s">
-        <v>13</v>
-      </c>
-      <c r="C76" s="248" t="s">
-        <v>25</v>
-      </c>
-      <c r="D76" s="248" t="s">
-        <v>37</v>
-      </c>
-      <c r="E76" s="249">
-        <v>8</v>
-      </c>
-      <c r="F76" s="248">
-        <v>3.9025599999999998</v>
-      </c>
-      <c r="G76" s="250">
-        <v>24</v>
-      </c>
-      <c r="H76" s="248">
-        <v>3</v>
-      </c>
-      <c r="I76" s="248"/>
-    </row>
-    <row r="77" spans="1:9">
-      <c r="A77" s="248">
-        <v>4</v>
-      </c>
-      <c r="B77" s="248" t="s">
-        <v>13</v>
-      </c>
-      <c r="C77" s="248" t="s">
-        <v>25</v>
-      </c>
-      <c r="D77" s="248" t="s">
-        <v>37</v>
-      </c>
-      <c r="E77" s="249">
-        <v>9</v>
-      </c>
-      <c r="F77" s="248">
-        <v>3.8350900000000001</v>
-      </c>
-      <c r="G77" s="250">
-        <v>16</v>
-      </c>
-      <c r="H77" s="248">
-        <v>3</v>
-      </c>
-      <c r="I77" s="248"/>
-    </row>
-    <row r="78" spans="1:9">
-      <c r="A78" s="248">
-        <v>5</v>
-      </c>
-      <c r="B78" s="248" t="s">
-        <v>13</v>
-      </c>
-      <c r="C78" s="248" t="s">
-        <v>25</v>
-      </c>
-      <c r="D78" s="248" t="s">
-        <v>37</v>
-      </c>
-      <c r="E78" s="249">
-        <v>8</v>
-      </c>
-      <c r="F78" s="248">
-        <v>3.88646</v>
-      </c>
-      <c r="G78" s="250">
-        <v>36</v>
-      </c>
-      <c r="H78" s="248">
-        <v>3</v>
-      </c>
-      <c r="I78" s="248"/>
-    </row>
-    <row r="79" spans="1:9">
-      <c r="A79" s="248">
-        <v>6</v>
-      </c>
-      <c r="B79" s="248" t="s">
-        <v>13</v>
-      </c>
-      <c r="C79" s="248" t="s">
-        <v>25</v>
-      </c>
-      <c r="D79" s="248" t="s">
-        <v>37</v>
-      </c>
-      <c r="E79" s="249">
-        <v>8</v>
-      </c>
-      <c r="F79" s="248"/>
-      <c r="G79" s="250"/>
-      <c r="H79" s="248"/>
-      <c r="I79" s="248"/>
-    </row>
-    <row r="80" spans="1:9">
-      <c r="A80" s="248">
-        <v>1</v>
-      </c>
-      <c r="B80" s="248" t="s">
-        <v>13</v>
-      </c>
-      <c r="C80" s="248" t="s">
-        <v>25</v>
-      </c>
-      <c r="D80" s="248" t="s">
-        <v>39</v>
-      </c>
-      <c r="E80" s="249">
-        <v>15</v>
-      </c>
-      <c r="F80" s="248">
-        <v>2.7825199999999999</v>
-      </c>
-      <c r="G80" s="250">
-        <v>5</v>
-      </c>
-      <c r="H80" s="248">
-        <v>3</v>
-      </c>
-      <c r="I80" s="248"/>
-    </row>
-    <row r="81" spans="1:9">
-      <c r="A81" s="248">
-        <v>2</v>
-      </c>
-      <c r="B81" s="248" t="s">
-        <v>13</v>
-      </c>
-      <c r="C81" s="248" t="s">
-        <v>25</v>
-      </c>
-      <c r="D81" s="248" t="s">
-        <v>39</v>
-      </c>
-      <c r="E81" s="249"/>
-      <c r="F81" s="248"/>
-      <c r="G81" s="250"/>
-      <c r="H81" s="248"/>
-      <c r="I81" s="248"/>
-    </row>
-    <row r="82" spans="1:9">
-      <c r="A82" s="248">
-        <v>3</v>
-      </c>
-      <c r="B82" s="248" t="s">
-        <v>13</v>
-      </c>
-      <c r="C82" s="248" t="s">
-        <v>25</v>
-      </c>
-      <c r="D82" s="248" t="s">
-        <v>39</v>
-      </c>
-      <c r="E82" s="249"/>
-      <c r="F82" s="248"/>
-      <c r="G82" s="250"/>
-      <c r="H82" s="248"/>
-      <c r="I82" s="248"/>
-    </row>
-    <row r="83" spans="1:9">
-      <c r="A83" s="248">
-        <v>4</v>
-      </c>
-      <c r="B83" s="248" t="s">
-        <v>13</v>
-      </c>
-      <c r="C83" s="248" t="s">
-        <v>25</v>
-      </c>
-      <c r="D83" s="248" t="s">
-        <v>39</v>
-      </c>
-      <c r="E83" s="249"/>
-      <c r="F83" s="248"/>
-      <c r="G83" s="250"/>
-      <c r="H83" s="248"/>
-      <c r="I83" s="248"/>
-    </row>
-    <row r="84" spans="1:9">
-      <c r="A84" s="248">
-        <v>5</v>
-      </c>
-      <c r="B84" s="248" t="s">
-        <v>13</v>
-      </c>
-      <c r="C84" s="248" t="s">
-        <v>25</v>
-      </c>
-      <c r="D84" s="248" t="s">
-        <v>39</v>
-      </c>
-      <c r="E84" s="249">
-        <v>15</v>
-      </c>
-      <c r="F84" s="248">
-        <v>2.5973200000000003</v>
-      </c>
-      <c r="G84" s="250">
-        <v>3</v>
-      </c>
-      <c r="H84" s="248">
-        <v>3</v>
-      </c>
-      <c r="I84" s="248"/>
-    </row>
-    <row r="85" spans="1:9">
-      <c r="A85" s="248">
-        <v>6</v>
-      </c>
-      <c r="B85" s="248" t="s">
-        <v>13</v>
-      </c>
-      <c r="C85" s="248" t="s">
-        <v>25</v>
-      </c>
-      <c r="D85" s="248" t="s">
-        <v>39</v>
-      </c>
-      <c r="E85" s="249"/>
-      <c r="F85" s="248"/>
-      <c r="G85" s="250"/>
-      <c r="H85" s="248"/>
-      <c r="I85" s="248"/>
-    </row>
-    <row r="86" spans="1:9">
-      <c r="A86" s="248">
-        <v>1</v>
-      </c>
-      <c r="B86" s="248" t="s">
-        <v>14</v>
-      </c>
-      <c r="C86" s="248" t="s">
-        <v>24</v>
-      </c>
-      <c r="D86" s="248" t="s">
-        <v>37</v>
-      </c>
-      <c r="E86" s="249">
-        <v>7</v>
-      </c>
-      <c r="F86" s="248">
-        <v>4.0568299999999997</v>
-      </c>
-      <c r="G86" s="250">
-        <v>35</v>
-      </c>
-      <c r="H86" s="248">
-        <v>3</v>
-      </c>
-      <c r="I86" s="248"/>
-    </row>
-    <row r="87" spans="1:9">
-      <c r="A87" s="248">
-        <v>2</v>
-      </c>
-      <c r="B87" s="248" t="s">
-        <v>14</v>
-      </c>
-      <c r="C87" s="248" t="s">
-        <v>24</v>
-      </c>
-      <c r="D87" s="248" t="s">
-        <v>37</v>
-      </c>
-      <c r="E87" s="249">
-        <v>6</v>
-      </c>
-      <c r="F87" s="248">
-        <v>4.0282299999999998</v>
-      </c>
-      <c r="G87" s="250">
-        <v>24</v>
-      </c>
-      <c r="H87" s="248">
-        <v>3</v>
-      </c>
-      <c r="I87" s="248"/>
-    </row>
-    <row r="88" spans="1:9">
-      <c r="A88" s="248">
-        <v>3</v>
-      </c>
-      <c r="B88" s="248" t="s">
-        <v>14</v>
-      </c>
-      <c r="C88" s="248" t="s">
-        <v>24</v>
-      </c>
-      <c r="D88" s="248" t="s">
-        <v>37</v>
-      </c>
-      <c r="E88" s="249">
-        <v>7</v>
-      </c>
-      <c r="F88" s="248">
-        <v>4.1567100000000003</v>
-      </c>
-      <c r="G88" s="250">
-        <v>31</v>
-      </c>
-      <c r="H88" s="248">
-        <v>2</v>
-      </c>
-      <c r="I88" s="248"/>
-    </row>
-    <row r="89" spans="1:9">
-      <c r="A89" s="248">
-        <v>4</v>
-      </c>
-      <c r="B89" s="248" t="s">
-        <v>14</v>
-      </c>
-      <c r="C89" s="248" t="s">
-        <v>24</v>
-      </c>
-      <c r="D89" s="248" t="s">
-        <v>37</v>
-      </c>
-      <c r="E89" s="249">
-        <v>6</v>
-      </c>
-      <c r="F89" s="248">
-        <v>3.9956199999999997</v>
-      </c>
-      <c r="G89" s="250">
-        <v>33</v>
-      </c>
-      <c r="H89" s="248">
-        <v>3</v>
-      </c>
-      <c r="I89" s="248"/>
-    </row>
-    <row r="90" spans="1:9">
-      <c r="A90" s="248">
-        <v>5</v>
-      </c>
-      <c r="B90" s="248" t="s">
-        <v>14</v>
-      </c>
-      <c r="C90" s="248" t="s">
-        <v>24</v>
-      </c>
-      <c r="D90" s="248" t="s">
-        <v>37</v>
-      </c>
-      <c r="E90" s="249"/>
-      <c r="F90" s="248"/>
-      <c r="G90" s="250"/>
-      <c r="H90" s="248"/>
-      <c r="I90" s="248"/>
-    </row>
-    <row r="91" spans="1:9">
-      <c r="A91" s="248">
-        <v>6</v>
-      </c>
-      <c r="B91" s="248" t="s">
-        <v>14</v>
-      </c>
-      <c r="C91" s="248" t="s">
-        <v>24</v>
-      </c>
-      <c r="D91" s="248" t="s">
-        <v>37</v>
-      </c>
-      <c r="E91" s="249">
-        <v>6</v>
-      </c>
-      <c r="F91" s="248">
-        <v>4.0515699999999999</v>
-      </c>
-      <c r="G91" s="250">
-        <v>28</v>
-      </c>
-      <c r="H91" s="248">
-        <v>3</v>
-      </c>
-      <c r="I91" s="248"/>
-    </row>
-    <row r="92" spans="1:9">
-      <c r="A92" s="248">
-        <v>1</v>
-      </c>
-      <c r="B92" s="248" t="s">
-        <v>14</v>
-      </c>
-      <c r="C92" s="248" t="s">
-        <v>24</v>
-      </c>
-      <c r="D92" s="248" t="s">
-        <v>39</v>
-      </c>
-      <c r="E92" s="249">
-        <v>10</v>
-      </c>
-      <c r="F92" s="248">
-        <v>3.2398899999999999</v>
-      </c>
-      <c r="G92" s="250">
-        <v>0</v>
-      </c>
-      <c r="H92" s="248">
-        <v>6</v>
-      </c>
-      <c r="I92" s="248"/>
-    </row>
-    <row r="93" spans="1:9">
-      <c r="A93" s="248">
-        <v>2</v>
-      </c>
-      <c r="B93" s="248" t="s">
-        <v>14</v>
-      </c>
-      <c r="C93" s="248" t="s">
-        <v>24</v>
-      </c>
-      <c r="D93" s="248" t="s">
-        <v>39</v>
-      </c>
-      <c r="E93" s="249"/>
-      <c r="F93" s="248"/>
-      <c r="G93" s="250"/>
-      <c r="H93" s="248"/>
-      <c r="I93" s="248"/>
-    </row>
-    <row r="94" spans="1:9">
-      <c r="A94" s="248">
-        <v>3</v>
-      </c>
-      <c r="B94" s="248" t="s">
-        <v>14</v>
-      </c>
-      <c r="C94" s="248" t="s">
-        <v>24</v>
-      </c>
-      <c r="D94" s="248" t="s">
-        <v>39</v>
-      </c>
-      <c r="E94" s="249">
-        <v>12</v>
-      </c>
-      <c r="F94" s="248">
-        <v>2.8700199999999998</v>
-      </c>
-      <c r="G94" s="250">
-        <v>0</v>
-      </c>
-      <c r="H94" s="248">
-        <v>4</v>
-      </c>
-      <c r="I94" s="248"/>
-    </row>
-    <row r="95" spans="1:9">
-      <c r="A95" s="248">
-        <v>4</v>
-      </c>
-      <c r="B95" s="248" t="s">
-        <v>14</v>
-      </c>
-      <c r="C95" s="248" t="s">
-        <v>24</v>
-      </c>
-      <c r="D95" s="248" t="s">
-        <v>39</v>
-      </c>
-      <c r="E95" s="249">
-        <v>13</v>
-      </c>
-      <c r="F95" s="248">
-        <v>2.8383600000000002</v>
-      </c>
-      <c r="G95" s="250">
-        <v>0</v>
-      </c>
-      <c r="H95" s="248">
-        <v>3</v>
-      </c>
-      <c r="I95" s="248"/>
-    </row>
-    <row r="96" spans="1:9">
-      <c r="A96" s="248">
-        <v>5</v>
-      </c>
-      <c r="B96" s="248" t="s">
-        <v>14</v>
-      </c>
-      <c r="C96" s="248" t="s">
-        <v>24</v>
-      </c>
-      <c r="D96" s="248" t="s">
-        <v>39</v>
-      </c>
-      <c r="E96" s="249">
-        <v>10</v>
-      </c>
-      <c r="F96" s="248">
-        <v>3.1300599999999998</v>
-      </c>
-      <c r="G96" s="250">
-        <v>0</v>
-      </c>
-      <c r="H96" s="248">
-        <v>6</v>
-      </c>
-      <c r="I96" s="248"/>
-    </row>
-    <row r="97" spans="1:9">
-      <c r="A97" s="248">
-        <v>6</v>
-      </c>
-      <c r="B97" s="248" t="s">
-        <v>14</v>
-      </c>
-      <c r="C97" s="248" t="s">
-        <v>24</v>
-      </c>
-      <c r="D97" s="248" t="s">
-        <v>39</v>
-      </c>
-      <c r="E97" s="249">
-        <v>13</v>
-      </c>
-      <c r="F97" s="248">
-        <v>3.1825600000000001</v>
-      </c>
-      <c r="G97" s="250">
-        <v>0</v>
-      </c>
-      <c r="H97" s="248">
-        <v>4</v>
-      </c>
-      <c r="I97" s="248"/>
-    </row>
-    <row r="98" spans="1:9">
-      <c r="A98" s="248">
-        <v>1</v>
-      </c>
-      <c r="B98" s="248" t="s">
-        <v>15</v>
-      </c>
-      <c r="C98" s="248" t="s">
-        <v>24</v>
-      </c>
-      <c r="D98" s="248" t="s">
-        <v>37</v>
-      </c>
-      <c r="E98" s="249">
-        <v>9</v>
-      </c>
-      <c r="F98" s="248">
-        <v>3.8439200000000002</v>
-      </c>
-      <c r="G98" s="250">
-        <v>44</v>
-      </c>
-      <c r="H98" s="248">
-        <v>4</v>
-      </c>
-      <c r="I98" s="248"/>
-    </row>
-    <row r="99" spans="1:9">
-      <c r="A99" s="248">
-        <v>2</v>
-      </c>
-      <c r="B99" s="248" t="s">
-        <v>15</v>
-      </c>
-      <c r="C99" s="248" t="s">
-        <v>24</v>
-      </c>
-      <c r="D99" s="248" t="s">
-        <v>37</v>
-      </c>
-      <c r="E99" s="249">
-        <v>10</v>
-      </c>
-      <c r="F99" s="248">
-        <v>3.9466000000000001</v>
-      </c>
-      <c r="G99" s="250">
-        <v>40</v>
-      </c>
-      <c r="H99" s="248">
-        <v>3</v>
-      </c>
-      <c r="I99" s="248"/>
-    </row>
-    <row r="100" spans="1:9">
-      <c r="A100" s="248">
-        <v>3</v>
-      </c>
-      <c r="B100" s="248" t="s">
-        <v>15</v>
-      </c>
-      <c r="C100" s="248" t="s">
-        <v>24</v>
-      </c>
-      <c r="D100" s="248" t="s">
-        <v>37</v>
-      </c>
-      <c r="E100" s="249">
-        <v>8</v>
-      </c>
-      <c r="F100" s="248">
-        <v>3.8235000000000001</v>
-      </c>
-      <c r="G100" s="250">
-        <v>22</v>
-      </c>
-      <c r="H100" s="248">
-        <v>3</v>
-      </c>
-      <c r="I100" s="248"/>
-    </row>
-    <row r="101" spans="1:9">
-      <c r="A101" s="248">
-        <v>4</v>
-      </c>
-      <c r="B101" s="248" t="s">
-        <v>15</v>
-      </c>
-      <c r="C101" s="248" t="s">
-        <v>24</v>
-      </c>
-      <c r="D101" s="248" t="s">
-        <v>37</v>
-      </c>
-      <c r="E101" s="249">
-        <v>8</v>
-      </c>
-      <c r="F101" s="248">
-        <v>3.9007899999999998</v>
-      </c>
-      <c r="G101" s="250">
-        <v>44</v>
-      </c>
-      <c r="H101" s="248">
-        <v>4</v>
-      </c>
-      <c r="I101" s="248"/>
-    </row>
-    <row r="102" spans="1:9">
-      <c r="A102" s="248">
-        <v>5</v>
-      </c>
-      <c r="B102" s="248" t="s">
-        <v>15</v>
-      </c>
-      <c r="C102" s="248" t="s">
-        <v>24</v>
-      </c>
-      <c r="D102" s="248" t="s">
-        <v>37</v>
-      </c>
-      <c r="E102" s="249">
-        <v>8</v>
-      </c>
-      <c r="F102" s="248">
-        <v>3.9256500000000001</v>
-      </c>
-      <c r="G102" s="250">
-        <v>41</v>
-      </c>
-      <c r="H102" s="248">
-        <v>4</v>
-      </c>
-      <c r="I102" s="248"/>
-    </row>
-    <row r="103" spans="1:9">
-      <c r="A103" s="248">
-        <v>6</v>
-      </c>
-      <c r="B103" s="248" t="s">
-        <v>15</v>
-      </c>
-      <c r="C103" s="248" t="s">
-        <v>24</v>
-      </c>
-      <c r="D103" s="248" t="s">
-        <v>37</v>
-      </c>
-      <c r="E103" s="249">
-        <v>8</v>
-      </c>
-      <c r="F103" s="248">
-        <v>3.8233999999999999</v>
-      </c>
-      <c r="G103" s="250">
-        <v>41</v>
-      </c>
-      <c r="H103" s="248">
-        <v>4</v>
-      </c>
-      <c r="I103" s="248"/>
-    </row>
-    <row r="104" spans="1:9">
-      <c r="A104" s="248">
-        <v>1</v>
-      </c>
-      <c r="B104" s="248" t="s">
-        <v>15</v>
-      </c>
-      <c r="C104" s="248" t="s">
-        <v>24</v>
-      </c>
-      <c r="D104" s="248" t="s">
-        <v>39</v>
-      </c>
-      <c r="E104" s="249">
-        <v>17</v>
-      </c>
-      <c r="F104" s="248">
-        <v>2.15612</v>
-      </c>
-      <c r="G104" s="250">
-        <v>0</v>
-      </c>
-      <c r="H104" s="248">
-        <v>5</v>
-      </c>
-      <c r="I104" s="248"/>
-    </row>
-    <row r="105" spans="1:9">
-      <c r="A105" s="248">
-        <v>2</v>
-      </c>
-      <c r="B105" s="248" t="s">
-        <v>15</v>
-      </c>
-      <c r="C105" s="248" t="s">
-        <v>24</v>
-      </c>
-      <c r="D105" s="248" t="s">
-        <v>39</v>
-      </c>
-      <c r="E105" s="249">
-        <v>15</v>
-      </c>
-      <c r="F105" s="248">
-        <v>2.37175</v>
-      </c>
-      <c r="G105" s="250">
-        <v>4</v>
-      </c>
-      <c r="H105" s="248">
-        <v>6</v>
-      </c>
-      <c r="I105" s="248"/>
-    </row>
-    <row r="106" spans="1:9">
-      <c r="A106" s="248">
-        <v>3</v>
-      </c>
-      <c r="B106" s="248" t="s">
-        <v>15</v>
-      </c>
-      <c r="C106" s="248" t="s">
-        <v>24</v>
-      </c>
-      <c r="D106" s="248" t="s">
-        <v>39</v>
-      </c>
-      <c r="E106" s="249"/>
-      <c r="F106" s="248"/>
-      <c r="G106" s="250"/>
-      <c r="H106" s="248"/>
-      <c r="I106" s="248"/>
-    </row>
-    <row r="107" spans="1:9">
-      <c r="A107" s="248">
-        <v>4</v>
-      </c>
-      <c r="B107" s="248" t="s">
-        <v>15</v>
-      </c>
-      <c r="C107" s="248" t="s">
-        <v>24</v>
-      </c>
-      <c r="D107" s="248" t="s">
-        <v>39</v>
-      </c>
-      <c r="E107" s="249"/>
-      <c r="F107" s="248"/>
-      <c r="G107" s="250"/>
-      <c r="H107" s="248"/>
-      <c r="I107" s="248"/>
-    </row>
-    <row r="108" spans="1:9">
-      <c r="A108" s="248">
-        <v>5</v>
-      </c>
-      <c r="B108" s="248" t="s">
-        <v>15</v>
-      </c>
-      <c r="C108" s="248" t="s">
-        <v>24</v>
-      </c>
-      <c r="D108" s="248" t="s">
-        <v>39</v>
-      </c>
-      <c r="E108" s="249"/>
-      <c r="F108" s="248"/>
-      <c r="G108" s="250"/>
-      <c r="H108" s="248"/>
-      <c r="I108" s="248"/>
-    </row>
-    <row r="109" spans="1:9">
-      <c r="A109" s="248">
-        <v>6</v>
-      </c>
-      <c r="B109" s="248" t="s">
-        <v>15</v>
-      </c>
-      <c r="C109" s="248" t="s">
-        <v>24</v>
-      </c>
-      <c r="D109" s="248" t="s">
-        <v>39</v>
-      </c>
-      <c r="E109" s="249">
-        <v>17</v>
-      </c>
-      <c r="F109" s="248">
-        <v>2.5436999999999999</v>
-      </c>
-      <c r="G109" s="250">
-        <v>0</v>
-      </c>
-      <c r="H109" s="248">
-        <v>6</v>
-      </c>
-      <c r="I109" s="248"/>
-    </row>
-    <row r="110" spans="1:9">
-      <c r="A110" s="248">
-        <v>1</v>
-      </c>
-      <c r="B110" s="248" t="s">
-        <v>16</v>
-      </c>
-      <c r="C110" s="248" t="s">
-        <v>24</v>
-      </c>
-      <c r="D110" s="248" t="s">
-        <v>37</v>
-      </c>
-      <c r="E110" s="249">
-        <v>8</v>
-      </c>
-      <c r="F110" s="248">
-        <v>3.9968600000000003</v>
-      </c>
-      <c r="G110" s="250">
-        <v>26</v>
-      </c>
-      <c r="H110" s="248">
-        <v>3</v>
-      </c>
-      <c r="I110" s="248"/>
-    </row>
-    <row r="111" spans="1:9">
-      <c r="A111" s="248">
-        <v>2</v>
-      </c>
-      <c r="B111" s="248" t="s">
-        <v>16</v>
-      </c>
-      <c r="C111" s="248" t="s">
-        <v>24</v>
-      </c>
-      <c r="D111" s="248" t="s">
-        <v>37</v>
-      </c>
-      <c r="E111" s="249">
-        <v>8</v>
-      </c>
-      <c r="F111" s="248">
-        <v>4.0042200000000001</v>
-      </c>
-      <c r="G111" s="250">
-        <v>27</v>
-      </c>
-      <c r="H111" s="248">
-        <v>4</v>
-      </c>
-      <c r="I111" s="248"/>
-    </row>
-    <row r="112" spans="1:9">
-      <c r="A112" s="248">
-        <v>3</v>
-      </c>
-      <c r="B112" s="248" t="s">
-        <v>16</v>
-      </c>
-      <c r="C112" s="248" t="s">
-        <v>24</v>
-      </c>
-      <c r="D112" s="248" t="s">
-        <v>37</v>
-      </c>
-      <c r="E112" s="249">
-        <v>9</v>
-      </c>
-      <c r="F112" s="248">
-        <v>3.6261999999999999</v>
-      </c>
-      <c r="G112" s="250">
-        <v>25</v>
-      </c>
-      <c r="H112" s="248">
-        <v>3</v>
-      </c>
-      <c r="I112" s="248"/>
-    </row>
-    <row r="113" spans="1:9">
-      <c r="A113" s="248">
-        <v>4</v>
-      </c>
-      <c r="B113" s="248" t="s">
-        <v>16</v>
-      </c>
-      <c r="C113" s="248" t="s">
-        <v>24</v>
-      </c>
-      <c r="D113" s="248" t="s">
-        <v>37</v>
-      </c>
-      <c r="E113" s="249">
-        <v>8</v>
-      </c>
-      <c r="F113" s="248">
-        <v>3.8887199999999997</v>
-      </c>
-      <c r="G113" s="250">
-        <v>17</v>
-      </c>
-      <c r="H113" s="248">
-        <v>3</v>
-      </c>
-      <c r="I113" s="248"/>
-    </row>
-    <row r="114" spans="1:9">
-      <c r="A114" s="248">
-        <v>5</v>
-      </c>
-      <c r="B114" s="248" t="s">
-        <v>16</v>
-      </c>
-      <c r="C114" s="248" t="s">
-        <v>24</v>
-      </c>
-      <c r="D114" s="248" t="s">
-        <v>37</v>
-      </c>
-      <c r="E114" s="249">
-        <v>8</v>
-      </c>
-      <c r="F114" s="248">
-        <v>3.90835</v>
-      </c>
-      <c r="G114" s="250">
-        <v>27</v>
-      </c>
-      <c r="H114" s="248">
-        <v>4</v>
-      </c>
-      <c r="I114" s="248"/>
-    </row>
-    <row r="115" spans="1:9">
-      <c r="A115" s="248">
-        <v>6</v>
-      </c>
-      <c r="B115" s="248" t="s">
-        <v>16</v>
-      </c>
-      <c r="C115" s="248" t="s">
-        <v>24</v>
-      </c>
-      <c r="D115" s="248" t="s">
-        <v>37</v>
-      </c>
-      <c r="E115" s="249"/>
-      <c r="F115" s="248"/>
-      <c r="G115" s="250"/>
-      <c r="H115" s="248"/>
-      <c r="I115" s="248"/>
-    </row>
-    <row r="116" spans="1:9">
-      <c r="A116" s="248">
-        <v>1</v>
-      </c>
-      <c r="B116" s="248" t="s">
-        <v>16</v>
-      </c>
-      <c r="C116" s="248" t="s">
-        <v>24</v>
-      </c>
-      <c r="D116" s="248" t="s">
-        <v>39</v>
-      </c>
-      <c r="E116" s="249"/>
-      <c r="F116" s="248"/>
-      <c r="G116" s="250"/>
-      <c r="H116" s="248"/>
-      <c r="I116" s="248"/>
-    </row>
-    <row r="117" spans="1:9">
-      <c r="A117" s="248">
-        <v>2</v>
-      </c>
-      <c r="B117" s="248" t="s">
-        <v>16</v>
-      </c>
-      <c r="C117" s="248" t="s">
-        <v>24</v>
-      </c>
-      <c r="D117" s="248" t="s">
-        <v>39</v>
-      </c>
-      <c r="E117" s="249"/>
-      <c r="F117" s="248"/>
-      <c r="G117" s="250"/>
-      <c r="H117" s="248"/>
-      <c r="I117" s="248"/>
-    </row>
-    <row r="118" spans="1:9">
-      <c r="A118" s="248">
-        <v>3</v>
-      </c>
-      <c r="B118" s="248" t="s">
-        <v>16</v>
-      </c>
-      <c r="C118" s="248" t="s">
-        <v>24</v>
-      </c>
-      <c r="D118" s="248" t="s">
-        <v>39</v>
-      </c>
-      <c r="E118" s="249"/>
-      <c r="F118" s="248"/>
-      <c r="G118" s="250"/>
-      <c r="H118" s="248"/>
-      <c r="I118" s="248"/>
-    </row>
-    <row r="119" spans="1:9">
-      <c r="A119" s="248">
-        <v>4</v>
-      </c>
-      <c r="B119" s="248" t="s">
-        <v>16</v>
-      </c>
-      <c r="C119" s="248" t="s">
-        <v>24</v>
-      </c>
-      <c r="D119" s="248" t="s">
-        <v>39</v>
-      </c>
-      <c r="E119" s="249">
-        <v>14</v>
-      </c>
-      <c r="F119" s="248">
-        <v>2.8538699999999997</v>
-      </c>
-      <c r="G119" s="250">
-        <v>5</v>
-      </c>
-      <c r="H119" s="248">
-        <v>7</v>
-      </c>
-      <c r="I119" s="248"/>
-    </row>
-    <row r="120" spans="1:9">
-      <c r="A120" s="248">
-        <v>5</v>
-      </c>
-      <c r="B120" s="248" t="s">
-        <v>16</v>
-      </c>
-      <c r="C120" s="248" t="s">
-        <v>24</v>
-      </c>
-      <c r="D120" s="248" t="s">
-        <v>39</v>
-      </c>
-      <c r="E120" s="249">
-        <v>15</v>
-      </c>
-      <c r="F120" s="248">
-        <v>2.5787100000000001</v>
-      </c>
-      <c r="G120" s="250">
-        <v>5</v>
-      </c>
-      <c r="H120" s="248">
-        <v>6</v>
-      </c>
-      <c r="I120" s="248"/>
-    </row>
-    <row r="121" spans="1:9">
-      <c r="A121" s="248">
-        <v>6</v>
-      </c>
-      <c r="B121" s="248" t="s">
-        <v>16</v>
-      </c>
-      <c r="C121" s="248" t="s">
-        <v>24</v>
-      </c>
-      <c r="D121" s="248" t="s">
-        <v>39</v>
-      </c>
-      <c r="E121" s="249">
-        <v>15</v>
-      </c>
-      <c r="F121" s="248">
-        <v>2.6916199999999999</v>
-      </c>
-      <c r="G121" s="250">
-        <v>4</v>
-      </c>
-      <c r="H121" s="248">
-        <v>6</v>
-      </c>
-      <c r="I121" s="248"/>
-    </row>
-    <row r="122" spans="1:9">
-      <c r="A122" s="248">
-        <v>1</v>
-      </c>
-      <c r="B122" s="248" t="s">
-        <v>17</v>
-      </c>
-      <c r="C122" s="248" t="s">
-        <v>49</v>
-      </c>
-      <c r="D122" s="248" t="s">
-        <v>37</v>
-      </c>
-      <c r="E122" s="249">
-        <v>8</v>
-      </c>
-      <c r="F122" s="248">
-        <v>3.9277600000000001</v>
-      </c>
-      <c r="G122" s="250">
-        <v>38</v>
-      </c>
-      <c r="H122" s="248">
-        <v>3</v>
-      </c>
-      <c r="I122" s="248"/>
-    </row>
-    <row r="123" spans="1:9">
-      <c r="A123" s="248">
-        <v>2</v>
-      </c>
-      <c r="B123" s="248" t="s">
-        <v>17</v>
-      </c>
-      <c r="C123" s="248" t="s">
-        <v>49</v>
-      </c>
-      <c r="D123" s="248" t="s">
-        <v>37</v>
-      </c>
-      <c r="E123" s="249">
-        <v>9</v>
-      </c>
-      <c r="F123" s="248">
-        <v>3.8163899999999997</v>
-      </c>
-      <c r="G123" s="250">
-        <v>34</v>
-      </c>
-      <c r="H123" s="248">
-        <v>3</v>
-      </c>
-      <c r="I123" s="248"/>
-    </row>
-    <row r="124" spans="1:9">
-      <c r="A124" s="248">
-        <v>3</v>
-      </c>
-      <c r="B124" s="248" t="s">
-        <v>17</v>
-      </c>
-      <c r="C124" s="248" t="s">
-        <v>49</v>
-      </c>
-      <c r="D124" s="248" t="s">
-        <v>37</v>
-      </c>
-      <c r="E124" s="249">
-        <v>8</v>
-      </c>
-      <c r="F124" s="248">
-        <v>3.9497199999999997</v>
-      </c>
-      <c r="G124" s="250">
-        <v>41</v>
-      </c>
-      <c r="H124" s="248">
-        <v>3</v>
-      </c>
-      <c r="I124" s="248"/>
-    </row>
-    <row r="125" spans="1:9">
-      <c r="A125" s="248">
-        <v>4</v>
-      </c>
-      <c r="B125" s="248" t="s">
-        <v>17</v>
-      </c>
-      <c r="C125" s="248" t="s">
-        <v>49</v>
-      </c>
-      <c r="D125" s="248" t="s">
-        <v>37</v>
-      </c>
-      <c r="E125" s="249"/>
-      <c r="F125" s="248"/>
-      <c r="G125" s="250"/>
-      <c r="H125" s="248"/>
-      <c r="I125" s="248"/>
-    </row>
-    <row r="126" spans="1:9">
-      <c r="A126" s="248">
-        <v>5</v>
-      </c>
-      <c r="B126" s="248" t="s">
-        <v>17</v>
-      </c>
-      <c r="C126" s="248" t="s">
-        <v>49</v>
-      </c>
-      <c r="D126" s="248" t="s">
-        <v>37</v>
-      </c>
-      <c r="E126" s="249"/>
-      <c r="F126" s="248"/>
-      <c r="G126" s="250"/>
-      <c r="H126" s="248"/>
-      <c r="I126" s="248"/>
-    </row>
-    <row r="127" spans="1:9">
-      <c r="A127" s="248">
-        <v>6</v>
-      </c>
-      <c r="B127" s="248" t="s">
-        <v>17</v>
-      </c>
-      <c r="C127" s="248" t="s">
-        <v>49</v>
-      </c>
-      <c r="D127" s="248" t="s">
-        <v>37</v>
-      </c>
-      <c r="E127" s="249"/>
-      <c r="F127" s="248"/>
-      <c r="G127" s="250"/>
-      <c r="H127" s="248"/>
-      <c r="I127" s="248"/>
-    </row>
-    <row r="128" spans="1:9">
-      <c r="A128" s="248">
-        <v>1</v>
-      </c>
-      <c r="B128" s="248" t="s">
-        <v>17</v>
-      </c>
-      <c r="C128" s="248" t="s">
-        <v>49</v>
-      </c>
-      <c r="D128" s="248" t="s">
-        <v>39</v>
-      </c>
-      <c r="E128" s="249"/>
-      <c r="F128" s="248"/>
-      <c r="G128" s="250"/>
-      <c r="H128" s="248"/>
-      <c r="I128" s="248"/>
-    </row>
-    <row r="129" spans="1:9">
-      <c r="A129" s="248">
-        <v>2</v>
-      </c>
-      <c r="B129" s="248" t="s">
-        <v>17</v>
-      </c>
-      <c r="C129" s="248" t="s">
-        <v>49</v>
-      </c>
-      <c r="D129" s="248" t="s">
-        <v>39</v>
-      </c>
-      <c r="E129" s="249">
-        <v>19</v>
-      </c>
-      <c r="F129" s="248"/>
-      <c r="G129" s="250">
-        <v>0</v>
-      </c>
-      <c r="H129" s="248">
-        <v>4</v>
-      </c>
-      <c r="I129" s="248"/>
-    </row>
-    <row r="130" spans="1:9">
-      <c r="A130" s="248">
-        <v>3</v>
-      </c>
-      <c r="B130" s="248" t="s">
-        <v>17</v>
-      </c>
-      <c r="C130" s="248" t="s">
-        <v>49</v>
-      </c>
-      <c r="D130" s="248" t="s">
-        <v>39</v>
-      </c>
-      <c r="E130" s="249"/>
-      <c r="F130" s="248"/>
-      <c r="G130" s="250"/>
-      <c r="H130" s="248"/>
-      <c r="I130" s="248"/>
-    </row>
-    <row r="131" spans="1:9">
-      <c r="A131" s="248">
-        <v>4</v>
-      </c>
-      <c r="B131" s="248" t="s">
-        <v>17</v>
-      </c>
-      <c r="C131" s="248" t="s">
-        <v>49</v>
-      </c>
-      <c r="D131" s="248" t="s">
-        <v>39</v>
-      </c>
-      <c r="E131" s="249">
-        <v>16</v>
-      </c>
-      <c r="F131" s="248">
-        <v>3.3693899999999997</v>
-      </c>
-      <c r="G131" s="250">
-        <v>0</v>
-      </c>
-      <c r="H131" s="248">
-        <v>5</v>
-      </c>
-      <c r="I131" s="248"/>
-    </row>
-    <row r="132" spans="1:9">
-      <c r="A132" s="248">
-        <v>5</v>
-      </c>
-      <c r="B132" s="248" t="s">
-        <v>17</v>
-      </c>
-      <c r="C132" s="248" t="s">
-        <v>49</v>
-      </c>
-      <c r="D132" s="248" t="s">
-        <v>39</v>
-      </c>
-      <c r="E132" s="249"/>
-      <c r="F132" s="248"/>
-      <c r="G132" s="250"/>
-      <c r="H132" s="248"/>
-      <c r="I132" s="248"/>
-    </row>
-    <row r="133" spans="1:9">
-      <c r="A133" s="248">
-        <v>6</v>
-      </c>
-      <c r="B133" s="248" t="s">
-        <v>17</v>
-      </c>
-      <c r="C133" s="248" t="s">
-        <v>49</v>
-      </c>
-      <c r="D133" s="248" t="s">
-        <v>39</v>
-      </c>
-      <c r="E133" s="249"/>
-      <c r="F133" s="248"/>
-      <c r="G133" s="250"/>
-      <c r="H133" s="248"/>
-      <c r="I133" s="248"/>
-    </row>
-    <row r="134" spans="1:9">
-      <c r="A134" s="248">
-        <v>1</v>
-      </c>
-      <c r="B134" s="248" t="s">
-        <v>18</v>
-      </c>
-      <c r="C134" s="248" t="s">
-        <v>49</v>
-      </c>
-      <c r="D134" s="248" t="s">
-        <v>37</v>
-      </c>
-      <c r="E134" s="249">
-        <v>7</v>
-      </c>
-      <c r="F134" s="248">
-        <v>3.9051</v>
-      </c>
-      <c r="G134" s="250">
-        <v>33</v>
-      </c>
-      <c r="H134" s="248">
-        <v>3</v>
-      </c>
-      <c r="I134" s="248"/>
-    </row>
-    <row r="135" spans="1:9">
-      <c r="A135" s="248">
-        <v>2</v>
-      </c>
-      <c r="B135" s="248" t="s">
-        <v>18</v>
-      </c>
-      <c r="C135" s="248" t="s">
-        <v>49</v>
-      </c>
-      <c r="D135" s="248" t="s">
-        <v>37</v>
-      </c>
-      <c r="E135" s="249">
-        <v>7</v>
-      </c>
-      <c r="F135" s="248">
-        <v>3.87269</v>
-      </c>
-      <c r="G135" s="250">
-        <v>37</v>
-      </c>
-      <c r="H135" s="248">
-        <v>3</v>
-      </c>
-      <c r="I135" s="248"/>
-    </row>
-    <row r="136" spans="1:9">
-      <c r="A136" s="248">
-        <v>3</v>
-      </c>
-      <c r="B136" s="248" t="s">
-        <v>18</v>
-      </c>
-      <c r="C136" s="248" t="s">
-        <v>49</v>
-      </c>
-      <c r="D136" s="248" t="s">
-        <v>37</v>
-      </c>
-      <c r="E136" s="249"/>
-      <c r="F136" s="248"/>
-      <c r="G136" s="250"/>
-      <c r="H136" s="248"/>
-      <c r="I136" s="248"/>
-    </row>
-    <row r="137" spans="1:9">
-      <c r="A137" s="248">
-        <v>4</v>
-      </c>
-      <c r="B137" s="248" t="s">
-        <v>18</v>
-      </c>
-      <c r="C137" s="248" t="s">
-        <v>49</v>
-      </c>
-      <c r="D137" s="248" t="s">
-        <v>37</v>
-      </c>
-      <c r="E137" s="249">
-        <v>8</v>
-      </c>
-      <c r="F137" s="248">
-        <v>3.81928</v>
-      </c>
-      <c r="G137" s="250">
-        <v>34</v>
-      </c>
-      <c r="H137" s="248">
-        <v>3</v>
-      </c>
-      <c r="I137" s="248"/>
-    </row>
-    <row r="138" spans="1:9">
-      <c r="A138" s="248">
-        <v>5</v>
-      </c>
-      <c r="B138" s="248" t="s">
-        <v>18</v>
-      </c>
-      <c r="C138" s="248" t="s">
-        <v>49</v>
-      </c>
-      <c r="D138" s="248" t="s">
-        <v>37</v>
-      </c>
-      <c r="E138" s="249">
-        <v>7</v>
-      </c>
-      <c r="F138" s="248">
-        <v>3.8507699999999998</v>
-      </c>
-      <c r="G138" s="250">
-        <v>35</v>
-      </c>
-      <c r="H138" s="248">
-        <v>3</v>
-      </c>
-      <c r="I138" s="248"/>
-    </row>
-    <row r="139" spans="1:9">
-      <c r="A139" s="248">
-        <v>6</v>
-      </c>
-      <c r="B139" s="248" t="s">
-        <v>18</v>
-      </c>
-      <c r="C139" s="248" t="s">
-        <v>49</v>
-      </c>
-      <c r="D139" s="248" t="s">
-        <v>37</v>
-      </c>
-      <c r="E139" s="249">
-        <v>7</v>
-      </c>
-      <c r="F139" s="248">
-        <v>3.9354</v>
-      </c>
-      <c r="G139" s="250">
-        <v>37</v>
-      </c>
-      <c r="H139" s="248">
-        <v>3</v>
-      </c>
-      <c r="I139" s="248"/>
-    </row>
-    <row r="140" spans="1:9">
-      <c r="A140" s="248">
-        <v>1</v>
-      </c>
-      <c r="B140" s="248" t="s">
-        <v>18</v>
-      </c>
-      <c r="C140" s="248" t="s">
-        <v>49</v>
-      </c>
-      <c r="D140" s="248" t="s">
-        <v>39</v>
-      </c>
-      <c r="E140" s="249"/>
-      <c r="F140" s="248"/>
-      <c r="G140" s="250"/>
-      <c r="H140" s="248"/>
-      <c r="I140" s="248"/>
-    </row>
-    <row r="141" spans="1:9">
-      <c r="A141" s="248">
-        <v>2</v>
-      </c>
-      <c r="B141" s="248" t="s">
-        <v>18</v>
-      </c>
-      <c r="C141" s="248" t="s">
-        <v>49</v>
-      </c>
-      <c r="D141" s="248" t="s">
-        <v>39</v>
-      </c>
-      <c r="E141" s="249">
-        <v>13</v>
-      </c>
-      <c r="F141" s="248">
-        <v>2.6186599999999998</v>
-      </c>
-      <c r="G141" s="250">
-        <v>0</v>
-      </c>
-      <c r="H141" s="248">
-        <v>4</v>
-      </c>
-      <c r="I141" s="248"/>
-    </row>
-    <row r="142" spans="1:9">
-      <c r="A142" s="248">
-        <v>3</v>
-      </c>
-      <c r="B142" s="248" t="s">
-        <v>18</v>
-      </c>
-      <c r="C142" s="248" t="s">
-        <v>49</v>
-      </c>
-      <c r="D142" s="248" t="s">
-        <v>39</v>
-      </c>
-      <c r="E142" s="249"/>
-      <c r="F142" s="248"/>
-      <c r="G142" s="250"/>
-      <c r="H142" s="248"/>
-      <c r="I142" s="248"/>
-    </row>
-    <row r="143" spans="1:9">
-      <c r="A143" s="248">
-        <v>4</v>
-      </c>
-      <c r="B143" s="248" t="s">
-        <v>18</v>
-      </c>
-      <c r="C143" s="248" t="s">
-        <v>49</v>
-      </c>
-      <c r="D143" s="248" t="s">
-        <v>39</v>
-      </c>
-      <c r="E143" s="249">
-        <v>14</v>
-      </c>
-      <c r="F143" s="248">
-        <v>2.5307499999999998</v>
-      </c>
-      <c r="G143" s="250">
-        <v>0</v>
-      </c>
-      <c r="H143" s="248">
-        <v>4</v>
-      </c>
-      <c r="I143" s="248"/>
-    </row>
-    <row r="144" spans="1:9">
-      <c r="A144" s="248">
-        <v>5</v>
-      </c>
-      <c r="B144" s="248" t="s">
-        <v>18</v>
-      </c>
-      <c r="C144" s="248" t="s">
-        <v>49</v>
-      </c>
-      <c r="D144" s="248" t="s">
-        <v>39</v>
-      </c>
-      <c r="E144" s="249"/>
-      <c r="F144" s="248"/>
-      <c r="G144" s="250"/>
-      <c r="H144" s="248"/>
-      <c r="I144" s="248"/>
-    </row>
-    <row r="145" spans="1:9">
-      <c r="A145" s="248">
-        <v>6</v>
-      </c>
-      <c r="B145" s="248" t="s">
-        <v>18</v>
-      </c>
-      <c r="C145" s="248" t="s">
-        <v>49</v>
-      </c>
-      <c r="D145" s="248" t="s">
-        <v>39</v>
-      </c>
-      <c r="E145" s="249"/>
-      <c r="F145" s="248"/>
-      <c r="G145" s="250"/>
-      <c r="H145" s="248"/>
-      <c r="I145" s="248"/>
-    </row>
-    <row r="146" spans="1:9">
-      <c r="A146" s="248">
-        <v>1</v>
-      </c>
-      <c r="B146" s="248" t="s">
-        <v>19</v>
-      </c>
-      <c r="C146" s="248" t="s">
-        <v>49</v>
-      </c>
-      <c r="D146" s="248" t="s">
-        <v>37</v>
-      </c>
-      <c r="E146" s="249">
-        <v>8</v>
-      </c>
-      <c r="F146" s="248">
-        <v>3.7213499999999997</v>
-      </c>
-      <c r="G146" s="250">
-        <v>32</v>
-      </c>
-      <c r="H146" s="248">
-        <v>4</v>
-      </c>
-      <c r="I146" s="248"/>
-    </row>
-    <row r="147" spans="1:9">
-      <c r="A147" s="248">
-        <v>2</v>
-      </c>
-      <c r="B147" s="248" t="s">
-        <v>19</v>
-      </c>
-      <c r="C147" s="248" t="s">
-        <v>49</v>
-      </c>
-      <c r="D147" s="248" t="s">
-        <v>37</v>
-      </c>
-      <c r="E147" s="249">
-        <v>8</v>
-      </c>
-      <c r="F147" s="248">
-        <v>3.9912100000000001</v>
-      </c>
-      <c r="G147" s="250">
-        <v>40</v>
-      </c>
-      <c r="H147" s="248">
-        <v>3</v>
-      </c>
-      <c r="I147" s="248"/>
-    </row>
-    <row r="148" spans="1:9">
-      <c r="A148" s="248">
-        <v>3</v>
-      </c>
-      <c r="B148" s="248" t="s">
-        <v>19</v>
-      </c>
-      <c r="C148" s="248" t="s">
-        <v>49</v>
-      </c>
-      <c r="D148" s="248" t="s">
-        <v>37</v>
-      </c>
-      <c r="E148" s="249">
-        <v>9</v>
-      </c>
-      <c r="F148" s="248">
-        <v>3.8117800000000002</v>
-      </c>
-      <c r="G148" s="250">
-        <v>45</v>
-      </c>
-      <c r="H148" s="248">
-        <v>3</v>
-      </c>
-      <c r="I148" s="248"/>
-    </row>
-    <row r="149" spans="1:9">
-      <c r="A149" s="248">
-        <v>4</v>
-      </c>
-      <c r="B149" s="248" t="s">
-        <v>19</v>
-      </c>
-      <c r="C149" s="248" t="s">
-        <v>49</v>
-      </c>
-      <c r="D149" s="248" t="s">
-        <v>37</v>
-      </c>
-      <c r="E149" s="249">
-        <v>8</v>
-      </c>
-      <c r="F149" s="248">
-        <v>3.9439099999999998</v>
-      </c>
-      <c r="G149" s="250">
-        <v>40</v>
-      </c>
-      <c r="H149" s="248">
-        <v>3</v>
-      </c>
-      <c r="I149" s="248"/>
-    </row>
-    <row r="150" spans="1:9">
-      <c r="A150" s="248">
-        <v>5</v>
-      </c>
-      <c r="B150" s="248" t="s">
-        <v>19</v>
-      </c>
-      <c r="C150" s="248" t="s">
-        <v>49</v>
-      </c>
-      <c r="D150" s="248" t="s">
-        <v>37</v>
-      </c>
-      <c r="E150" s="249">
-        <v>9</v>
-      </c>
-      <c r="F150" s="248">
-        <v>3.9283600000000001</v>
-      </c>
-      <c r="G150" s="250">
-        <v>47</v>
-      </c>
-      <c r="H150" s="248">
-        <v>3</v>
-      </c>
-      <c r="I150" s="248"/>
-    </row>
-    <row r="151" spans="1:9">
-      <c r="A151" s="248">
-        <v>6</v>
-      </c>
-      <c r="B151" s="248" t="s">
-        <v>19</v>
-      </c>
-      <c r="C151" s="248" t="s">
-        <v>49</v>
-      </c>
-      <c r="D151" s="248" t="s">
-        <v>37</v>
-      </c>
-      <c r="E151" s="249">
-        <v>8</v>
-      </c>
-      <c r="F151" s="248">
-        <v>3.94997</v>
-      </c>
-      <c r="G151" s="250">
-        <v>40</v>
-      </c>
-      <c r="H151" s="248">
-        <v>3</v>
-      </c>
-      <c r="I151" s="248"/>
-    </row>
-    <row r="152" spans="1:9">
-      <c r="A152" s="248">
-        <v>1</v>
-      </c>
-      <c r="B152" s="248" t="s">
-        <v>19</v>
-      </c>
-      <c r="C152" s="248" t="s">
-        <v>49</v>
-      </c>
-      <c r="D152" s="248" t="s">
-        <v>39</v>
-      </c>
-      <c r="E152" s="249">
-        <v>15</v>
-      </c>
-      <c r="F152" s="248">
-        <v>3.7448299999999999</v>
-      </c>
-      <c r="G152" s="250">
-        <v>19</v>
-      </c>
-      <c r="H152" s="248">
-        <v>6</v>
-      </c>
-      <c r="I152" s="248"/>
-    </row>
-    <row r="153" spans="1:9">
-      <c r="A153" s="248">
-        <v>2</v>
-      </c>
-      <c r="B153" s="248" t="s">
-        <v>19</v>
-      </c>
-      <c r="C153" s="248" t="s">
-        <v>49</v>
-      </c>
-      <c r="D153" s="248" t="s">
-        <v>39</v>
-      </c>
-      <c r="E153" s="249">
-        <v>15</v>
-      </c>
-      <c r="F153" s="248">
-        <v>3.5450500000000003</v>
-      </c>
-      <c r="G153" s="250">
-        <v>0</v>
-      </c>
-      <c r="H153" s="248">
-        <v>4</v>
-      </c>
-      <c r="I153" s="248"/>
-    </row>
-    <row r="154" spans="1:9">
-      <c r="A154" s="248">
-        <v>3</v>
-      </c>
-      <c r="B154" s="248" t="s">
-        <v>19</v>
-      </c>
-      <c r="C154" s="248" t="s">
-        <v>49</v>
-      </c>
-      <c r="D154" s="248" t="s">
-        <v>39</v>
-      </c>
-      <c r="E154" s="249">
-        <v>15</v>
-      </c>
-      <c r="F154" s="248">
-        <v>3.4198300000000001</v>
-      </c>
-      <c r="G154" s="250">
-        <v>0</v>
-      </c>
-      <c r="H154" s="248">
-        <v>6</v>
-      </c>
-      <c r="I154" s="248"/>
-    </row>
-    <row r="155" spans="1:9">
-      <c r="A155" s="248">
-        <v>4</v>
-      </c>
-      <c r="B155" s="248" t="s">
-        <v>19</v>
-      </c>
-      <c r="C155" s="248" t="s">
-        <v>49</v>
-      </c>
-      <c r="D155" s="248" t="s">
-        <v>39</v>
-      </c>
-      <c r="E155" s="249">
-        <v>15</v>
-      </c>
-      <c r="F155" s="248">
-        <v>3.58934</v>
-      </c>
-      <c r="G155" s="250">
-        <v>0</v>
-      </c>
-      <c r="H155" s="248">
-        <v>6</v>
-      </c>
-      <c r="I155" s="248"/>
-    </row>
-    <row r="156" spans="1:9">
-      <c r="A156" s="248">
-        <v>5</v>
-      </c>
-      <c r="B156" s="248" t="s">
-        <v>19</v>
-      </c>
-      <c r="C156" s="248" t="s">
-        <v>49</v>
-      </c>
-      <c r="D156" s="248" t="s">
-        <v>39</v>
-      </c>
-      <c r="E156" s="249">
-        <v>15</v>
-      </c>
-      <c r="F156" s="248">
-        <v>3.7646700000000002</v>
-      </c>
-      <c r="G156" s="250">
-        <v>23</v>
-      </c>
-      <c r="H156" s="248">
-        <v>5</v>
-      </c>
-      <c r="I156" s="248"/>
-    </row>
-    <row r="157" spans="1:9">
-      <c r="A157" s="248">
-        <v>6</v>
-      </c>
-      <c r="B157" s="248" t="s">
-        <v>19</v>
-      </c>
-      <c r="C157" s="248" t="s">
-        <v>49</v>
-      </c>
-      <c r="D157" s="248" t="s">
-        <v>39</v>
-      </c>
-      <c r="E157" s="249">
-        <v>15</v>
-      </c>
-      <c r="F157" s="248">
-        <v>3.5377899999999998</v>
-      </c>
-      <c r="G157" s="250">
-        <v>8</v>
-      </c>
-      <c r="H157" s="248">
-        <v>5</v>
-      </c>
-      <c r="I157" s="248"/>
+      <c r="I157" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/PHE.xlsx
+++ b/PHE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0b3bbfbef5e37dc7/Documents/R_PHD_analysis/Multigenerational_analysis/life-history-traits-analysis/Tai/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="8_{89BE5EBB-4BBC-48EF-8FCC-FE61CED8F79F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E44953F7-9A19-48FE-97F6-4F0D7340665B}"/>
+  <xr:revisionPtr revIDLastSave="47" documentId="8_{89BE5EBB-4BBC-48EF-8FCC-FE61CED8F79F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{158730A7-D95D-4B31-A509-0EE7FE2C6849}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -288,7 +288,7 @@
       <name val="Inherit"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -322,6 +322,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -898,7 +904,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="249">
+  <cellXfs count="255">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1494,58 +1500,25 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1553,6 +1526,57 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="7" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1569,6 +1593,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1837,7 +1865,7 @@
   <dimension ref="A1:T157"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L1" activeCellId="7" sqref="A1:A1048576 B1:B1048576 C1:C1048576 D1:D1048576 E1:E1048576 H1:H1048576 K1:K1048576 L1:L1048576"/>
+      <selection activeCell="S147" sqref="S147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -2206,49 +2234,49 @@
       <c r="Q7" s="206"/>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="211">
+      <c r="A8" s="249">
         <v>1</v>
       </c>
-      <c r="B8" s="203" t="s">
+      <c r="B8" s="250" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="203" t="s">
+      <c r="C8" s="250" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="203" t="s">
+      <c r="D8" s="250" t="s">
         <v>39</v>
       </c>
-      <c r="E8" s="212">
+      <c r="E8" s="251">
         <v>14</v>
       </c>
-      <c r="F8" s="203">
+      <c r="F8" s="250">
         <v>16</v>
       </c>
-      <c r="G8" s="202">
-        <v>0</v>
-      </c>
-      <c r="H8" s="203">
+      <c r="G8" s="252">
+        <v>0</v>
+      </c>
+      <c r="H8" s="250">
         <v>2.4706300000000003</v>
       </c>
-      <c r="I8" s="203">
+      <c r="I8" s="250">
         <v>19</v>
       </c>
-      <c r="J8" s="202">
-        <v>0</v>
-      </c>
-      <c r="K8" s="202">
-        <v>0</v>
-      </c>
-      <c r="L8" s="203">
-        <v>3</v>
-      </c>
-      <c r="M8" s="203">
+      <c r="J8" s="252">
+        <v>0</v>
+      </c>
+      <c r="K8" s="252">
+        <v>0</v>
+      </c>
+      <c r="L8" s="250">
+        <v>3</v>
+      </c>
+      <c r="M8" s="250">
         <v>21</v>
       </c>
-      <c r="N8" s="221">
-        <v>0</v>
-      </c>
-      <c r="O8" s="223">
+      <c r="N8" s="250">
+        <v>0</v>
+      </c>
+      <c r="O8" s="254">
         <f>IF(N8=0, 0, 1/M8)</f>
         <v>0</v>
       </c>
@@ -2318,97 +2346,97 @@
       </c>
     </row>
     <row r="11" spans="1:17">
-      <c r="A11" s="211">
+      <c r="A11" s="249">
         <v>4</v>
       </c>
-      <c r="B11" s="203" t="s">
+      <c r="B11" s="250" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="203" t="s">
+      <c r="C11" s="250" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="203" t="s">
+      <c r="D11" s="250" t="s">
         <v>39</v>
       </c>
-      <c r="E11" s="212">
+      <c r="E11" s="251">
         <v>12</v>
       </c>
-      <c r="F11" s="203">
+      <c r="F11" s="250">
         <v>16</v>
       </c>
-      <c r="G11" s="202">
-        <v>0</v>
-      </c>
-      <c r="H11" s="203">
+      <c r="G11" s="252">
+        <v>0</v>
+      </c>
+      <c r="H11" s="250">
         <v>3.1534400000000002</v>
       </c>
-      <c r="I11" s="203">
+      <c r="I11" s="250">
         <v>21</v>
       </c>
-      <c r="J11" s="202">
-        <v>0</v>
-      </c>
-      <c r="K11" s="202">
-        <v>0</v>
-      </c>
-      <c r="L11" s="203">
+      <c r="J11" s="252">
+        <v>0</v>
+      </c>
+      <c r="K11" s="252">
+        <v>0</v>
+      </c>
+      <c r="L11" s="250">
         <v>5</v>
       </c>
-      <c r="M11" s="203">
+      <c r="M11" s="250">
         <v>21</v>
       </c>
-      <c r="N11" s="221">
-        <v>0</v>
-      </c>
-      <c r="O11" s="223">
+      <c r="N11" s="250">
+        <v>0</v>
+      </c>
+      <c r="O11" s="254">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:17">
-      <c r="A12" s="211">
+      <c r="A12" s="249">
         <v>5</v>
       </c>
-      <c r="B12" s="203" t="s">
+      <c r="B12" s="250" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="203" t="s">
+      <c r="C12" s="250" t="s">
         <v>26</v>
       </c>
-      <c r="D12" s="203" t="s">
+      <c r="D12" s="250" t="s">
         <v>39</v>
       </c>
-      <c r="E12" s="212">
+      <c r="E12" s="251">
         <v>13</v>
       </c>
-      <c r="F12" s="203">
+      <c r="F12" s="250">
         <v>16</v>
       </c>
-      <c r="G12" s="202">
-        <v>0</v>
-      </c>
-      <c r="H12" s="203">
+      <c r="G12" s="252">
+        <v>0</v>
+      </c>
+      <c r="H12" s="250">
         <v>2.66635</v>
       </c>
-      <c r="I12" s="203">
+      <c r="I12" s="250">
         <v>20</v>
       </c>
-      <c r="J12" s="202">
-        <v>0</v>
-      </c>
-      <c r="K12" s="202">
-        <v>0</v>
-      </c>
-      <c r="L12" s="203">
+      <c r="J12" s="252">
+        <v>0</v>
+      </c>
+      <c r="K12" s="252">
+        <v>0</v>
+      </c>
+      <c r="L12" s="250">
         <v>4</v>
       </c>
-      <c r="M12" s="203">
+      <c r="M12" s="250">
         <v>21</v>
       </c>
-      <c r="N12" s="221">
-        <v>0</v>
-      </c>
-      <c r="O12" s="223">
+      <c r="N12" s="250">
+        <v>0</v>
+      </c>
+      <c r="O12" s="254">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2730,241 +2758,241 @@
       <c r="Q19" s="206"/>
     </row>
     <row r="20" spans="1:17">
-      <c r="A20" s="211">
+      <c r="A20" s="249">
         <v>1</v>
       </c>
-      <c r="B20" s="203" t="s">
+      <c r="B20" s="250" t="s">
         <v>8</v>
       </c>
-      <c r="C20" s="203" t="s">
+      <c r="C20" s="250" t="s">
         <v>26</v>
       </c>
-      <c r="D20" s="203" t="s">
+      <c r="D20" s="250" t="s">
         <v>39</v>
       </c>
-      <c r="E20" s="212">
+      <c r="E20" s="251">
         <v>15</v>
       </c>
-      <c r="F20" s="203">
+      <c r="F20" s="250">
         <v>18</v>
       </c>
-      <c r="G20" s="202">
+      <c r="G20" s="252">
         <v>9</v>
       </c>
-      <c r="H20" s="203">
+      <c r="H20" s="250">
         <v>3.6478000000000002</v>
       </c>
-      <c r="I20" s="203">
+      <c r="I20" s="250">
         <v>25</v>
       </c>
-      <c r="J20" s="202">
-        <v>0</v>
-      </c>
-      <c r="K20" s="202">
+      <c r="J20" s="252">
+        <v>0</v>
+      </c>
+      <c r="K20" s="252">
         <v>9</v>
       </c>
-      <c r="L20" s="203">
+      <c r="L20" s="250">
         <v>7</v>
       </c>
-      <c r="M20" s="203">
+      <c r="M20" s="250">
         <v>25</v>
       </c>
-      <c r="N20" s="221">
-        <v>0</v>
-      </c>
-      <c r="O20" s="222">
+      <c r="N20" s="250">
+        <v>0</v>
+      </c>
+      <c r="O20" s="253">
         <f>IF(N20=0, 0, 1/M20)</f>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:17">
-      <c r="A21" s="211">
+      <c r="A21" s="249">
         <v>2</v>
       </c>
-      <c r="B21" s="203" t="s">
+      <c r="B21" s="250" t="s">
         <v>8</v>
       </c>
-      <c r="C21" s="203" t="s">
+      <c r="C21" s="250" t="s">
         <v>26</v>
       </c>
-      <c r="D21" s="203" t="s">
+      <c r="D21" s="250" t="s">
         <v>39</v>
       </c>
-      <c r="E21" s="212">
+      <c r="E21" s="251">
         <v>15</v>
       </c>
-      <c r="F21" s="203">
+      <c r="F21" s="250">
         <v>18</v>
       </c>
-      <c r="G21" s="202">
-        <v>0</v>
-      </c>
-      <c r="H21" s="203">
+      <c r="G21" s="252">
+        <v>0</v>
+      </c>
+      <c r="H21" s="250">
         <v>3.6543099999999997</v>
       </c>
-      <c r="I21" s="203">
+      <c r="I21" s="250">
         <v>24</v>
       </c>
-      <c r="J21" s="202">
-        <v>0</v>
-      </c>
-      <c r="K21" s="202">
-        <v>0</v>
-      </c>
-      <c r="L21" s="203">
+      <c r="J21" s="252">
+        <v>0</v>
+      </c>
+      <c r="K21" s="252">
+        <v>0</v>
+      </c>
+      <c r="L21" s="250">
         <v>6</v>
       </c>
-      <c r="M21" s="203">
+      <c r="M21" s="250">
         <v>25</v>
       </c>
-      <c r="N21" s="221">
-        <v>0</v>
-      </c>
-      <c r="O21" s="222">
+      <c r="N21" s="250">
+        <v>0</v>
+      </c>
+      <c r="O21" s="253">
         <f t="shared" ref="O21:O25" si="3">IF(N21=0, 0, 1/M21)</f>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:17">
-      <c r="A22" s="211">
-        <v>3</v>
-      </c>
-      <c r="B22" s="203" t="s">
+      <c r="A22" s="249">
+        <v>3</v>
+      </c>
+      <c r="B22" s="250" t="s">
         <v>8</v>
       </c>
-      <c r="C22" s="203" t="s">
+      <c r="C22" s="250" t="s">
         <v>26</v>
       </c>
-      <c r="D22" s="203" t="s">
+      <c r="D22" s="250" t="s">
         <v>39</v>
       </c>
-      <c r="E22" s="212">
+      <c r="E22" s="251">
         <v>16</v>
       </c>
-      <c r="F22" s="203">
+      <c r="F22" s="250">
         <v>18</v>
       </c>
-      <c r="G22" s="202">
+      <c r="G22" s="252">
         <v>10</v>
       </c>
-      <c r="H22" s="203">
+      <c r="H22" s="250">
         <v>3.6524000000000001</v>
       </c>
-      <c r="I22" s="203">
+      <c r="I22" s="250">
         <v>24</v>
       </c>
-      <c r="J22" s="202">
-        <v>0</v>
-      </c>
-      <c r="K22" s="202">
+      <c r="J22" s="252">
+        <v>0</v>
+      </c>
+      <c r="K22" s="252">
         <v>10</v>
       </c>
-      <c r="L22" s="203">
+      <c r="L22" s="250">
         <v>6</v>
       </c>
-      <c r="M22" s="203">
+      <c r="M22" s="250">
         <v>25</v>
       </c>
-      <c r="N22" s="221">
-        <v>0</v>
-      </c>
-      <c r="O22" s="222">
+      <c r="N22" s="250">
+        <v>0</v>
+      </c>
+      <c r="O22" s="253">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:17">
-      <c r="A23" s="211">
+      <c r="A23" s="249">
         <v>4</v>
       </c>
-      <c r="B23" s="203" t="s">
+      <c r="B23" s="250" t="s">
         <v>8</v>
       </c>
-      <c r="C23" s="203" t="s">
+      <c r="C23" s="250" t="s">
         <v>26</v>
       </c>
-      <c r="D23" s="203" t="s">
+      <c r="D23" s="250" t="s">
         <v>39</v>
       </c>
-      <c r="E23" s="212">
+      <c r="E23" s="251">
         <v>15</v>
       </c>
-      <c r="F23" s="203">
+      <c r="F23" s="250">
         <v>18</v>
       </c>
-      <c r="G23" s="202">
-        <v>0</v>
-      </c>
-      <c r="H23" s="203">
+      <c r="G23" s="252">
+        <v>0</v>
+      </c>
+      <c r="H23" s="250">
         <v>3.0021799999999996</v>
       </c>
-      <c r="I23" s="203">
+      <c r="I23" s="250">
         <v>24</v>
       </c>
-      <c r="J23" s="202">
-        <v>0</v>
-      </c>
-      <c r="K23" s="202">
-        <v>0</v>
-      </c>
-      <c r="L23" s="203">
+      <c r="J23" s="252">
+        <v>0</v>
+      </c>
+      <c r="K23" s="252">
+        <v>0</v>
+      </c>
+      <c r="L23" s="250">
         <v>6</v>
       </c>
-      <c r="M23" s="203">
+      <c r="M23" s="250">
         <v>25</v>
       </c>
-      <c r="N23" s="221">
-        <v>0</v>
-      </c>
-      <c r="O23" s="222">
+      <c r="N23" s="250">
+        <v>0</v>
+      </c>
+      <c r="O23" s="253">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:17">
-      <c r="A24" s="211">
+      <c r="A24" s="249">
         <v>5</v>
       </c>
-      <c r="B24" s="203" t="s">
+      <c r="B24" s="250" t="s">
         <v>8</v>
       </c>
-      <c r="C24" s="203" t="s">
+      <c r="C24" s="250" t="s">
         <v>26</v>
       </c>
-      <c r="D24" s="203" t="s">
+      <c r="D24" s="250" t="s">
         <v>39</v>
       </c>
-      <c r="E24" s="212">
+      <c r="E24" s="251">
         <v>15</v>
       </c>
-      <c r="F24" s="203">
+      <c r="F24" s="250">
         <v>18</v>
       </c>
-      <c r="G24" s="202">
+      <c r="G24" s="252">
         <v>8</v>
       </c>
-      <c r="H24" s="203">
+      <c r="H24" s="250">
         <v>3.4405000000000001</v>
       </c>
-      <c r="I24" s="203">
+      <c r="I24" s="250">
         <v>24</v>
       </c>
-      <c r="J24" s="202">
-        <v>0</v>
-      </c>
-      <c r="K24" s="202">
+      <c r="J24" s="252">
+        <v>0</v>
+      </c>
+      <c r="K24" s="252">
         <v>8</v>
       </c>
-      <c r="L24" s="203">
+      <c r="L24" s="250">
         <v>6</v>
       </c>
-      <c r="M24" s="203">
+      <c r="M24" s="250">
         <v>25</v>
       </c>
-      <c r="N24" s="221">
-        <v>0</v>
-      </c>
-      <c r="O24" s="222">
+      <c r="N24" s="250">
+        <v>0</v>
+      </c>
+      <c r="O24" s="253">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -3334,161 +3362,161 @@
       </c>
     </row>
     <row r="33" spans="1:18">
-      <c r="A33" s="211">
+      <c r="A33" s="249">
         <v>2</v>
       </c>
-      <c r="B33" s="203" t="s">
+      <c r="B33" s="250" t="s">
         <v>9</v>
       </c>
-      <c r="C33" s="203" t="s">
+      <c r="C33" s="250" t="s">
         <v>26</v>
       </c>
-      <c r="D33" s="203" t="s">
+      <c r="D33" s="250" t="s">
         <v>39</v>
       </c>
-      <c r="E33" s="212">
+      <c r="E33" s="251">
         <v>17</v>
       </c>
-      <c r="F33" s="203">
+      <c r="F33" s="250">
         <v>20</v>
       </c>
-      <c r="G33" s="202">
-        <v>0</v>
-      </c>
-      <c r="H33" s="203">
+      <c r="G33" s="252">
+        <v>0</v>
+      </c>
+      <c r="H33" s="250">
         <v>1.5271700000000001</v>
       </c>
-      <c r="I33" s="203">
+      <c r="I33" s="250">
         <v>25</v>
       </c>
-      <c r="J33" s="202">
-        <v>0</v>
-      </c>
-      <c r="K33" s="202">
-        <v>0</v>
-      </c>
-      <c r="L33" s="203">
+      <c r="J33" s="252">
+        <v>0</v>
+      </c>
+      <c r="K33" s="252">
+        <v>0</v>
+      </c>
+      <c r="L33" s="250">
         <v>5</v>
       </c>
-      <c r="M33" s="203">
+      <c r="M33" s="250">
         <v>25</v>
       </c>
-      <c r="N33" s="221">
-        <v>0</v>
-      </c>
-      <c r="O33" s="222">
+      <c r="N33" s="250">
+        <v>0</v>
+      </c>
+      <c r="O33" s="253">
         <f t="shared" ref="O33:O96" si="5">IF(N33=0, 0, 1/M33)</f>
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:18">
-      <c r="A34" s="211">
-        <v>3</v>
-      </c>
-      <c r="B34" s="203" t="s">
+      <c r="A34" s="249">
+        <v>3</v>
+      </c>
+      <c r="B34" s="250" t="s">
         <v>9</v>
       </c>
-      <c r="C34" s="203" t="s">
+      <c r="C34" s="250" t="s">
         <v>26</v>
       </c>
-      <c r="D34" s="203" t="s">
+      <c r="D34" s="250" t="s">
         <v>39</v>
       </c>
-      <c r="E34" s="212"/>
-      <c r="F34" s="203"/>
-      <c r="G34" s="202"/>
-      <c r="H34" s="203"/>
-      <c r="I34" s="203"/>
-      <c r="J34" s="202"/>
-      <c r="K34" s="202"/>
-      <c r="L34" s="203"/>
-      <c r="M34" s="203">
+      <c r="E34" s="251"/>
+      <c r="F34" s="250"/>
+      <c r="G34" s="252"/>
+      <c r="H34" s="250"/>
+      <c r="I34" s="250"/>
+      <c r="J34" s="252"/>
+      <c r="K34" s="252"/>
+      <c r="L34" s="250"/>
+      <c r="M34" s="250">
         <v>10</v>
       </c>
-      <c r="N34" s="221">
+      <c r="N34" s="250">
         <v>1</v>
       </c>
-      <c r="O34" s="222">
+      <c r="O34" s="253">
         <f t="shared" si="5"/>
         <v>0.1</v>
       </c>
     </row>
     <row r="35" spans="1:18">
-      <c r="A35" s="211">
+      <c r="A35" s="249">
         <v>4</v>
       </c>
-      <c r="B35" s="203" t="s">
+      <c r="B35" s="250" t="s">
         <v>9</v>
       </c>
-      <c r="C35" s="203" t="s">
+      <c r="C35" s="250" t="s">
         <v>26</v>
       </c>
-      <c r="D35" s="203" t="s">
+      <c r="D35" s="250" t="s">
         <v>39</v>
       </c>
-      <c r="E35" s="212"/>
-      <c r="F35" s="203"/>
-      <c r="G35" s="202"/>
-      <c r="H35" s="203"/>
-      <c r="I35" s="203"/>
-      <c r="J35" s="202"/>
-      <c r="K35" s="202"/>
-      <c r="L35" s="203"/>
-      <c r="M35" s="203">
+      <c r="E35" s="251"/>
+      <c r="F35" s="250"/>
+      <c r="G35" s="252"/>
+      <c r="H35" s="250"/>
+      <c r="I35" s="250"/>
+      <c r="J35" s="252"/>
+      <c r="K35" s="252"/>
+      <c r="L35" s="250"/>
+      <c r="M35" s="250">
         <v>15</v>
       </c>
-      <c r="N35" s="221">
+      <c r="N35" s="250">
         <v>1</v>
       </c>
-      <c r="O35" s="222">
+      <c r="O35" s="253">
         <f>IF(N35=0, 0, 1/M35)</f>
         <v>6.6666666666666666E-2</v>
       </c>
     </row>
     <row r="36" spans="1:18">
-      <c r="A36" s="211">
+      <c r="A36" s="249">
         <v>5</v>
       </c>
-      <c r="B36" s="203" t="s">
+      <c r="B36" s="250" t="s">
         <v>9</v>
       </c>
-      <c r="C36" s="203" t="s">
+      <c r="C36" s="250" t="s">
         <v>26</v>
       </c>
-      <c r="D36" s="203" t="s">
+      <c r="D36" s="250" t="s">
         <v>39</v>
       </c>
-      <c r="E36" s="212">
+      <c r="E36" s="251">
         <v>17</v>
       </c>
-      <c r="F36" s="203">
+      <c r="F36" s="250">
         <v>20</v>
       </c>
-      <c r="G36" s="202">
-        <v>0</v>
-      </c>
-      <c r="H36" s="203">
+      <c r="G36" s="252">
+        <v>0</v>
+      </c>
+      <c r="H36" s="250">
         <v>2.86036</v>
       </c>
-      <c r="I36" s="203">
+      <c r="I36" s="250">
         <v>24</v>
       </c>
-      <c r="J36" s="202">
-        <v>0</v>
-      </c>
-      <c r="K36" s="202">
-        <v>0</v>
-      </c>
-      <c r="L36" s="203">
+      <c r="J36" s="252">
+        <v>0</v>
+      </c>
+      <c r="K36" s="252">
+        <v>0</v>
+      </c>
+      <c r="L36" s="250">
         <v>4</v>
       </c>
-      <c r="M36" s="203">
+      <c r="M36" s="250">
         <v>25</v>
       </c>
-      <c r="N36" s="221">
-        <v>0</v>
-      </c>
-      <c r="O36" s="222">
+      <c r="N36" s="250">
+        <v>0</v>
+      </c>
+      <c r="O36" s="253">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -3816,49 +3844,49 @@
       <c r="R43" s="206"/>
     </row>
     <row r="44" spans="1:18">
-      <c r="A44" s="211">
+      <c r="A44" s="249">
         <v>1</v>
       </c>
-      <c r="B44" s="203" t="s">
+      <c r="B44" s="250" t="s">
         <v>10</v>
       </c>
-      <c r="C44" s="203" t="s">
+      <c r="C44" s="250" t="s">
         <v>25</v>
       </c>
-      <c r="D44" s="203" t="s">
+      <c r="D44" s="250" t="s">
         <v>39</v>
       </c>
-      <c r="E44" s="212">
+      <c r="E44" s="251">
         <v>16</v>
       </c>
-      <c r="F44" s="203">
+      <c r="F44" s="250">
         <v>19</v>
       </c>
-      <c r="G44" s="202">
+      <c r="G44" s="252">
         <v>1</v>
       </c>
-      <c r="H44" s="203">
+      <c r="H44" s="250">
         <v>3.4624899999999998</v>
       </c>
-      <c r="I44" s="203">
+      <c r="I44" s="250">
         <v>23</v>
       </c>
-      <c r="J44" s="202">
-        <v>0</v>
-      </c>
-      <c r="K44" s="202">
+      <c r="J44" s="252">
+        <v>0</v>
+      </c>
+      <c r="K44" s="252">
         <v>1</v>
       </c>
-      <c r="L44" s="203">
+      <c r="L44" s="250">
         <v>4</v>
       </c>
-      <c r="M44" s="203">
+      <c r="M44" s="250">
         <v>23</v>
       </c>
-      <c r="N44" s="221">
-        <v>0</v>
-      </c>
-      <c r="O44" s="222">
+      <c r="N44" s="250">
+        <v>0</v>
+      </c>
+      <c r="O44" s="253">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -4298,241 +4326,241 @@
       <c r="R55" s="206"/>
     </row>
     <row r="56" spans="1:18">
-      <c r="A56" s="211">
+      <c r="A56" s="249">
         <v>1</v>
       </c>
-      <c r="B56" s="203" t="s">
+      <c r="B56" s="250" t="s">
         <v>11</v>
       </c>
-      <c r="C56" s="203" t="s">
+      <c r="C56" s="250" t="s">
         <v>25</v>
       </c>
-      <c r="D56" s="203" t="s">
+      <c r="D56" s="250" t="s">
         <v>39</v>
       </c>
-      <c r="E56" s="212">
+      <c r="E56" s="251">
         <v>17</v>
       </c>
-      <c r="F56" s="203">
+      <c r="F56" s="250">
         <v>20</v>
       </c>
-      <c r="G56" s="202">
-        <v>0</v>
-      </c>
-      <c r="H56" s="203">
+      <c r="G56" s="252">
+        <v>0</v>
+      </c>
+      <c r="H56" s="250">
         <v>2.5223899999999997</v>
       </c>
-      <c r="I56" s="203">
+      <c r="I56" s="250">
         <v>23</v>
       </c>
-      <c r="J56" s="202">
-        <v>0</v>
-      </c>
-      <c r="K56" s="202">
-        <v>0</v>
-      </c>
-      <c r="L56" s="203">
-        <v>3</v>
-      </c>
-      <c r="M56" s="203">
+      <c r="J56" s="252">
+        <v>0</v>
+      </c>
+      <c r="K56" s="252">
+        <v>0</v>
+      </c>
+      <c r="L56" s="250">
+        <v>3</v>
+      </c>
+      <c r="M56" s="250">
         <v>23</v>
       </c>
-      <c r="N56" s="221">
-        <v>0</v>
-      </c>
-      <c r="O56" s="222">
+      <c r="N56" s="250">
+        <v>0</v>
+      </c>
+      <c r="O56" s="253">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:18">
-      <c r="A57" s="211">
+      <c r="A57" s="249">
         <v>2</v>
       </c>
-      <c r="B57" s="203" t="s">
+      <c r="B57" s="250" t="s">
         <v>11</v>
       </c>
-      <c r="C57" s="203" t="s">
+      <c r="C57" s="250" t="s">
         <v>25</v>
       </c>
-      <c r="D57" s="203" t="s">
+      <c r="D57" s="250" t="s">
         <v>39</v>
       </c>
-      <c r="E57" s="212">
+      <c r="E57" s="251">
         <v>16</v>
       </c>
-      <c r="F57" s="203">
+      <c r="F57" s="250">
         <v>19</v>
       </c>
-      <c r="G57" s="202">
-        <v>0</v>
-      </c>
-      <c r="H57" s="203">
+      <c r="G57" s="252">
+        <v>0</v>
+      </c>
+      <c r="H57" s="250">
         <v>2.9872299999999998</v>
       </c>
-      <c r="I57" s="203">
+      <c r="I57" s="250">
         <v>23</v>
       </c>
-      <c r="J57" s="202">
-        <v>0</v>
-      </c>
-      <c r="K57" s="202">
-        <v>0</v>
-      </c>
-      <c r="L57" s="203">
+      <c r="J57" s="252">
+        <v>0</v>
+      </c>
+      <c r="K57" s="252">
+        <v>0</v>
+      </c>
+      <c r="L57" s="250">
         <v>4</v>
       </c>
-      <c r="M57" s="203">
+      <c r="M57" s="250">
         <v>23</v>
       </c>
-      <c r="N57" s="221">
-        <v>0</v>
-      </c>
-      <c r="O57" s="222">
+      <c r="N57" s="250">
+        <v>0</v>
+      </c>
+      <c r="O57" s="253">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:18">
-      <c r="A58" s="211">
-        <v>3</v>
-      </c>
-      <c r="B58" s="203" t="s">
+      <c r="A58" s="249">
+        <v>3</v>
+      </c>
+      <c r="B58" s="250" t="s">
         <v>11</v>
       </c>
-      <c r="C58" s="203" t="s">
+      <c r="C58" s="250" t="s">
         <v>25</v>
       </c>
-      <c r="D58" s="203" t="s">
+      <c r="D58" s="250" t="s">
         <v>39</v>
       </c>
-      <c r="E58" s="212">
+      <c r="E58" s="251">
         <v>16</v>
       </c>
-      <c r="F58" s="203">
+      <c r="F58" s="250">
         <v>19</v>
       </c>
-      <c r="G58" s="202">
-        <v>0</v>
-      </c>
-      <c r="H58" s="203">
+      <c r="G58" s="252">
+        <v>0</v>
+      </c>
+      <c r="H58" s="250">
         <v>2.6795900000000001</v>
       </c>
-      <c r="I58" s="203">
+      <c r="I58" s="250">
         <v>23</v>
       </c>
-      <c r="J58" s="202">
-        <v>0</v>
-      </c>
-      <c r="K58" s="202">
-        <v>0</v>
-      </c>
-      <c r="L58" s="203">
+      <c r="J58" s="252">
+        <v>0</v>
+      </c>
+      <c r="K58" s="252">
+        <v>0</v>
+      </c>
+      <c r="L58" s="250">
         <v>4</v>
       </c>
-      <c r="M58" s="203">
+      <c r="M58" s="250">
         <v>23</v>
       </c>
-      <c r="N58" s="221">
-        <v>0</v>
-      </c>
-      <c r="O58" s="222">
+      <c r="N58" s="250">
+        <v>0</v>
+      </c>
+      <c r="O58" s="253">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:18">
-      <c r="A59" s="211">
+      <c r="A59" s="249">
         <v>4</v>
       </c>
-      <c r="B59" s="203" t="s">
+      <c r="B59" s="250" t="s">
         <v>11</v>
       </c>
-      <c r="C59" s="203" t="s">
+      <c r="C59" s="250" t="s">
         <v>25</v>
       </c>
-      <c r="D59" s="203" t="s">
+      <c r="D59" s="250" t="s">
         <v>39</v>
       </c>
-      <c r="E59" s="212">
+      <c r="E59" s="251">
         <v>16</v>
       </c>
-      <c r="F59" s="203">
+      <c r="F59" s="250">
         <v>19</v>
       </c>
-      <c r="G59" s="202">
-        <v>0</v>
-      </c>
-      <c r="H59" s="203">
+      <c r="G59" s="252">
+        <v>0</v>
+      </c>
+      <c r="H59" s="250">
         <v>2.75787</v>
       </c>
-      <c r="I59" s="203">
+      <c r="I59" s="250">
         <v>23</v>
       </c>
-      <c r="J59" s="202">
-        <v>0</v>
-      </c>
-      <c r="K59" s="202">
-        <v>0</v>
-      </c>
-      <c r="L59" s="203">
+      <c r="J59" s="252">
+        <v>0</v>
+      </c>
+      <c r="K59" s="252">
+        <v>0</v>
+      </c>
+      <c r="L59" s="250">
         <v>4</v>
       </c>
-      <c r="M59" s="203">
+      <c r="M59" s="250">
         <v>23</v>
       </c>
-      <c r="N59" s="221">
-        <v>0</v>
-      </c>
-      <c r="O59" s="222">
+      <c r="N59" s="250">
+        <v>0</v>
+      </c>
+      <c r="O59" s="253">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:18">
-      <c r="A60" s="211">
+      <c r="A60" s="249">
         <v>5</v>
       </c>
-      <c r="B60" s="203" t="s">
+      <c r="B60" s="250" t="s">
         <v>11</v>
       </c>
-      <c r="C60" s="203" t="s">
+      <c r="C60" s="250" t="s">
         <v>25</v>
       </c>
-      <c r="D60" s="203" t="s">
+      <c r="D60" s="250" t="s">
         <v>39</v>
       </c>
-      <c r="E60" s="212">
+      <c r="E60" s="251">
         <v>17</v>
       </c>
-      <c r="F60" s="203">
+      <c r="F60" s="250">
         <v>20</v>
       </c>
-      <c r="G60" s="202">
-        <v>0</v>
-      </c>
-      <c r="H60" s="203">
+      <c r="G60" s="252">
+        <v>0</v>
+      </c>
+      <c r="H60" s="250">
         <v>2.6013800000000002</v>
       </c>
-      <c r="I60" s="203">
+      <c r="I60" s="250">
         <v>23</v>
       </c>
-      <c r="J60" s="202">
-        <v>0</v>
-      </c>
-      <c r="K60" s="202">
-        <v>0</v>
-      </c>
-      <c r="L60" s="203">
-        <v>3</v>
-      </c>
-      <c r="M60" s="203">
+      <c r="J60" s="252">
+        <v>0</v>
+      </c>
+      <c r="K60" s="252">
+        <v>0</v>
+      </c>
+      <c r="L60" s="250">
+        <v>3</v>
+      </c>
+      <c r="M60" s="250">
         <v>23</v>
       </c>
-      <c r="N60" s="221">
-        <v>0</v>
-      </c>
-      <c r="O60" s="222">
+      <c r="N60" s="250">
+        <v>0</v>
+      </c>
+      <c r="O60" s="253">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -4972,145 +5000,145 @@
       </c>
     </row>
     <row r="71" spans="1:18">
-      <c r="A71" s="211">
+      <c r="A71" s="249">
         <v>4</v>
       </c>
-      <c r="B71" s="203" t="s">
+      <c r="B71" s="250" t="s">
         <v>12</v>
       </c>
-      <c r="C71" s="203" t="s">
+      <c r="C71" s="250" t="s">
         <v>25</v>
       </c>
-      <c r="D71" s="203" t="s">
+      <c r="D71" s="250" t="s">
         <v>39</v>
       </c>
-      <c r="E71" s="212">
+      <c r="E71" s="251">
         <v>18</v>
       </c>
-      <c r="F71" s="203">
+      <c r="F71" s="250">
         <v>21</v>
       </c>
-      <c r="G71" s="202">
-        <v>0</v>
-      </c>
-      <c r="H71" s="203">
+      <c r="G71" s="252">
+        <v>0</v>
+      </c>
+      <c r="H71" s="250">
         <v>3.25522</v>
       </c>
-      <c r="I71" s="203">
+      <c r="I71" s="250">
         <v>24</v>
       </c>
-      <c r="J71" s="202">
-        <v>0</v>
-      </c>
-      <c r="K71" s="202">
-        <v>0</v>
-      </c>
-      <c r="L71" s="203">
-        <v>3</v>
-      </c>
-      <c r="M71" s="203">
+      <c r="J71" s="252">
+        <v>0</v>
+      </c>
+      <c r="K71" s="252">
+        <v>0</v>
+      </c>
+      <c r="L71" s="250">
+        <v>3</v>
+      </c>
+      <c r="M71" s="250">
         <v>24</v>
       </c>
-      <c r="N71" s="221">
-        <v>0</v>
-      </c>
-      <c r="O71" s="222">
+      <c r="N71" s="250">
+        <v>0</v>
+      </c>
+      <c r="O71" s="253">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:18">
-      <c r="A72" s="211">
+      <c r="A72" s="249">
         <v>5</v>
       </c>
-      <c r="B72" s="203" t="s">
+      <c r="B72" s="250" t="s">
         <v>12</v>
       </c>
-      <c r="C72" s="203" t="s">
+      <c r="C72" s="250" t="s">
         <v>25</v>
       </c>
-      <c r="D72" s="203" t="s">
+      <c r="D72" s="250" t="s">
         <v>39</v>
       </c>
-      <c r="E72" s="212">
+      <c r="E72" s="251">
         <v>18</v>
       </c>
-      <c r="F72" s="203">
+      <c r="F72" s="250">
         <v>21</v>
       </c>
-      <c r="G72" s="202">
-        <v>0</v>
-      </c>
-      <c r="H72" s="203">
+      <c r="G72" s="252">
+        <v>0</v>
+      </c>
+      <c r="H72" s="250">
         <v>2.8711899999999999</v>
       </c>
-      <c r="I72" s="203">
+      <c r="I72" s="250">
         <v>23</v>
       </c>
-      <c r="J72" s="202">
-        <v>0</v>
-      </c>
-      <c r="K72" s="202">
-        <v>0</v>
-      </c>
-      <c r="L72" s="203">
+      <c r="J72" s="252">
+        <v>0</v>
+      </c>
+      <c r="K72" s="252">
+        <v>0</v>
+      </c>
+      <c r="L72" s="250">
         <v>2</v>
       </c>
-      <c r="M72" s="203">
+      <c r="M72" s="250">
         <v>24</v>
       </c>
-      <c r="N72" s="221">
-        <v>0</v>
-      </c>
-      <c r="O72" s="222">
+      <c r="N72" s="250">
+        <v>0</v>
+      </c>
+      <c r="O72" s="253">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:18">
-      <c r="A73" s="211">
+      <c r="A73" s="249">
         <v>6</v>
       </c>
-      <c r="B73" s="203" t="s">
+      <c r="B73" s="250" t="s">
         <v>12</v>
       </c>
-      <c r="C73" s="203" t="s">
+      <c r="C73" s="250" t="s">
         <v>25</v>
       </c>
-      <c r="D73" s="203" t="s">
+      <c r="D73" s="250" t="s">
         <v>39</v>
       </c>
-      <c r="E73" s="212">
+      <c r="E73" s="251">
         <v>18</v>
       </c>
-      <c r="F73" s="203">
+      <c r="F73" s="250">
         <v>21</v>
       </c>
-      <c r="G73" s="202">
-        <v>0</v>
-      </c>
-      <c r="H73" s="203">
+      <c r="G73" s="252">
+        <v>0</v>
+      </c>
+      <c r="H73" s="250">
         <v>2.6543000000000001</v>
       </c>
-      <c r="I73" s="203">
+      <c r="I73" s="250">
         <v>24</v>
       </c>
-      <c r="J73" s="202">
-        <v>0</v>
-      </c>
-      <c r="K73" s="202">
-        <v>0</v>
-      </c>
-      <c r="L73" s="203">
-        <v>3</v>
-      </c>
-      <c r="M73" s="203">
+      <c r="J73" s="252">
+        <v>0</v>
+      </c>
+      <c r="K73" s="252">
+        <v>0</v>
+      </c>
+      <c r="L73" s="250">
+        <v>3</v>
+      </c>
+      <c r="M73" s="250">
         <v>24</v>
       </c>
-      <c r="N73" s="221">
-        <v>0</v>
-      </c>
-      <c r="O73" s="222">
+      <c r="N73" s="250">
+        <v>0</v>
+      </c>
+      <c r="O73" s="253">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -5392,49 +5420,49 @@
       <c r="R79" s="206"/>
     </row>
     <row r="80" spans="1:18">
-      <c r="A80" s="211">
+      <c r="A80" s="249">
         <v>1</v>
       </c>
-      <c r="B80" s="203" t="s">
+      <c r="B80" s="250" t="s">
         <v>13</v>
       </c>
-      <c r="C80" s="203" t="s">
+      <c r="C80" s="250" t="s">
         <v>25</v>
       </c>
-      <c r="D80" s="203" t="s">
+      <c r="D80" s="250" t="s">
         <v>39</v>
       </c>
-      <c r="E80" s="212">
+      <c r="E80" s="251">
         <v>15</v>
       </c>
-      <c r="F80" s="203">
+      <c r="F80" s="250">
         <v>18</v>
       </c>
-      <c r="G80" s="202">
+      <c r="G80" s="252">
         <v>5</v>
       </c>
-      <c r="H80" s="203">
+      <c r="H80" s="250">
         <v>2.7825199999999999</v>
       </c>
-      <c r="I80" s="203">
+      <c r="I80" s="250">
         <v>21</v>
       </c>
-      <c r="J80" s="202">
-        <v>0</v>
-      </c>
-      <c r="K80" s="202">
+      <c r="J80" s="252">
+        <v>0</v>
+      </c>
+      <c r="K80" s="252">
         <v>5</v>
       </c>
-      <c r="L80" s="203">
-        <v>3</v>
-      </c>
-      <c r="M80" s="209">
+      <c r="L80" s="250">
+        <v>3</v>
+      </c>
+      <c r="M80" s="252">
         <v>21</v>
       </c>
-      <c r="N80" s="209">
-        <v>0</v>
-      </c>
-      <c r="O80" s="222">
+      <c r="N80" s="252">
+        <v>0</v>
+      </c>
+      <c r="O80" s="253">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -5912,273 +5940,273 @@
       <c r="S91" s="206"/>
     </row>
     <row r="92" spans="1:19">
-      <c r="A92" s="211">
+      <c r="A92" s="249">
         <v>1</v>
       </c>
-      <c r="B92" s="203" t="s">
+      <c r="B92" s="250" t="s">
         <v>14</v>
       </c>
-      <c r="C92" s="203" t="s">
+      <c r="C92" s="250" t="s">
         <v>24</v>
       </c>
-      <c r="D92" s="203" t="s">
+      <c r="D92" s="250" t="s">
         <v>39</v>
       </c>
-      <c r="E92" s="212">
+      <c r="E92" s="251">
         <v>10</v>
       </c>
-      <c r="F92" s="203">
+      <c r="F92" s="250">
         <v>13</v>
       </c>
-      <c r="G92" s="202">
+      <c r="G92" s="252">
         <v>8</v>
       </c>
-      <c r="H92" s="203">
+      <c r="H92" s="250">
         <v>3.2398899999999999</v>
       </c>
-      <c r="I92" s="203">
+      <c r="I92" s="250">
         <v>19</v>
       </c>
-      <c r="J92" s="202">
-        <v>0</v>
-      </c>
-      <c r="K92" s="202">
-        <v>0</v>
-      </c>
-      <c r="L92" s="203">
+      <c r="J92" s="252">
+        <v>0</v>
+      </c>
+      <c r="K92" s="252">
+        <v>0</v>
+      </c>
+      <c r="L92" s="250">
         <v>6</v>
       </c>
-      <c r="M92" s="209">
+      <c r="M92" s="252">
         <v>20</v>
       </c>
-      <c r="N92" s="209">
-        <v>0</v>
-      </c>
-      <c r="O92" s="222">
+      <c r="N92" s="252">
+        <v>0</v>
+      </c>
+      <c r="O92" s="253">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:19">
-      <c r="A93" s="211">
+      <c r="A93" s="249">
         <v>2</v>
       </c>
-      <c r="B93" s="203" t="s">
+      <c r="B93" s="250" t="s">
         <v>14</v>
       </c>
-      <c r="C93" s="203" t="s">
+      <c r="C93" s="250" t="s">
         <v>24</v>
       </c>
-      <c r="D93" s="203" t="s">
+      <c r="D93" s="250" t="s">
         <v>39</v>
       </c>
-      <c r="E93" s="212"/>
-      <c r="F93" s="203"/>
-      <c r="G93" s="202"/>
-      <c r="H93" s="203"/>
-      <c r="I93" s="203"/>
-      <c r="J93" s="202"/>
-      <c r="K93" s="202"/>
-      <c r="L93" s="203"/>
-      <c r="M93" s="209">
+      <c r="E93" s="251"/>
+      <c r="F93" s="250"/>
+      <c r="G93" s="252"/>
+      <c r="H93" s="250"/>
+      <c r="I93" s="250"/>
+      <c r="J93" s="252"/>
+      <c r="K93" s="252"/>
+      <c r="L93" s="250"/>
+      <c r="M93" s="252">
         <v>8</v>
       </c>
-      <c r="N93" s="209">
+      <c r="N93" s="252">
         <v>1</v>
       </c>
-      <c r="O93" s="222">
+      <c r="O93" s="253">
         <f t="shared" si="5"/>
         <v>0.125</v>
       </c>
     </row>
     <row r="94" spans="1:19">
-      <c r="A94" s="211">
-        <v>3</v>
-      </c>
-      <c r="B94" s="203" t="s">
+      <c r="A94" s="249">
+        <v>3</v>
+      </c>
+      <c r="B94" s="250" t="s">
         <v>14</v>
       </c>
-      <c r="C94" s="203" t="s">
+      <c r="C94" s="250" t="s">
         <v>24</v>
       </c>
-      <c r="D94" s="203" t="s">
+      <c r="D94" s="250" t="s">
         <v>39</v>
       </c>
-      <c r="E94" s="212">
+      <c r="E94" s="251">
         <v>12</v>
       </c>
-      <c r="F94" s="203">
+      <c r="F94" s="250">
         <v>15</v>
       </c>
-      <c r="G94" s="202">
-        <v>0</v>
-      </c>
-      <c r="H94" s="203">
+      <c r="G94" s="252">
+        <v>0</v>
+      </c>
+      <c r="H94" s="250">
         <v>2.8700199999999998</v>
       </c>
-      <c r="I94" s="203">
+      <c r="I94" s="250">
         <v>19</v>
       </c>
-      <c r="J94" s="202">
-        <v>0</v>
-      </c>
-      <c r="K94" s="202">
-        <v>0</v>
-      </c>
-      <c r="L94" s="203">
+      <c r="J94" s="252">
+        <v>0</v>
+      </c>
+      <c r="K94" s="252">
+        <v>0</v>
+      </c>
+      <c r="L94" s="250">
         <v>4</v>
       </c>
-      <c r="M94" s="209">
+      <c r="M94" s="252">
         <v>20</v>
       </c>
-      <c r="N94" s="209">
-        <v>0</v>
-      </c>
-      <c r="O94" s="222">
+      <c r="N94" s="252">
+        <v>0</v>
+      </c>
+      <c r="O94" s="253">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:19">
-      <c r="A95" s="211">
+      <c r="A95" s="249">
         <v>4</v>
       </c>
-      <c r="B95" s="203" t="s">
+      <c r="B95" s="250" t="s">
         <v>14</v>
       </c>
-      <c r="C95" s="203" t="s">
+      <c r="C95" s="250" t="s">
         <v>24</v>
       </c>
-      <c r="D95" s="203" t="s">
+      <c r="D95" s="250" t="s">
         <v>39</v>
       </c>
-      <c r="E95" s="212">
+      <c r="E95" s="251">
         <v>13</v>
       </c>
-      <c r="F95" s="203">
+      <c r="F95" s="250">
         <v>17</v>
       </c>
-      <c r="G95" s="202">
-        <v>0</v>
-      </c>
-      <c r="H95" s="203">
+      <c r="G95" s="252">
+        <v>0</v>
+      </c>
+      <c r="H95" s="250">
         <v>2.8383600000000002</v>
       </c>
-      <c r="I95" s="203">
+      <c r="I95" s="250">
         <v>20</v>
       </c>
-      <c r="J95" s="202">
-        <v>0</v>
-      </c>
-      <c r="K95" s="202">
-        <v>0</v>
-      </c>
-      <c r="L95" s="203">
-        <v>3</v>
-      </c>
-      <c r="M95" s="209">
+      <c r="J95" s="252">
+        <v>0</v>
+      </c>
+      <c r="K95" s="252">
+        <v>0</v>
+      </c>
+      <c r="L95" s="250">
+        <v>3</v>
+      </c>
+      <c r="M95" s="252">
         <v>20</v>
       </c>
-      <c r="N95" s="209">
-        <v>0</v>
-      </c>
-      <c r="O95" s="222">
+      <c r="N95" s="252">
+        <v>0</v>
+      </c>
+      <c r="O95" s="253">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:19">
-      <c r="A96" s="211">
+      <c r="A96" s="249">
         <v>5</v>
       </c>
-      <c r="B96" s="203" t="s">
+      <c r="B96" s="250" t="s">
         <v>14</v>
       </c>
-      <c r="C96" s="203" t="s">
+      <c r="C96" s="250" t="s">
         <v>24</v>
       </c>
-      <c r="D96" s="203" t="s">
+      <c r="D96" s="250" t="s">
         <v>39</v>
       </c>
-      <c r="E96" s="212">
+      <c r="E96" s="251">
         <v>10</v>
       </c>
-      <c r="F96" s="203">
+      <c r="F96" s="250">
         <v>13</v>
       </c>
-      <c r="G96" s="202">
+      <c r="G96" s="252">
         <v>5</v>
       </c>
-      <c r="H96" s="203">
+      <c r="H96" s="250">
         <v>3.1300599999999998</v>
       </c>
-      <c r="I96" s="203">
+      <c r="I96" s="250">
         <v>19</v>
       </c>
-      <c r="J96" s="202">
-        <v>0</v>
-      </c>
-      <c r="K96" s="202">
-        <v>0</v>
-      </c>
-      <c r="L96" s="203">
+      <c r="J96" s="252">
+        <v>0</v>
+      </c>
+      <c r="K96" s="252">
+        <v>0</v>
+      </c>
+      <c r="L96" s="250">
         <v>6</v>
       </c>
-      <c r="M96" s="209">
+      <c r="M96" s="252">
         <v>20</v>
       </c>
-      <c r="N96" s="209">
-        <v>0</v>
-      </c>
-      <c r="O96" s="222">
+      <c r="N96" s="252">
+        <v>0</v>
+      </c>
+      <c r="O96" s="253">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:19">
-      <c r="A97" s="211">
+      <c r="A97" s="249">
         <v>6</v>
       </c>
-      <c r="B97" s="203" t="s">
+      <c r="B97" s="250" t="s">
         <v>14</v>
       </c>
-      <c r="C97" s="203" t="s">
+      <c r="C97" s="250" t="s">
         <v>24</v>
       </c>
-      <c r="D97" s="203" t="s">
+      <c r="D97" s="250" t="s">
         <v>39</v>
       </c>
-      <c r="E97" s="212">
+      <c r="E97" s="251">
         <v>13</v>
       </c>
-      <c r="F97" s="203">
+      <c r="F97" s="250">
         <v>16</v>
       </c>
-      <c r="G97" s="202">
-        <v>0</v>
-      </c>
-      <c r="H97" s="203">
+      <c r="G97" s="252">
+        <v>0</v>
+      </c>
+      <c r="H97" s="250">
         <v>3.1825600000000001</v>
       </c>
-      <c r="I97" s="203">
+      <c r="I97" s="250">
         <v>20</v>
       </c>
-      <c r="J97" s="202">
-        <v>0</v>
-      </c>
-      <c r="K97" s="202">
-        <v>0</v>
-      </c>
-      <c r="L97" s="203">
+      <c r="J97" s="252">
+        <v>0</v>
+      </c>
+      <c r="K97" s="252">
+        <v>0</v>
+      </c>
+      <c r="L97" s="250">
         <v>4</v>
       </c>
-      <c r="M97" s="209">
+      <c r="M97" s="252">
         <v>20</v>
       </c>
-      <c r="N97" s="209">
-        <v>0</v>
-      </c>
-      <c r="O97" s="222">
+      <c r="N97" s="252">
+        <v>0</v>
+      </c>
+      <c r="O97" s="253">
         <f t="shared" ref="O97:O157" si="6">IF(N97=0, 0, 1/M97)</f>
         <v>0</v>
       </c>
@@ -6496,97 +6524,97 @@
       <c r="S103" s="206"/>
     </row>
     <row r="104" spans="1:19">
-      <c r="A104" s="211">
+      <c r="A104" s="249">
         <v>1</v>
       </c>
-      <c r="B104" s="203" t="s">
+      <c r="B104" s="250" t="s">
         <v>15</v>
       </c>
-      <c r="C104" s="203" t="s">
+      <c r="C104" s="250" t="s">
         <v>24</v>
       </c>
-      <c r="D104" s="203" t="s">
+      <c r="D104" s="250" t="s">
         <v>39</v>
       </c>
-      <c r="E104" s="212">
+      <c r="E104" s="251">
         <v>17</v>
       </c>
-      <c r="F104" s="203">
+      <c r="F104" s="250">
         <v>19</v>
       </c>
-      <c r="G104" s="202">
-        <v>0</v>
-      </c>
-      <c r="H104" s="203">
+      <c r="G104" s="252">
+        <v>0</v>
+      </c>
+      <c r="H104" s="250">
         <v>2.15612</v>
       </c>
-      <c r="I104" s="203">
+      <c r="I104" s="250">
         <v>24</v>
       </c>
-      <c r="J104" s="202">
-        <v>0</v>
-      </c>
-      <c r="K104" s="202">
-        <v>0</v>
-      </c>
-      <c r="L104" s="203">
+      <c r="J104" s="252">
+        <v>0</v>
+      </c>
+      <c r="K104" s="252">
+        <v>0</v>
+      </c>
+      <c r="L104" s="250">
         <v>5</v>
       </c>
-      <c r="M104" s="209">
+      <c r="M104" s="252">
         <v>25</v>
       </c>
-      <c r="N104" s="209">
-        <v>0</v>
-      </c>
-      <c r="O104" s="222">
+      <c r="N104" s="252">
+        <v>0</v>
+      </c>
+      <c r="O104" s="253">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:19">
-      <c r="A105" s="211">
+      <c r="A105" s="249">
         <v>2</v>
       </c>
-      <c r="B105" s="203" t="s">
+      <c r="B105" s="250" t="s">
         <v>15</v>
       </c>
-      <c r="C105" s="203" t="s">
+      <c r="C105" s="250" t="s">
         <v>24</v>
       </c>
-      <c r="D105" s="203" t="s">
+      <c r="D105" s="250" t="s">
         <v>39</v>
       </c>
-      <c r="E105" s="212">
+      <c r="E105" s="251">
         <v>15</v>
       </c>
-      <c r="F105" s="203">
+      <c r="F105" s="250">
         <v>18</v>
       </c>
-      <c r="G105" s="202">
+      <c r="G105" s="252">
         <v>4</v>
       </c>
-      <c r="H105" s="203">
+      <c r="H105" s="250">
         <v>2.37175</v>
       </c>
-      <c r="I105" s="203">
+      <c r="I105" s="250">
         <v>24</v>
       </c>
-      <c r="J105" s="202">
-        <v>0</v>
-      </c>
-      <c r="K105" s="202">
+      <c r="J105" s="252">
+        <v>0</v>
+      </c>
+      <c r="K105" s="252">
         <v>4</v>
       </c>
-      <c r="L105" s="203">
+      <c r="L105" s="250">
         <v>6</v>
       </c>
-      <c r="M105" s="209">
+      <c r="M105" s="252">
         <v>25</v>
       </c>
-      <c r="N105" s="209">
-        <v>0</v>
-      </c>
-      <c r="O105" s="222">
+      <c r="N105" s="252">
+        <v>0</v>
+      </c>
+      <c r="O105" s="253">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
@@ -6688,49 +6716,49 @@
       </c>
     </row>
     <row r="109" spans="1:19">
-      <c r="A109" s="211">
+      <c r="A109" s="249">
         <v>6</v>
       </c>
-      <c r="B109" s="203" t="s">
+      <c r="B109" s="250" t="s">
         <v>15</v>
       </c>
-      <c r="C109" s="203" t="s">
+      <c r="C109" s="250" t="s">
         <v>24</v>
       </c>
-      <c r="D109" s="203" t="s">
+      <c r="D109" s="250" t="s">
         <v>39</v>
       </c>
-      <c r="E109" s="212">
+      <c r="E109" s="251">
         <v>17</v>
       </c>
-      <c r="F109" s="203">
+      <c r="F109" s="250">
         <v>19</v>
       </c>
-      <c r="G109" s="202">
-        <v>0</v>
-      </c>
-      <c r="H109" s="203">
+      <c r="G109" s="252">
+        <v>0</v>
+      </c>
+      <c r="H109" s="250">
         <v>2.5436999999999999</v>
       </c>
-      <c r="I109" s="203">
+      <c r="I109" s="250">
         <v>25</v>
       </c>
-      <c r="J109" s="202">
-        <v>0</v>
-      </c>
-      <c r="K109" s="202">
-        <v>0</v>
-      </c>
-      <c r="L109" s="203">
+      <c r="J109" s="252">
+        <v>0</v>
+      </c>
+      <c r="K109" s="252">
+        <v>0</v>
+      </c>
+      <c r="L109" s="250">
         <v>6</v>
       </c>
-      <c r="M109" s="209">
+      <c r="M109" s="252">
         <v>25</v>
       </c>
-      <c r="N109" s="209">
-        <v>0</v>
-      </c>
-      <c r="O109" s="222">
+      <c r="N109" s="252">
+        <v>0</v>
+      </c>
+      <c r="O109" s="253">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
@@ -7128,145 +7156,145 @@
       </c>
     </row>
     <row r="119" spans="1:20">
-      <c r="A119" s="211">
+      <c r="A119" s="249">
         <v>4</v>
       </c>
-      <c r="B119" s="203" t="s">
+      <c r="B119" s="250" t="s">
         <v>16</v>
       </c>
-      <c r="C119" s="203" t="s">
+      <c r="C119" s="250" t="s">
         <v>24</v>
       </c>
-      <c r="D119" s="203" t="s">
+      <c r="D119" s="250" t="s">
         <v>39</v>
       </c>
-      <c r="E119" s="212">
+      <c r="E119" s="251">
         <v>14</v>
       </c>
-      <c r="F119" s="203">
+      <c r="F119" s="250">
         <v>17</v>
       </c>
-      <c r="G119" s="202">
+      <c r="G119" s="252">
         <v>5</v>
       </c>
-      <c r="H119" s="203">
+      <c r="H119" s="250">
         <v>2.8538699999999997</v>
       </c>
-      <c r="I119" s="203">
+      <c r="I119" s="250">
         <v>24</v>
       </c>
-      <c r="J119" s="202">
-        <v>0</v>
-      </c>
-      <c r="K119" s="202">
+      <c r="J119" s="252">
+        <v>0</v>
+      </c>
+      <c r="K119" s="252">
         <v>5</v>
       </c>
-      <c r="L119" s="203">
+      <c r="L119" s="250">
         <v>7</v>
       </c>
-      <c r="M119" s="209">
+      <c r="M119" s="252">
         <v>24</v>
       </c>
-      <c r="N119" s="209">
-        <v>0</v>
-      </c>
-      <c r="O119" s="222">
+      <c r="N119" s="252">
+        <v>0</v>
+      </c>
+      <c r="O119" s="253">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:20">
-      <c r="A120" s="211">
+      <c r="A120" s="249">
         <v>5</v>
       </c>
-      <c r="B120" s="203" t="s">
+      <c r="B120" s="250" t="s">
         <v>16</v>
       </c>
-      <c r="C120" s="203" t="s">
+      <c r="C120" s="250" t="s">
         <v>24</v>
       </c>
-      <c r="D120" s="203" t="s">
+      <c r="D120" s="250" t="s">
         <v>39</v>
       </c>
-      <c r="E120" s="212">
+      <c r="E120" s="251">
         <v>15</v>
       </c>
-      <c r="F120" s="203">
+      <c r="F120" s="250">
         <v>18</v>
       </c>
-      <c r="G120" s="202">
+      <c r="G120" s="252">
         <v>5</v>
       </c>
-      <c r="H120" s="203">
+      <c r="H120" s="250">
         <v>2.5787100000000001</v>
       </c>
-      <c r="I120" s="203">
+      <c r="I120" s="250">
         <v>24</v>
       </c>
-      <c r="J120" s="202">
-        <v>0</v>
-      </c>
-      <c r="K120" s="202">
+      <c r="J120" s="252">
+        <v>0</v>
+      </c>
+      <c r="K120" s="252">
         <v>5</v>
       </c>
-      <c r="L120" s="203">
+      <c r="L120" s="250">
         <v>6</v>
       </c>
-      <c r="M120" s="209">
+      <c r="M120" s="252">
         <v>24</v>
       </c>
-      <c r="N120" s="209">
-        <v>0</v>
-      </c>
-      <c r="O120" s="222">
+      <c r="N120" s="252">
+        <v>0</v>
+      </c>
+      <c r="O120" s="253">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:20">
-      <c r="A121" s="211">
+      <c r="A121" s="249">
         <v>6</v>
       </c>
-      <c r="B121" s="203" t="s">
+      <c r="B121" s="250" t="s">
         <v>16</v>
       </c>
-      <c r="C121" s="203" t="s">
+      <c r="C121" s="250" t="s">
         <v>24</v>
       </c>
-      <c r="D121" s="203" t="s">
+      <c r="D121" s="250" t="s">
         <v>39</v>
       </c>
-      <c r="E121" s="212">
+      <c r="E121" s="251">
         <v>15</v>
       </c>
-      <c r="F121" s="203">
+      <c r="F121" s="250">
         <v>18</v>
       </c>
-      <c r="G121" s="202">
+      <c r="G121" s="252">
         <v>4</v>
       </c>
-      <c r="H121" s="203">
+      <c r="H121" s="250">
         <v>2.6916199999999999</v>
       </c>
-      <c r="I121" s="203">
+      <c r="I121" s="250">
         <v>24</v>
       </c>
-      <c r="J121" s="202">
-        <v>0</v>
-      </c>
-      <c r="K121" s="202">
+      <c r="J121" s="252">
+        <v>0</v>
+      </c>
+      <c r="K121" s="252">
         <v>4</v>
       </c>
-      <c r="L121" s="203">
+      <c r="L121" s="250">
         <v>6</v>
       </c>
-      <c r="M121" s="209">
+      <c r="M121" s="252">
         <v>24</v>
       </c>
-      <c r="N121" s="209">
-        <v>0</v>
-      </c>
-      <c r="O121" s="222">
+      <c r="N121" s="252">
+        <v>0</v>
+      </c>
+      <c r="O121" s="253">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
@@ -7575,47 +7603,47 @@
       <c r="P128" s="206"/>
     </row>
     <row r="129" spans="1:20">
-      <c r="A129" s="211">
+      <c r="A129" s="249">
         <v>2</v>
       </c>
-      <c r="B129" s="203" t="s">
+      <c r="B129" s="250" t="s">
         <v>17</v>
       </c>
-      <c r="C129" s="203" t="s">
+      <c r="C129" s="250" t="s">
         <v>49</v>
       </c>
-      <c r="D129" s="203" t="s">
+      <c r="D129" s="250" t="s">
         <v>39</v>
       </c>
-      <c r="E129" s="212">
+      <c r="E129" s="251">
         <v>19</v>
       </c>
-      <c r="F129" s="203">
+      <c r="F129" s="250">
         <v>22</v>
       </c>
-      <c r="G129" s="202">
-        <v>0</v>
-      </c>
-      <c r="H129" s="203"/>
-      <c r="I129" s="203">
+      <c r="G129" s="252">
+        <v>0</v>
+      </c>
+      <c r="H129" s="250"/>
+      <c r="I129" s="250">
         <v>26</v>
       </c>
-      <c r="J129" s="202">
-        <v>0</v>
-      </c>
-      <c r="K129" s="202">
-        <v>0</v>
-      </c>
-      <c r="L129" s="203">
+      <c r="J129" s="252">
+        <v>0</v>
+      </c>
+      <c r="K129" s="252">
+        <v>0</v>
+      </c>
+      <c r="L129" s="250">
         <v>4</v>
       </c>
-      <c r="M129" s="209">
+      <c r="M129" s="252">
         <v>26</v>
       </c>
-      <c r="N129" s="209">
-        <v>0</v>
-      </c>
-      <c r="O129" s="222">
+      <c r="N129" s="252">
+        <v>0</v>
+      </c>
+      <c r="O129" s="253">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
@@ -7655,49 +7683,49 @@
       <c r="P130" s="206"/>
     </row>
     <row r="131" spans="1:20">
-      <c r="A131" s="211">
+      <c r="A131" s="249">
         <v>4</v>
       </c>
-      <c r="B131" s="203" t="s">
+      <c r="B131" s="250" t="s">
         <v>17</v>
       </c>
-      <c r="C131" s="203" t="s">
+      <c r="C131" s="250" t="s">
         <v>49</v>
       </c>
-      <c r="D131" s="203" t="s">
+      <c r="D131" s="250" t="s">
         <v>39</v>
       </c>
-      <c r="E131" s="212">
+      <c r="E131" s="251">
         <v>16</v>
       </c>
-      <c r="F131" s="203">
+      <c r="F131" s="250">
         <v>19</v>
       </c>
-      <c r="G131" s="202">
-        <v>0</v>
-      </c>
-      <c r="H131" s="203">
+      <c r="G131" s="252">
+        <v>0</v>
+      </c>
+      <c r="H131" s="250">
         <v>3.3693899999999997</v>
       </c>
-      <c r="I131" s="203">
+      <c r="I131" s="250">
         <v>24</v>
       </c>
-      <c r="J131" s="202">
-        <v>0</v>
-      </c>
-      <c r="K131" s="202">
-        <v>0</v>
-      </c>
-      <c r="L131" s="203">
+      <c r="J131" s="252">
+        <v>0</v>
+      </c>
+      <c r="K131" s="252">
+        <v>0</v>
+      </c>
+      <c r="L131" s="250">
         <v>5</v>
       </c>
-      <c r="M131" s="209">
+      <c r="M131" s="252">
         <v>26</v>
       </c>
-      <c r="N131" s="209">
-        <v>0</v>
-      </c>
-      <c r="O131" s="222">
+      <c r="N131" s="252">
+        <v>0</v>
+      </c>
+      <c r="O131" s="253">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
@@ -8105,49 +8133,49 @@
       <c r="P140" s="206"/>
     </row>
     <row r="141" spans="1:20">
-      <c r="A141" s="211">
+      <c r="A141" s="249">
         <v>2</v>
       </c>
-      <c r="B141" s="203" t="s">
+      <c r="B141" s="250" t="s">
         <v>18</v>
       </c>
-      <c r="C141" s="203" t="s">
+      <c r="C141" s="250" t="s">
         <v>49</v>
       </c>
-      <c r="D141" s="203" t="s">
+      <c r="D141" s="250" t="s">
         <v>39</v>
       </c>
-      <c r="E141" s="212">
+      <c r="E141" s="251">
         <v>13</v>
       </c>
-      <c r="F141" s="203">
+      <c r="F141" s="250">
         <v>17</v>
       </c>
-      <c r="G141" s="202">
-        <v>0</v>
-      </c>
-      <c r="H141" s="203">
+      <c r="G141" s="252">
+        <v>0</v>
+      </c>
+      <c r="H141" s="250">
         <v>2.6186599999999998</v>
       </c>
-      <c r="I141" s="203">
+      <c r="I141" s="250">
         <v>21</v>
       </c>
-      <c r="J141" s="202">
-        <v>0</v>
-      </c>
-      <c r="K141" s="202">
-        <v>0</v>
-      </c>
-      <c r="L141" s="203">
+      <c r="J141" s="252">
+        <v>0</v>
+      </c>
+      <c r="K141" s="252">
+        <v>0</v>
+      </c>
+      <c r="L141" s="250">
         <v>4</v>
       </c>
-      <c r="M141" s="209">
+      <c r="M141" s="252">
         <v>21</v>
       </c>
-      <c r="N141" s="209">
-        <v>0</v>
-      </c>
-      <c r="O141" s="222">
+      <c r="N141" s="252">
+        <v>0</v>
+      </c>
+      <c r="O141" s="253">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
@@ -8187,49 +8215,49 @@
       <c r="P142" s="206"/>
     </row>
     <row r="143" spans="1:20">
-      <c r="A143" s="211">
+      <c r="A143" s="249">
         <v>4</v>
       </c>
-      <c r="B143" s="203" t="s">
+      <c r="B143" s="250" t="s">
         <v>18</v>
       </c>
-      <c r="C143" s="203" t="s">
+      <c r="C143" s="250" t="s">
         <v>49</v>
       </c>
-      <c r="D143" s="203" t="s">
+      <c r="D143" s="250" t="s">
         <v>39</v>
       </c>
-      <c r="E143" s="212">
+      <c r="E143" s="251">
         <v>14</v>
       </c>
-      <c r="F143" s="203">
+      <c r="F143" s="250">
         <v>17</v>
       </c>
-      <c r="G143" s="202">
-        <v>0</v>
-      </c>
-      <c r="H143" s="203">
+      <c r="G143" s="252">
+        <v>0</v>
+      </c>
+      <c r="H143" s="250">
         <v>2.5307499999999998</v>
       </c>
-      <c r="I143" s="203">
+      <c r="I143" s="250">
         <v>21</v>
       </c>
-      <c r="J143" s="202">
-        <v>0</v>
-      </c>
-      <c r="K143" s="202">
-        <v>0</v>
-      </c>
-      <c r="L143" s="203">
+      <c r="J143" s="252">
+        <v>0</v>
+      </c>
+      <c r="K143" s="252">
+        <v>0</v>
+      </c>
+      <c r="L143" s="250">
         <v>4</v>
       </c>
-      <c r="M143" s="209">
+      <c r="M143" s="252">
         <v>21</v>
       </c>
-      <c r="N143" s="209">
-        <v>0</v>
-      </c>
-      <c r="O143" s="222">
+      <c r="N143" s="252">
+        <v>0</v>
+      </c>
+      <c r="O143" s="253">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
@@ -8620,245 +8648,245 @@
       <c r="T151" s="206"/>
     </row>
     <row r="152" spans="1:20">
-      <c r="A152" s="211">
+      <c r="A152" s="249">
         <v>1</v>
       </c>
-      <c r="B152" s="203" t="s">
+      <c r="B152" s="250" t="s">
         <v>19</v>
       </c>
-      <c r="C152" s="203" t="s">
+      <c r="C152" s="250" t="s">
         <v>49</v>
       </c>
-      <c r="D152" s="203" t="s">
+      <c r="D152" s="250" t="s">
         <v>39</v>
       </c>
-      <c r="E152" s="212">
+      <c r="E152" s="251">
         <v>15</v>
       </c>
-      <c r="F152" s="203">
+      <c r="F152" s="250">
         <v>18</v>
       </c>
-      <c r="G152" s="202">
+      <c r="G152" s="252">
         <v>19</v>
       </c>
-      <c r="H152" s="203">
+      <c r="H152" s="250">
         <v>3.7448299999999999</v>
       </c>
-      <c r="I152" s="203">
+      <c r="I152" s="250">
         <v>24</v>
       </c>
-      <c r="J152" s="202">
-        <v>0</v>
-      </c>
-      <c r="K152" s="202">
+      <c r="J152" s="252">
+        <v>0</v>
+      </c>
+      <c r="K152" s="252">
         <v>19</v>
       </c>
-      <c r="L152" s="203">
+      <c r="L152" s="250">
         <v>6</v>
       </c>
-      <c r="M152" s="209">
+      <c r="M152" s="252">
         <v>24</v>
       </c>
-      <c r="N152" s="209">
-        <v>0</v>
-      </c>
-      <c r="O152" s="222">
+      <c r="N152" s="252">
+        <v>0</v>
+      </c>
+      <c r="O152" s="253">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="P152" s="206"/>
     </row>
     <row r="153" spans="1:20">
-      <c r="A153" s="211">
+      <c r="A153" s="249">
         <v>2</v>
       </c>
-      <c r="B153" s="203" t="s">
+      <c r="B153" s="250" t="s">
         <v>19</v>
       </c>
-      <c r="C153" s="203" t="s">
+      <c r="C153" s="250" t="s">
         <v>49</v>
       </c>
-      <c r="D153" s="203" t="s">
+      <c r="D153" s="250" t="s">
         <v>39</v>
       </c>
-      <c r="E153" s="212">
+      <c r="E153" s="251">
         <v>15</v>
       </c>
-      <c r="F153" s="203">
+      <c r="F153" s="250">
         <v>19</v>
       </c>
-      <c r="G153" s="202">
-        <v>0</v>
-      </c>
-      <c r="H153" s="203">
+      <c r="G153" s="252">
+        <v>0</v>
+      </c>
+      <c r="H153" s="250">
         <v>3.5450500000000003</v>
       </c>
-      <c r="I153" s="203">
+      <c r="I153" s="250">
         <v>23</v>
       </c>
-      <c r="J153" s="202">
-        <v>0</v>
-      </c>
-      <c r="K153" s="202">
-        <v>0</v>
-      </c>
-      <c r="L153" s="203">
+      <c r="J153" s="252">
+        <v>0</v>
+      </c>
+      <c r="K153" s="252">
+        <v>0</v>
+      </c>
+      <c r="L153" s="250">
         <v>4</v>
       </c>
-      <c r="M153" s="209">
+      <c r="M153" s="252">
         <v>24</v>
       </c>
-      <c r="N153" s="209">
-        <v>0</v>
-      </c>
-      <c r="O153" s="222">
+      <c r="N153" s="252">
+        <v>0</v>
+      </c>
+      <c r="O153" s="253">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="P153" s="206"/>
     </row>
     <row r="154" spans="1:20">
-      <c r="A154" s="211">
-        <v>3</v>
-      </c>
-      <c r="B154" s="203" t="s">
+      <c r="A154" s="249">
+        <v>3</v>
+      </c>
+      <c r="B154" s="250" t="s">
         <v>19</v>
       </c>
-      <c r="C154" s="203" t="s">
+      <c r="C154" s="250" t="s">
         <v>49</v>
       </c>
-      <c r="D154" s="203" t="s">
+      <c r="D154" s="250" t="s">
         <v>39</v>
       </c>
-      <c r="E154" s="212">
+      <c r="E154" s="251">
         <v>15</v>
       </c>
-      <c r="F154" s="203">
+      <c r="F154" s="250">
         <v>18</v>
       </c>
-      <c r="G154" s="202">
-        <v>0</v>
-      </c>
-      <c r="H154" s="203">
+      <c r="G154" s="252">
+        <v>0</v>
+      </c>
+      <c r="H154" s="250">
         <v>3.4198300000000001</v>
       </c>
-      <c r="I154" s="203">
+      <c r="I154" s="250">
         <v>24</v>
       </c>
-      <c r="J154" s="202">
-        <v>0</v>
-      </c>
-      <c r="K154" s="202">
-        <v>0</v>
-      </c>
-      <c r="L154" s="203">
+      <c r="J154" s="252">
+        <v>0</v>
+      </c>
+      <c r="K154" s="252">
+        <v>0</v>
+      </c>
+      <c r="L154" s="250">
         <v>6</v>
       </c>
-      <c r="M154" s="209">
+      <c r="M154" s="252">
         <v>24</v>
       </c>
-      <c r="N154" s="209">
-        <v>0</v>
-      </c>
-      <c r="O154" s="222">
+      <c r="N154" s="252">
+        <v>0</v>
+      </c>
+      <c r="O154" s="253">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="P154" s="206"/>
     </row>
     <row r="155" spans="1:20">
-      <c r="A155" s="211">
+      <c r="A155" s="249">
         <v>4</v>
       </c>
-      <c r="B155" s="203" t="s">
+      <c r="B155" s="250" t="s">
         <v>19</v>
       </c>
-      <c r="C155" s="203" t="s">
+      <c r="C155" s="250" t="s">
         <v>49</v>
       </c>
-      <c r="D155" s="203" t="s">
+      <c r="D155" s="250" t="s">
         <v>39</v>
       </c>
-      <c r="E155" s="212">
+      <c r="E155" s="251">
         <v>15</v>
       </c>
-      <c r="F155" s="203">
+      <c r="F155" s="250">
         <v>18</v>
       </c>
-      <c r="G155" s="202">
-        <v>0</v>
-      </c>
-      <c r="H155" s="203">
+      <c r="G155" s="252">
+        <v>0</v>
+      </c>
+      <c r="H155" s="250">
         <v>3.58934</v>
       </c>
-      <c r="I155" s="203">
+      <c r="I155" s="250">
         <v>24</v>
       </c>
-      <c r="J155" s="202">
-        <v>0</v>
-      </c>
-      <c r="K155" s="202">
-        <v>0</v>
-      </c>
-      <c r="L155" s="203">
+      <c r="J155" s="252">
+        <v>0</v>
+      </c>
+      <c r="K155" s="252">
+        <v>0</v>
+      </c>
+      <c r="L155" s="250">
         <v>6</v>
       </c>
-      <c r="M155" s="209">
+      <c r="M155" s="252">
         <v>24</v>
       </c>
-      <c r="N155" s="209">
-        <v>0</v>
-      </c>
-      <c r="O155" s="222">
+      <c r="N155" s="252">
+        <v>0</v>
+      </c>
+      <c r="O155" s="253">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="P155" s="206"/>
     </row>
     <row r="156" spans="1:20">
-      <c r="A156" s="211">
+      <c r="A156" s="249">
         <v>5</v>
       </c>
-      <c r="B156" s="203" t="s">
+      <c r="B156" s="250" t="s">
         <v>19</v>
       </c>
-      <c r="C156" s="203" t="s">
+      <c r="C156" s="250" t="s">
         <v>49</v>
       </c>
-      <c r="D156" s="203" t="s">
+      <c r="D156" s="250" t="s">
         <v>39</v>
       </c>
-      <c r="E156" s="212">
+      <c r="E156" s="251">
         <v>15</v>
       </c>
-      <c r="F156" s="203">
+      <c r="F156" s="250">
         <v>18</v>
       </c>
-      <c r="G156" s="202">
+      <c r="G156" s="252">
         <v>23</v>
       </c>
-      <c r="H156" s="203">
+      <c r="H156" s="250">
         <v>3.7646700000000002</v>
       </c>
-      <c r="I156" s="203">
+      <c r="I156" s="250">
         <v>23</v>
       </c>
-      <c r="J156" s="202">
-        <v>0</v>
-      </c>
-      <c r="K156" s="202">
+      <c r="J156" s="252">
+        <v>0</v>
+      </c>
+      <c r="K156" s="252">
         <v>23</v>
       </c>
-      <c r="L156" s="203">
+      <c r="L156" s="250">
         <v>5</v>
       </c>
-      <c r="M156" s="209">
+      <c r="M156" s="252">
         <v>24</v>
       </c>
-      <c r="N156" s="209">
-        <v>0</v>
-      </c>
-      <c r="O156" s="222">
+      <c r="N156" s="252">
+        <v>0</v>
+      </c>
+      <c r="O156" s="253">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
@@ -9911,22 +9939,22 @@
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
-      <c r="AA1" s="247" t="s">
+      <c r="AA1" s="236" t="s">
         <v>34</v>
       </c>
-      <c r="AB1" s="247"/>
-      <c r="AC1" s="247"/>
-      <c r="AD1" s="247"/>
-      <c r="AE1" s="247"/>
-      <c r="AF1" s="247"/>
+      <c r="AB1" s="236"/>
+      <c r="AC1" s="236"/>
+      <c r="AD1" s="236"/>
+      <c r="AE1" s="236"/>
+      <c r="AF1" s="236"/>
     </row>
     <row r="2" spans="1:56" ht="15.75" thickBot="1">
-      <c r="AA2" s="247"/>
-      <c r="AB2" s="247"/>
-      <c r="AC2" s="247"/>
-      <c r="AD2" s="247"/>
-      <c r="AE2" s="247"/>
-      <c r="AF2" s="247"/>
+      <c r="AA2" s="236"/>
+      <c r="AB2" s="236"/>
+      <c r="AC2" s="236"/>
+      <c r="AD2" s="236"/>
+      <c r="AE2" s="236"/>
+      <c r="AF2" s="236"/>
     </row>
     <row r="3" spans="1:56" ht="15.75" thickBot="1">
       <c r="A3" s="1"/>
@@ -9957,29 +9985,29 @@
       <c r="X3" s="1"/>
       <c r="Y3" s="1"/>
       <c r="Z3" s="1"/>
-      <c r="AA3" s="248"/>
-      <c r="AB3" s="248"/>
-      <c r="AC3" s="248"/>
-      <c r="AD3" s="248"/>
-      <c r="AE3" s="248"/>
-      <c r="AF3" s="248"/>
-      <c r="AG3" s="236" t="s">
+      <c r="AA3" s="237"/>
+      <c r="AB3" s="237"/>
+      <c r="AC3" s="237"/>
+      <c r="AD3" s="237"/>
+      <c r="AE3" s="237"/>
+      <c r="AF3" s="237"/>
+      <c r="AG3" s="238" t="s">
         <v>31</v>
       </c>
-      <c r="AH3" s="236"/>
-      <c r="AI3" s="236"/>
-      <c r="AJ3" s="236"/>
-      <c r="AK3" s="236"/>
-      <c r="AL3" s="236"/>
+      <c r="AH3" s="238"/>
+      <c r="AI3" s="238"/>
+      <c r="AJ3" s="238"/>
+      <c r="AK3" s="238"/>
+      <c r="AL3" s="238"/>
       <c r="AM3" s="1"/>
-      <c r="AS3" s="236" t="s">
+      <c r="AS3" s="238" t="s">
         <v>28</v>
       </c>
-      <c r="AT3" s="236"/>
-      <c r="AU3" s="236"/>
-      <c r="AV3" s="236"/>
-      <c r="AW3" s="236"/>
-      <c r="AX3" s="236"/>
+      <c r="AT3" s="238"/>
+      <c r="AU3" s="238"/>
+      <c r="AV3" s="238"/>
+      <c r="AW3" s="238"/>
+      <c r="AX3" s="238"/>
     </row>
     <row r="4" spans="1:56" ht="15.75" thickBot="1">
       <c r="A4" s="4" t="s">
@@ -9988,78 +10016,78 @@
       <c r="B4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="229" t="s">
+      <c r="C4" s="233" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="230"/>
-      <c r="E4" s="230"/>
-      <c r="F4" s="230"/>
-      <c r="G4" s="230"/>
-      <c r="H4" s="231"/>
-      <c r="I4" s="237" t="s">
+      <c r="D4" s="234"/>
+      <c r="E4" s="234"/>
+      <c r="F4" s="234"/>
+      <c r="G4" s="234"/>
+      <c r="H4" s="246"/>
+      <c r="I4" s="240" t="s">
         <v>29</v>
       </c>
-      <c r="J4" s="238"/>
-      <c r="K4" s="238"/>
-      <c r="L4" s="238"/>
-      <c r="M4" s="238"/>
-      <c r="N4" s="239"/>
-      <c r="O4" s="240" t="s">
+      <c r="J4" s="241"/>
+      <c r="K4" s="241"/>
+      <c r="L4" s="241"/>
+      <c r="M4" s="241"/>
+      <c r="N4" s="242"/>
+      <c r="O4" s="243" t="s">
         <v>30</v>
       </c>
-      <c r="P4" s="241"/>
-      <c r="Q4" s="241"/>
-      <c r="R4" s="241"/>
-      <c r="S4" s="241"/>
-      <c r="T4" s="242"/>
-      <c r="U4" s="229" t="s">
+      <c r="P4" s="244"/>
+      <c r="Q4" s="244"/>
+      <c r="R4" s="244"/>
+      <c r="S4" s="244"/>
+      <c r="T4" s="245"/>
+      <c r="U4" s="233" t="s">
         <v>32</v>
       </c>
-      <c r="V4" s="230"/>
-      <c r="W4" s="230"/>
-      <c r="X4" s="230"/>
-      <c r="Y4" s="230"/>
-      <c r="Z4" s="232"/>
-      <c r="AA4" s="229" t="s">
+      <c r="V4" s="234"/>
+      <c r="W4" s="234"/>
+      <c r="X4" s="234"/>
+      <c r="Y4" s="234"/>
+      <c r="Z4" s="235"/>
+      <c r="AA4" s="233" t="s">
         <v>33</v>
       </c>
-      <c r="AB4" s="230"/>
-      <c r="AC4" s="230"/>
-      <c r="AD4" s="230"/>
-      <c r="AE4" s="230"/>
-      <c r="AF4" s="232"/>
-      <c r="AG4" s="229" t="s">
+      <c r="AB4" s="234"/>
+      <c r="AC4" s="234"/>
+      <c r="AD4" s="234"/>
+      <c r="AE4" s="234"/>
+      <c r="AF4" s="235"/>
+      <c r="AG4" s="233" t="s">
         <v>4</v>
       </c>
-      <c r="AH4" s="230"/>
-      <c r="AI4" s="230"/>
-      <c r="AJ4" s="230"/>
-      <c r="AK4" s="230"/>
-      <c r="AL4" s="232"/>
-      <c r="AM4" s="229" t="s">
+      <c r="AH4" s="234"/>
+      <c r="AI4" s="234"/>
+      <c r="AJ4" s="234"/>
+      <c r="AK4" s="234"/>
+      <c r="AL4" s="235"/>
+      <c r="AM4" s="233" t="s">
         <v>20</v>
       </c>
-      <c r="AN4" s="230"/>
-      <c r="AO4" s="230"/>
-      <c r="AP4" s="230"/>
-      <c r="AQ4" s="230"/>
-      <c r="AR4" s="232"/>
-      <c r="AS4" s="229" t="s">
+      <c r="AN4" s="234"/>
+      <c r="AO4" s="234"/>
+      <c r="AP4" s="234"/>
+      <c r="AQ4" s="234"/>
+      <c r="AR4" s="235"/>
+      <c r="AS4" s="233" t="s">
         <v>21</v>
       </c>
-      <c r="AT4" s="230"/>
-      <c r="AU4" s="230"/>
-      <c r="AV4" s="230"/>
-      <c r="AW4" s="230"/>
-      <c r="AX4" s="232"/>
-      <c r="AY4" s="243" t="s">
+      <c r="AT4" s="234"/>
+      <c r="AU4" s="234"/>
+      <c r="AV4" s="234"/>
+      <c r="AW4" s="234"/>
+      <c r="AX4" s="235"/>
+      <c r="AY4" s="229" t="s">
         <v>22</v>
       </c>
-      <c r="AZ4" s="244"/>
-      <c r="BA4" s="244"/>
-      <c r="BB4" s="244"/>
-      <c r="BC4" s="244"/>
-      <c r="BD4" s="245"/>
+      <c r="AZ4" s="230"/>
+      <c r="BA4" s="230"/>
+      <c r="BB4" s="230"/>
+      <c r="BC4" s="230"/>
+      <c r="BD4" s="231"/>
     </row>
     <row r="5" spans="1:56" ht="15.75" thickBot="1">
       <c r="A5" s="56" t="s">
@@ -13912,11 +13940,11 @@
       <c r="S35" s="1"/>
       <c r="T35" s="1"/>
       <c r="U35" s="1"/>
-      <c r="V35" s="246" t="s">
+      <c r="V35" s="232" t="s">
         <v>23</v>
       </c>
-      <c r="W35" s="246"/>
-      <c r="X35" s="246"/>
+      <c r="W35" s="232"/>
+      <c r="X35" s="232"/>
       <c r="Y35" s="1"/>
       <c r="Z35" s="1"/>
       <c r="AA35" s="146">
@@ -13958,11 +13986,11 @@
       <c r="S36" s="146">
         <v>2666.35</v>
       </c>
-      <c r="V36" s="233" t="s">
+      <c r="V36" s="247" t="s">
         <v>24</v>
       </c>
-      <c r="W36" s="233"/>
-      <c r="X36" s="233"/>
+      <c r="W36" s="247"/>
+      <c r="X36" s="247"/>
       <c r="AA36" s="146">
         <v>3898.2</v>
       </c>
@@ -13997,11 +14025,11 @@
         <v>3440.5</v>
       </c>
       <c r="S37" s="146"/>
-      <c r="V37" s="234" t="s">
+      <c r="V37" s="248" t="s">
         <v>25</v>
       </c>
-      <c r="W37" s="234"/>
-      <c r="X37" s="234"/>
+      <c r="W37" s="248"/>
+      <c r="X37" s="248"/>
       <c r="AA37" s="146">
         <v>3991.51</v>
       </c>
@@ -14032,11 +14060,11 @@
         <v>2860.36</v>
       </c>
       <c r="S38" s="146"/>
-      <c r="V38" s="235" t="s">
+      <c r="V38" s="239" t="s">
         <v>26</v>
       </c>
-      <c r="W38" s="235"/>
-      <c r="X38" s="235"/>
+      <c r="W38" s="239"/>
+      <c r="X38" s="239"/>
       <c r="AA38" s="146">
         <v>4084.56</v>
       </c>
@@ -14340,22 +14368,22 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="C4:H4"/>
+    <mergeCell ref="U4:Z4"/>
+    <mergeCell ref="AA4:AF4"/>
+    <mergeCell ref="V36:X36"/>
+    <mergeCell ref="V37:X37"/>
+    <mergeCell ref="V38:X38"/>
+    <mergeCell ref="AG4:AL4"/>
+    <mergeCell ref="AS3:AX3"/>
+    <mergeCell ref="I4:N4"/>
+    <mergeCell ref="O4:T4"/>
     <mergeCell ref="AY4:BD4"/>
     <mergeCell ref="V35:X35"/>
     <mergeCell ref="AM4:AR4"/>
     <mergeCell ref="AS4:AX4"/>
     <mergeCell ref="AA1:AF3"/>
     <mergeCell ref="AG3:AL3"/>
-    <mergeCell ref="V38:X38"/>
-    <mergeCell ref="AG4:AL4"/>
-    <mergeCell ref="AS3:AX3"/>
-    <mergeCell ref="I4:N4"/>
-    <mergeCell ref="O4:T4"/>
-    <mergeCell ref="C4:H4"/>
-    <mergeCell ref="U4:Z4"/>
-    <mergeCell ref="AA4:AF4"/>
-    <mergeCell ref="V36:X36"/>
-    <mergeCell ref="V37:X37"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -14365,8 +14393,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF9DD8EE-93D2-4E99-9056-F4DEE3C948BE}">
   <dimension ref="A1:I157"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A111" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+    <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
+      <selection activeCell="G164" sqref="G164"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -14590,12 +14618,8 @@
       <c r="F8" s="1">
         <v>2.4706300000000003</v>
       </c>
-      <c r="G8" s="228">
-        <v>0</v>
-      </c>
-      <c r="H8" s="1">
-        <v>3</v>
-      </c>
+      <c r="G8" s="228"/>
+      <c r="H8" s="1"/>
       <c r="I8" s="1"/>
     </row>
     <row r="9" spans="1:9">
@@ -14655,12 +14679,8 @@
       <c r="F11" s="1">
         <v>3.1534400000000002</v>
       </c>
-      <c r="G11" s="228">
-        <v>0</v>
-      </c>
-      <c r="H11" s="1">
-        <v>5</v>
-      </c>
+      <c r="G11" s="228"/>
+      <c r="H11" s="1"/>
       <c r="I11" s="1"/>
     </row>
     <row r="12" spans="1:9">
@@ -14682,12 +14702,8 @@
       <c r="F12" s="1">
         <v>2.66635</v>
       </c>
-      <c r="G12" s="228">
-        <v>0</v>
-      </c>
-      <c r="H12" s="1">
-        <v>4</v>
-      </c>
+      <c r="G12" s="228"/>
+      <c r="H12" s="1"/>
       <c r="I12" s="1"/>
     </row>
     <row r="13" spans="1:9">
@@ -14882,12 +14898,8 @@
       <c r="F20" s="1">
         <v>3.6478000000000002</v>
       </c>
-      <c r="G20" s="228">
-        <v>9</v>
-      </c>
-      <c r="H20" s="1">
-        <v>7</v>
-      </c>
+      <c r="G20" s="228"/>
+      <c r="H20" s="1"/>
       <c r="I20" s="1"/>
     </row>
     <row r="21" spans="1:9">
@@ -14909,12 +14921,8 @@
       <c r="F21" s="1">
         <v>3.6543099999999997</v>
       </c>
-      <c r="G21" s="228">
-        <v>0</v>
-      </c>
-      <c r="H21" s="1">
-        <v>6</v>
-      </c>
+      <c r="G21" s="228"/>
+      <c r="H21" s="1"/>
       <c r="I21" s="1"/>
     </row>
     <row r="22" spans="1:9">
@@ -14963,12 +14971,8 @@
       <c r="F23" s="1">
         <v>3.0021799999999996</v>
       </c>
-      <c r="G23" s="228">
-        <v>0</v>
-      </c>
-      <c r="H23" s="1">
-        <v>6</v>
-      </c>
+      <c r="G23" s="228"/>
+      <c r="H23" s="1"/>
       <c r="I23" s="1"/>
     </row>
     <row r="24" spans="1:9">
@@ -15217,12 +15221,8 @@
       <c r="F33" s="1">
         <v>1.5271700000000001</v>
       </c>
-      <c r="G33" s="228">
-        <v>0</v>
-      </c>
-      <c r="H33" s="1">
-        <v>5</v>
-      </c>
+      <c r="G33" s="228"/>
+      <c r="H33" s="1"/>
       <c r="I33" s="1"/>
     </row>
     <row r="34" spans="1:9">
@@ -15282,12 +15282,8 @@
       <c r="F36" s="1">
         <v>2.86036</v>
       </c>
-      <c r="G36" s="228">
-        <v>0</v>
-      </c>
-      <c r="H36" s="1">
-        <v>4</v>
-      </c>
+      <c r="G36" s="228"/>
+      <c r="H36" s="1"/>
       <c r="I36" s="1"/>
     </row>
     <row r="37" spans="1:9">
@@ -15750,12 +15746,8 @@
       <c r="F56" s="1">
         <v>2.5223899999999997</v>
       </c>
-      <c r="G56" s="228">
-        <v>0</v>
-      </c>
-      <c r="H56" s="1">
-        <v>3</v>
-      </c>
+      <c r="G56" s="228"/>
+      <c r="H56" s="1"/>
       <c r="I56" s="1"/>
     </row>
     <row r="57" spans="1:9">
@@ -15777,12 +15769,8 @@
       <c r="F57" s="1">
         <v>2.9872299999999998</v>
       </c>
-      <c r="G57" s="228">
-        <v>0</v>
-      </c>
-      <c r="H57" s="1">
-        <v>4</v>
-      </c>
+      <c r="G57" s="228"/>
+      <c r="H57" s="1"/>
       <c r="I57" s="1"/>
     </row>
     <row r="58" spans="1:9">
@@ -15804,12 +15792,8 @@
       <c r="F58" s="1">
         <v>2.6795900000000001</v>
       </c>
-      <c r="G58" s="228">
-        <v>0</v>
-      </c>
-      <c r="H58" s="1">
-        <v>4</v>
-      </c>
+      <c r="G58" s="228"/>
+      <c r="H58" s="1"/>
       <c r="I58" s="1"/>
     </row>
     <row r="59" spans="1:9">
@@ -15831,12 +15815,8 @@
       <c r="F59" s="1">
         <v>2.75787</v>
       </c>
-      <c r="G59" s="228">
-        <v>0</v>
-      </c>
-      <c r="H59" s="1">
-        <v>4</v>
-      </c>
+      <c r="G59" s="228"/>
+      <c r="H59" s="1"/>
       <c r="I59" s="1"/>
     </row>
     <row r="60" spans="1:9">
@@ -15858,12 +15838,8 @@
       <c r="F60" s="1">
         <v>2.6013800000000002</v>
       </c>
-      <c r="G60" s="228">
-        <v>0</v>
-      </c>
-      <c r="H60" s="1">
-        <v>3</v>
-      </c>
+      <c r="G60" s="228"/>
+      <c r="H60" s="1"/>
       <c r="I60" s="1"/>
     </row>
     <row r="61" spans="1:9">
@@ -16123,12 +16099,8 @@
       <c r="F71" s="1">
         <v>3.25522</v>
       </c>
-      <c r="G71" s="228">
-        <v>0</v>
-      </c>
-      <c r="H71" s="1">
-        <v>3</v>
-      </c>
+      <c r="G71" s="228"/>
+      <c r="H71" s="1"/>
       <c r="I71" s="1"/>
     </row>
     <row r="72" spans="1:9">
@@ -16150,12 +16122,8 @@
       <c r="F72" s="1">
         <v>2.8711899999999999</v>
       </c>
-      <c r="G72" s="228">
-        <v>0</v>
-      </c>
-      <c r="H72" s="1">
-        <v>2</v>
-      </c>
+      <c r="G72" s="228"/>
+      <c r="H72" s="1"/>
       <c r="I72" s="1"/>
     </row>
     <row r="73" spans="1:9">
@@ -16177,12 +16145,8 @@
       <c r="F73" s="1">
         <v>2.6543000000000001</v>
       </c>
-      <c r="G73" s="228">
-        <v>0</v>
-      </c>
-      <c r="H73" s="1">
-        <v>3</v>
-      </c>
+      <c r="G73" s="228"/>
+      <c r="H73" s="1"/>
       <c r="I73" s="1"/>
     </row>
     <row r="74" spans="1:9">
@@ -16636,12 +16600,8 @@
       <c r="F92" s="1">
         <v>3.2398899999999999</v>
       </c>
-      <c r="G92" s="228">
-        <v>0</v>
-      </c>
-      <c r="H92" s="1">
-        <v>6</v>
-      </c>
+      <c r="G92" s="228"/>
+      <c r="H92" s="1"/>
       <c r="I92" s="1"/>
     </row>
     <row r="93" spans="1:9">
@@ -16682,12 +16642,8 @@
       <c r="F94" s="1">
         <v>2.8700199999999998</v>
       </c>
-      <c r="G94" s="228">
-        <v>0</v>
-      </c>
-      <c r="H94" s="1">
-        <v>4</v>
-      </c>
+      <c r="G94" s="228"/>
+      <c r="H94" s="1"/>
       <c r="I94" s="1"/>
     </row>
     <row r="95" spans="1:9">
@@ -16709,12 +16665,8 @@
       <c r="F95" s="1">
         <v>2.8383600000000002</v>
       </c>
-      <c r="G95" s="228">
-        <v>0</v>
-      </c>
-      <c r="H95" s="1">
-        <v>3</v>
-      </c>
+      <c r="G95" s="228"/>
+      <c r="H95" s="1"/>
       <c r="I95" s="1"/>
     </row>
     <row r="96" spans="1:9">
@@ -16736,12 +16688,8 @@
       <c r="F96" s="1">
         <v>3.1300599999999998</v>
       </c>
-      <c r="G96" s="228">
-        <v>0</v>
-      </c>
-      <c r="H96" s="1">
-        <v>6</v>
-      </c>
+      <c r="G96" s="228"/>
+      <c r="H96" s="1"/>
       <c r="I96" s="1"/>
     </row>
     <row r="97" spans="1:9">
@@ -16763,12 +16711,8 @@
       <c r="F97" s="1">
         <v>3.1825600000000001</v>
       </c>
-      <c r="G97" s="228">
-        <v>0</v>
-      </c>
-      <c r="H97" s="1">
-        <v>4</v>
-      </c>
+      <c r="G97" s="228"/>
+      <c r="H97" s="1"/>
       <c r="I97" s="1"/>
     </row>
     <row r="98" spans="1:9">
@@ -16952,12 +16896,8 @@
       <c r="F104" s="1">
         <v>2.15612</v>
       </c>
-      <c r="G104" s="228">
-        <v>0</v>
-      </c>
-      <c r="H104" s="1">
-        <v>5</v>
-      </c>
+      <c r="G104" s="228"/>
+      <c r="H104" s="1"/>
       <c r="I104" s="1"/>
     </row>
     <row r="105" spans="1:9">
@@ -17063,12 +17003,8 @@
       <c r="F109" s="1">
         <v>2.5436999999999999</v>
       </c>
-      <c r="G109" s="228">
-        <v>0</v>
-      </c>
-      <c r="H109" s="1">
-        <v>6</v>
-      </c>
+      <c r="G109" s="228"/>
+      <c r="H109" s="1"/>
       <c r="I109" s="1"/>
     </row>
     <row r="110" spans="1:9">
@@ -17537,12 +17473,8 @@
         <v>19</v>
       </c>
       <c r="F129" s="1"/>
-      <c r="G129" s="228">
-        <v>0</v>
-      </c>
-      <c r="H129" s="1">
-        <v>4</v>
-      </c>
+      <c r="G129" s="228"/>
+      <c r="H129" s="1"/>
       <c r="I129" s="1"/>
     </row>
     <row r="130" spans="1:9">
@@ -17583,12 +17515,8 @@
       <c r="F131" s="1">
         <v>3.3693899999999997</v>
       </c>
-      <c r="G131" s="228">
-        <v>0</v>
-      </c>
-      <c r="H131" s="1">
-        <v>5</v>
-      </c>
+      <c r="G131" s="228"/>
+      <c r="H131" s="1"/>
       <c r="I131" s="1"/>
     </row>
     <row r="132" spans="1:9">
@@ -17821,12 +17749,8 @@
       <c r="F141" s="1">
         <v>2.6186599999999998</v>
       </c>
-      <c r="G141" s="228">
-        <v>0</v>
-      </c>
-      <c r="H141" s="1">
-        <v>4</v>
-      </c>
+      <c r="G141" s="228"/>
+      <c r="H141" s="1"/>
       <c r="I141" s="1"/>
     </row>
     <row r="142" spans="1:9">
@@ -17867,12 +17791,8 @@
       <c r="F143" s="1">
         <v>2.5307499999999998</v>
       </c>
-      <c r="G143" s="228">
-        <v>0</v>
-      </c>
-      <c r="H143" s="1">
-        <v>4</v>
-      </c>
+      <c r="G143" s="228"/>
+      <c r="H143" s="1"/>
       <c r="I143" s="1"/>
     </row>
     <row r="144" spans="1:9">
@@ -18121,12 +18041,8 @@
       <c r="F153" s="1">
         <v>3.5450500000000003</v>
       </c>
-      <c r="G153" s="228">
-        <v>0</v>
-      </c>
-      <c r="H153" s="1">
-        <v>4</v>
-      </c>
+      <c r="G153" s="228"/>
+      <c r="H153" s="1"/>
       <c r="I153" s="1"/>
     </row>
     <row r="154" spans="1:9">
@@ -18148,12 +18064,8 @@
       <c r="F154" s="1">
         <v>3.4198300000000001</v>
       </c>
-      <c r="G154" s="228">
-        <v>0</v>
-      </c>
-      <c r="H154" s="1">
-        <v>6</v>
-      </c>
+      <c r="G154" s="228"/>
+      <c r="H154" s="1"/>
       <c r="I154" s="1"/>
     </row>
     <row r="155" spans="1:9">
@@ -18175,12 +18087,8 @@
       <c r="F155" s="1">
         <v>3.58934</v>
       </c>
-      <c r="G155" s="228">
-        <v>0</v>
-      </c>
-      <c r="H155" s="1">
-        <v>6</v>
-      </c>
+      <c r="G155" s="228"/>
+      <c r="H155" s="1"/>
       <c r="I155" s="1"/>
     </row>
     <row r="156" spans="1:9">

--- a/PHE.xlsx
+++ b/PHE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0b3bbfbef5e37dc7/Documents/R_PHD_analysis/Multigenerational_analysis/life-history-traits-analysis/Tai/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="47" documentId="8_{89BE5EBB-4BBC-48EF-8FCC-FE61CED8F79F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{158730A7-D95D-4B31-A509-0EE7FE2C6849}"/>
+  <xr:revisionPtr revIDLastSave="50" documentId="8_{89BE5EBB-4BBC-48EF-8FCC-FE61CED8F79F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9AEA5BAC-77DF-446A-809A-2D23D9AE1BB7}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1500,6 +1500,66 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="7" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1510,15 +1570,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1526,57 +1577,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="7" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2234,49 +2234,49 @@
       <c r="Q7" s="206"/>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="249">
+      <c r="A8" s="229">
         <v>1</v>
       </c>
-      <c r="B8" s="250" t="s">
+      <c r="B8" s="230" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="250" t="s">
+      <c r="C8" s="230" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="250" t="s">
+      <c r="D8" s="230" t="s">
         <v>39</v>
       </c>
-      <c r="E8" s="251">
+      <c r="E8" s="231">
         <v>14</v>
       </c>
-      <c r="F8" s="250">
+      <c r="F8" s="230">
         <v>16</v>
       </c>
-      <c r="G8" s="252">
-        <v>0</v>
-      </c>
-      <c r="H8" s="250">
+      <c r="G8" s="232">
+        <v>0</v>
+      </c>
+      <c r="H8" s="230">
         <v>2.4706300000000003</v>
       </c>
-      <c r="I8" s="250">
+      <c r="I8" s="230">
         <v>19</v>
       </c>
-      <c r="J8" s="252">
-        <v>0</v>
-      </c>
-      <c r="K8" s="252">
-        <v>0</v>
-      </c>
-      <c r="L8" s="250">
-        <v>3</v>
-      </c>
-      <c r="M8" s="250">
+      <c r="J8" s="232">
+        <v>0</v>
+      </c>
+      <c r="K8" s="232">
+        <v>0</v>
+      </c>
+      <c r="L8" s="230">
+        <v>3</v>
+      </c>
+      <c r="M8" s="230">
         <v>21</v>
       </c>
-      <c r="N8" s="250">
-        <v>0</v>
-      </c>
-      <c r="O8" s="254">
+      <c r="N8" s="230">
+        <v>0</v>
+      </c>
+      <c r="O8" s="234">
         <f>IF(N8=0, 0, 1/M8)</f>
         <v>0</v>
       </c>
@@ -2346,97 +2346,97 @@
       </c>
     </row>
     <row r="11" spans="1:17">
-      <c r="A11" s="249">
+      <c r="A11" s="229">
         <v>4</v>
       </c>
-      <c r="B11" s="250" t="s">
+      <c r="B11" s="230" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="250" t="s">
+      <c r="C11" s="230" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="250" t="s">
+      <c r="D11" s="230" t="s">
         <v>39</v>
       </c>
-      <c r="E11" s="251">
+      <c r="E11" s="231">
         <v>12</v>
       </c>
-      <c r="F11" s="250">
+      <c r="F11" s="230">
         <v>16</v>
       </c>
-      <c r="G11" s="252">
-        <v>0</v>
-      </c>
-      <c r="H11" s="250">
+      <c r="G11" s="232">
+        <v>0</v>
+      </c>
+      <c r="H11" s="230">
         <v>3.1534400000000002</v>
       </c>
-      <c r="I11" s="250">
+      <c r="I11" s="230">
         <v>21</v>
       </c>
-      <c r="J11" s="252">
-        <v>0</v>
-      </c>
-      <c r="K11" s="252">
-        <v>0</v>
-      </c>
-      <c r="L11" s="250">
+      <c r="J11" s="232">
+        <v>0</v>
+      </c>
+      <c r="K11" s="232">
+        <v>0</v>
+      </c>
+      <c r="L11" s="230">
         <v>5</v>
       </c>
-      <c r="M11" s="250">
+      <c r="M11" s="230">
         <v>21</v>
       </c>
-      <c r="N11" s="250">
-        <v>0</v>
-      </c>
-      <c r="O11" s="254">
+      <c r="N11" s="230">
+        <v>0</v>
+      </c>
+      <c r="O11" s="234">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:17">
-      <c r="A12" s="249">
+      <c r="A12" s="229">
         <v>5</v>
       </c>
-      <c r="B12" s="250" t="s">
+      <c r="B12" s="230" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="250" t="s">
+      <c r="C12" s="230" t="s">
         <v>26</v>
       </c>
-      <c r="D12" s="250" t="s">
+      <c r="D12" s="230" t="s">
         <v>39</v>
       </c>
-      <c r="E12" s="251">
+      <c r="E12" s="231">
         <v>13</v>
       </c>
-      <c r="F12" s="250">
+      <c r="F12" s="230">
         <v>16</v>
       </c>
-      <c r="G12" s="252">
-        <v>0</v>
-      </c>
-      <c r="H12" s="250">
+      <c r="G12" s="232">
+        <v>0</v>
+      </c>
+      <c r="H12" s="230">
         <v>2.66635</v>
       </c>
-      <c r="I12" s="250">
+      <c r="I12" s="230">
         <v>20</v>
       </c>
-      <c r="J12" s="252">
-        <v>0</v>
-      </c>
-      <c r="K12" s="252">
-        <v>0</v>
-      </c>
-      <c r="L12" s="250">
+      <c r="J12" s="232">
+        <v>0</v>
+      </c>
+      <c r="K12" s="232">
+        <v>0</v>
+      </c>
+      <c r="L12" s="230">
         <v>4</v>
       </c>
-      <c r="M12" s="250">
+      <c r="M12" s="230">
         <v>21</v>
       </c>
-      <c r="N12" s="250">
-        <v>0</v>
-      </c>
-      <c r="O12" s="254">
+      <c r="N12" s="230">
+        <v>0</v>
+      </c>
+      <c r="O12" s="234">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2758,241 +2758,241 @@
       <c r="Q19" s="206"/>
     </row>
     <row r="20" spans="1:17">
-      <c r="A20" s="249">
+      <c r="A20" s="229">
         <v>1</v>
       </c>
-      <c r="B20" s="250" t="s">
+      <c r="B20" s="230" t="s">
         <v>8</v>
       </c>
-      <c r="C20" s="250" t="s">
+      <c r="C20" s="230" t="s">
         <v>26</v>
       </c>
-      <c r="D20" s="250" t="s">
+      <c r="D20" s="230" t="s">
         <v>39</v>
       </c>
-      <c r="E20" s="251">
+      <c r="E20" s="231">
         <v>15</v>
       </c>
-      <c r="F20" s="250">
+      <c r="F20" s="230">
         <v>18</v>
       </c>
-      <c r="G20" s="252">
+      <c r="G20" s="232">
         <v>9</v>
       </c>
-      <c r="H20" s="250">
+      <c r="H20" s="230">
         <v>3.6478000000000002</v>
       </c>
-      <c r="I20" s="250">
+      <c r="I20" s="230">
         <v>25</v>
       </c>
-      <c r="J20" s="252">
-        <v>0</v>
-      </c>
-      <c r="K20" s="252">
+      <c r="J20" s="232">
+        <v>0</v>
+      </c>
+      <c r="K20" s="232">
         <v>9</v>
       </c>
-      <c r="L20" s="250">
+      <c r="L20" s="230">
         <v>7</v>
       </c>
-      <c r="M20" s="250">
+      <c r="M20" s="230">
         <v>25</v>
       </c>
-      <c r="N20" s="250">
-        <v>0</v>
-      </c>
-      <c r="O20" s="253">
+      <c r="N20" s="230">
+        <v>0</v>
+      </c>
+      <c r="O20" s="233">
         <f>IF(N20=0, 0, 1/M20)</f>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:17">
-      <c r="A21" s="249">
+      <c r="A21" s="229">
         <v>2</v>
       </c>
-      <c r="B21" s="250" t="s">
+      <c r="B21" s="230" t="s">
         <v>8</v>
       </c>
-      <c r="C21" s="250" t="s">
+      <c r="C21" s="230" t="s">
         <v>26</v>
       </c>
-      <c r="D21" s="250" t="s">
+      <c r="D21" s="230" t="s">
         <v>39</v>
       </c>
-      <c r="E21" s="251">
+      <c r="E21" s="231">
         <v>15</v>
       </c>
-      <c r="F21" s="250">
+      <c r="F21" s="230">
         <v>18</v>
       </c>
-      <c r="G21" s="252">
-        <v>0</v>
-      </c>
-      <c r="H21" s="250">
+      <c r="G21" s="232">
+        <v>0</v>
+      </c>
+      <c r="H21" s="230">
         <v>3.6543099999999997</v>
       </c>
-      <c r="I21" s="250">
+      <c r="I21" s="230">
         <v>24</v>
       </c>
-      <c r="J21" s="252">
-        <v>0</v>
-      </c>
-      <c r="K21" s="252">
-        <v>0</v>
-      </c>
-      <c r="L21" s="250">
+      <c r="J21" s="232">
+        <v>0</v>
+      </c>
+      <c r="K21" s="232">
+        <v>0</v>
+      </c>
+      <c r="L21" s="230">
         <v>6</v>
       </c>
-      <c r="M21" s="250">
+      <c r="M21" s="230">
         <v>25</v>
       </c>
-      <c r="N21" s="250">
-        <v>0</v>
-      </c>
-      <c r="O21" s="253">
+      <c r="N21" s="230">
+        <v>0</v>
+      </c>
+      <c r="O21" s="233">
         <f t="shared" ref="O21:O25" si="3">IF(N21=0, 0, 1/M21)</f>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:17">
-      <c r="A22" s="249">
-        <v>3</v>
-      </c>
-      <c r="B22" s="250" t="s">
+      <c r="A22" s="229">
+        <v>3</v>
+      </c>
+      <c r="B22" s="230" t="s">
         <v>8</v>
       </c>
-      <c r="C22" s="250" t="s">
+      <c r="C22" s="230" t="s">
         <v>26</v>
       </c>
-      <c r="D22" s="250" t="s">
+      <c r="D22" s="230" t="s">
         <v>39</v>
       </c>
-      <c r="E22" s="251">
+      <c r="E22" s="231">
         <v>16</v>
       </c>
-      <c r="F22" s="250">
+      <c r="F22" s="230">
         <v>18</v>
       </c>
-      <c r="G22" s="252">
+      <c r="G22" s="232">
         <v>10</v>
       </c>
-      <c r="H22" s="250">
+      <c r="H22" s="230">
         <v>3.6524000000000001</v>
       </c>
-      <c r="I22" s="250">
+      <c r="I22" s="230">
         <v>24</v>
       </c>
-      <c r="J22" s="252">
-        <v>0</v>
-      </c>
-      <c r="K22" s="252">
+      <c r="J22" s="232">
+        <v>0</v>
+      </c>
+      <c r="K22" s="232">
         <v>10</v>
       </c>
-      <c r="L22" s="250">
+      <c r="L22" s="230">
         <v>6</v>
       </c>
-      <c r="M22" s="250">
+      <c r="M22" s="230">
         <v>25</v>
       </c>
-      <c r="N22" s="250">
-        <v>0</v>
-      </c>
-      <c r="O22" s="253">
+      <c r="N22" s="230">
+        <v>0</v>
+      </c>
+      <c r="O22" s="233">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:17">
-      <c r="A23" s="249">
+      <c r="A23" s="229">
         <v>4</v>
       </c>
-      <c r="B23" s="250" t="s">
+      <c r="B23" s="230" t="s">
         <v>8</v>
       </c>
-      <c r="C23" s="250" t="s">
+      <c r="C23" s="230" t="s">
         <v>26</v>
       </c>
-      <c r="D23" s="250" t="s">
+      <c r="D23" s="230" t="s">
         <v>39</v>
       </c>
-      <c r="E23" s="251">
+      <c r="E23" s="231">
         <v>15</v>
       </c>
-      <c r="F23" s="250">
+      <c r="F23" s="230">
         <v>18</v>
       </c>
-      <c r="G23" s="252">
-        <v>0</v>
-      </c>
-      <c r="H23" s="250">
+      <c r="G23" s="232">
+        <v>0</v>
+      </c>
+      <c r="H23" s="230">
         <v>3.0021799999999996</v>
       </c>
-      <c r="I23" s="250">
+      <c r="I23" s="230">
         <v>24</v>
       </c>
-      <c r="J23" s="252">
-        <v>0</v>
-      </c>
-      <c r="K23" s="252">
-        <v>0</v>
-      </c>
-      <c r="L23" s="250">
+      <c r="J23" s="232">
+        <v>0</v>
+      </c>
+      <c r="K23" s="232">
+        <v>0</v>
+      </c>
+      <c r="L23" s="230">
         <v>6</v>
       </c>
-      <c r="M23" s="250">
+      <c r="M23" s="230">
         <v>25</v>
       </c>
-      <c r="N23" s="250">
-        <v>0</v>
-      </c>
-      <c r="O23" s="253">
+      <c r="N23" s="230">
+        <v>0</v>
+      </c>
+      <c r="O23" s="233">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:17">
-      <c r="A24" s="249">
+      <c r="A24" s="229">
         <v>5</v>
       </c>
-      <c r="B24" s="250" t="s">
+      <c r="B24" s="230" t="s">
         <v>8</v>
       </c>
-      <c r="C24" s="250" t="s">
+      <c r="C24" s="230" t="s">
         <v>26</v>
       </c>
-      <c r="D24" s="250" t="s">
+      <c r="D24" s="230" t="s">
         <v>39</v>
       </c>
-      <c r="E24" s="251">
+      <c r="E24" s="231">
         <v>15</v>
       </c>
-      <c r="F24" s="250">
+      <c r="F24" s="230">
         <v>18</v>
       </c>
-      <c r="G24" s="252">
+      <c r="G24" s="232">
         <v>8</v>
       </c>
-      <c r="H24" s="250">
+      <c r="H24" s="230">
         <v>3.4405000000000001</v>
       </c>
-      <c r="I24" s="250">
+      <c r="I24" s="230">
         <v>24</v>
       </c>
-      <c r="J24" s="252">
-        <v>0</v>
-      </c>
-      <c r="K24" s="252">
+      <c r="J24" s="232">
+        <v>0</v>
+      </c>
+      <c r="K24" s="232">
         <v>8</v>
       </c>
-      <c r="L24" s="250">
+      <c r="L24" s="230">
         <v>6</v>
       </c>
-      <c r="M24" s="250">
+      <c r="M24" s="230">
         <v>25</v>
       </c>
-      <c r="N24" s="250">
-        <v>0</v>
-      </c>
-      <c r="O24" s="253">
+      <c r="N24" s="230">
+        <v>0</v>
+      </c>
+      <c r="O24" s="233">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -3362,161 +3362,161 @@
       </c>
     </row>
     <row r="33" spans="1:18">
-      <c r="A33" s="249">
+      <c r="A33" s="229">
         <v>2</v>
       </c>
-      <c r="B33" s="250" t="s">
+      <c r="B33" s="230" t="s">
         <v>9</v>
       </c>
-      <c r="C33" s="250" t="s">
+      <c r="C33" s="230" t="s">
         <v>26</v>
       </c>
-      <c r="D33" s="250" t="s">
+      <c r="D33" s="230" t="s">
         <v>39</v>
       </c>
-      <c r="E33" s="251">
+      <c r="E33" s="231">
         <v>17</v>
       </c>
-      <c r="F33" s="250">
+      <c r="F33" s="230">
         <v>20</v>
       </c>
-      <c r="G33" s="252">
-        <v>0</v>
-      </c>
-      <c r="H33" s="250">
+      <c r="G33" s="232">
+        <v>0</v>
+      </c>
+      <c r="H33" s="230">
         <v>1.5271700000000001</v>
       </c>
-      <c r="I33" s="250">
+      <c r="I33" s="230">
         <v>25</v>
       </c>
-      <c r="J33" s="252">
-        <v>0</v>
-      </c>
-      <c r="K33" s="252">
-        <v>0</v>
-      </c>
-      <c r="L33" s="250">
+      <c r="J33" s="232">
+        <v>0</v>
+      </c>
+      <c r="K33" s="232">
+        <v>0</v>
+      </c>
+      <c r="L33" s="230">
         <v>5</v>
       </c>
-      <c r="M33" s="250">
+      <c r="M33" s="230">
         <v>25</v>
       </c>
-      <c r="N33" s="250">
-        <v>0</v>
-      </c>
-      <c r="O33" s="253">
+      <c r="N33" s="230">
+        <v>0</v>
+      </c>
+      <c r="O33" s="233">
         <f t="shared" ref="O33:O96" si="5">IF(N33=0, 0, 1/M33)</f>
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:18">
-      <c r="A34" s="249">
-        <v>3</v>
-      </c>
-      <c r="B34" s="250" t="s">
+      <c r="A34" s="229">
+        <v>3</v>
+      </c>
+      <c r="B34" s="230" t="s">
         <v>9</v>
       </c>
-      <c r="C34" s="250" t="s">
+      <c r="C34" s="230" t="s">
         <v>26</v>
       </c>
-      <c r="D34" s="250" t="s">
+      <c r="D34" s="230" t="s">
         <v>39</v>
       </c>
-      <c r="E34" s="251"/>
-      <c r="F34" s="250"/>
-      <c r="G34" s="252"/>
-      <c r="H34" s="250"/>
-      <c r="I34" s="250"/>
-      <c r="J34" s="252"/>
-      <c r="K34" s="252"/>
-      <c r="L34" s="250"/>
-      <c r="M34" s="250">
+      <c r="E34" s="231"/>
+      <c r="F34" s="230"/>
+      <c r="G34" s="232"/>
+      <c r="H34" s="230"/>
+      <c r="I34" s="230"/>
+      <c r="J34" s="232"/>
+      <c r="K34" s="232"/>
+      <c r="L34" s="230"/>
+      <c r="M34" s="230">
         <v>10</v>
       </c>
-      <c r="N34" s="250">
+      <c r="N34" s="230">
         <v>1</v>
       </c>
-      <c r="O34" s="253">
+      <c r="O34" s="233">
         <f t="shared" si="5"/>
         <v>0.1</v>
       </c>
     </row>
     <row r="35" spans="1:18">
-      <c r="A35" s="249">
+      <c r="A35" s="229">
         <v>4</v>
       </c>
-      <c r="B35" s="250" t="s">
+      <c r="B35" s="230" t="s">
         <v>9</v>
       </c>
-      <c r="C35" s="250" t="s">
+      <c r="C35" s="230" t="s">
         <v>26</v>
       </c>
-      <c r="D35" s="250" t="s">
+      <c r="D35" s="230" t="s">
         <v>39</v>
       </c>
-      <c r="E35" s="251"/>
-      <c r="F35" s="250"/>
-      <c r="G35" s="252"/>
-      <c r="H35" s="250"/>
-      <c r="I35" s="250"/>
-      <c r="J35" s="252"/>
-      <c r="K35" s="252"/>
-      <c r="L35" s="250"/>
-      <c r="M35" s="250">
+      <c r="E35" s="231"/>
+      <c r="F35" s="230"/>
+      <c r="G35" s="232"/>
+      <c r="H35" s="230"/>
+      <c r="I35" s="230"/>
+      <c r="J35" s="232"/>
+      <c r="K35" s="232"/>
+      <c r="L35" s="230"/>
+      <c r="M35" s="230">
         <v>15</v>
       </c>
-      <c r="N35" s="250">
+      <c r="N35" s="230">
         <v>1</v>
       </c>
-      <c r="O35" s="253">
+      <c r="O35" s="233">
         <f>IF(N35=0, 0, 1/M35)</f>
         <v>6.6666666666666666E-2</v>
       </c>
     </row>
     <row r="36" spans="1:18">
-      <c r="A36" s="249">
+      <c r="A36" s="229">
         <v>5</v>
       </c>
-      <c r="B36" s="250" t="s">
+      <c r="B36" s="230" t="s">
         <v>9</v>
       </c>
-      <c r="C36" s="250" t="s">
+      <c r="C36" s="230" t="s">
         <v>26</v>
       </c>
-      <c r="D36" s="250" t="s">
+      <c r="D36" s="230" t="s">
         <v>39</v>
       </c>
-      <c r="E36" s="251">
+      <c r="E36" s="231">
         <v>17</v>
       </c>
-      <c r="F36" s="250">
+      <c r="F36" s="230">
         <v>20</v>
       </c>
-      <c r="G36" s="252">
-        <v>0</v>
-      </c>
-      <c r="H36" s="250">
+      <c r="G36" s="232">
+        <v>0</v>
+      </c>
+      <c r="H36" s="230">
         <v>2.86036</v>
       </c>
-      <c r="I36" s="250">
+      <c r="I36" s="230">
         <v>24</v>
       </c>
-      <c r="J36" s="252">
-        <v>0</v>
-      </c>
-      <c r="K36" s="252">
-        <v>0</v>
-      </c>
-      <c r="L36" s="250">
+      <c r="J36" s="232">
+        <v>0</v>
+      </c>
+      <c r="K36" s="232">
+        <v>0</v>
+      </c>
+      <c r="L36" s="230">
         <v>4</v>
       </c>
-      <c r="M36" s="250">
+      <c r="M36" s="230">
         <v>25</v>
       </c>
-      <c r="N36" s="250">
-        <v>0</v>
-      </c>
-      <c r="O36" s="253">
+      <c r="N36" s="230">
+        <v>0</v>
+      </c>
+      <c r="O36" s="233">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -3844,49 +3844,49 @@
       <c r="R43" s="206"/>
     </row>
     <row r="44" spans="1:18">
-      <c r="A44" s="249">
+      <c r="A44" s="229">
         <v>1</v>
       </c>
-      <c r="B44" s="250" t="s">
+      <c r="B44" s="230" t="s">
         <v>10</v>
       </c>
-      <c r="C44" s="250" t="s">
+      <c r="C44" s="230" t="s">
         <v>25</v>
       </c>
-      <c r="D44" s="250" t="s">
+      <c r="D44" s="230" t="s">
         <v>39</v>
       </c>
-      <c r="E44" s="251">
+      <c r="E44" s="231">
         <v>16</v>
       </c>
-      <c r="F44" s="250">
+      <c r="F44" s="230">
         <v>19</v>
       </c>
-      <c r="G44" s="252">
+      <c r="G44" s="232">
         <v>1</v>
       </c>
-      <c r="H44" s="250">
+      <c r="H44" s="230">
         <v>3.4624899999999998</v>
       </c>
-      <c r="I44" s="250">
+      <c r="I44" s="230">
         <v>23</v>
       </c>
-      <c r="J44" s="252">
-        <v>0</v>
-      </c>
-      <c r="K44" s="252">
+      <c r="J44" s="232">
+        <v>0</v>
+      </c>
+      <c r="K44" s="232">
         <v>1</v>
       </c>
-      <c r="L44" s="250">
+      <c r="L44" s="230">
         <v>4</v>
       </c>
-      <c r="M44" s="250">
+      <c r="M44" s="230">
         <v>23</v>
       </c>
-      <c r="N44" s="250">
-        <v>0</v>
-      </c>
-      <c r="O44" s="253">
+      <c r="N44" s="230">
+        <v>0</v>
+      </c>
+      <c r="O44" s="233">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -4326,241 +4326,241 @@
       <c r="R55" s="206"/>
     </row>
     <row r="56" spans="1:18">
-      <c r="A56" s="249">
+      <c r="A56" s="229">
         <v>1</v>
       </c>
-      <c r="B56" s="250" t="s">
+      <c r="B56" s="230" t="s">
         <v>11</v>
       </c>
-      <c r="C56" s="250" t="s">
+      <c r="C56" s="230" t="s">
         <v>25</v>
       </c>
-      <c r="D56" s="250" t="s">
+      <c r="D56" s="230" t="s">
         <v>39</v>
       </c>
-      <c r="E56" s="251">
+      <c r="E56" s="231">
         <v>17</v>
       </c>
-      <c r="F56" s="250">
+      <c r="F56" s="230">
         <v>20</v>
       </c>
-      <c r="G56" s="252">
-        <v>0</v>
-      </c>
-      <c r="H56" s="250">
+      <c r="G56" s="232">
+        <v>0</v>
+      </c>
+      <c r="H56" s="230">
         <v>2.5223899999999997</v>
       </c>
-      <c r="I56" s="250">
+      <c r="I56" s="230">
         <v>23</v>
       </c>
-      <c r="J56" s="252">
-        <v>0</v>
-      </c>
-      <c r="K56" s="252">
-        <v>0</v>
-      </c>
-      <c r="L56" s="250">
-        <v>3</v>
-      </c>
-      <c r="M56" s="250">
+      <c r="J56" s="232">
+        <v>0</v>
+      </c>
+      <c r="K56" s="232">
+        <v>0</v>
+      </c>
+      <c r="L56" s="230">
+        <v>3</v>
+      </c>
+      <c r="M56" s="230">
         <v>23</v>
       </c>
-      <c r="N56" s="250">
-        <v>0</v>
-      </c>
-      <c r="O56" s="253">
+      <c r="N56" s="230">
+        <v>0</v>
+      </c>
+      <c r="O56" s="233">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:18">
-      <c r="A57" s="249">
+      <c r="A57" s="229">
         <v>2</v>
       </c>
-      <c r="B57" s="250" t="s">
+      <c r="B57" s="230" t="s">
         <v>11</v>
       </c>
-      <c r="C57" s="250" t="s">
+      <c r="C57" s="230" t="s">
         <v>25</v>
       </c>
-      <c r="D57" s="250" t="s">
+      <c r="D57" s="230" t="s">
         <v>39</v>
       </c>
-      <c r="E57" s="251">
+      <c r="E57" s="231">
         <v>16</v>
       </c>
-      <c r="F57" s="250">
+      <c r="F57" s="230">
         <v>19</v>
       </c>
-      <c r="G57" s="252">
-        <v>0</v>
-      </c>
-      <c r="H57" s="250">
+      <c r="G57" s="232">
+        <v>0</v>
+      </c>
+      <c r="H57" s="230">
         <v>2.9872299999999998</v>
       </c>
-      <c r="I57" s="250">
+      <c r="I57" s="230">
         <v>23</v>
       </c>
-      <c r="J57" s="252">
-        <v>0</v>
-      </c>
-      <c r="K57" s="252">
-        <v>0</v>
-      </c>
-      <c r="L57" s="250">
+      <c r="J57" s="232">
+        <v>0</v>
+      </c>
+      <c r="K57" s="232">
+        <v>0</v>
+      </c>
+      <c r="L57" s="230">
         <v>4</v>
       </c>
-      <c r="M57" s="250">
+      <c r="M57" s="230">
         <v>23</v>
       </c>
-      <c r="N57" s="250">
-        <v>0</v>
-      </c>
-      <c r="O57" s="253">
+      <c r="N57" s="230">
+        <v>0</v>
+      </c>
+      <c r="O57" s="233">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:18">
-      <c r="A58" s="249">
-        <v>3</v>
-      </c>
-      <c r="B58" s="250" t="s">
+      <c r="A58" s="229">
+        <v>3</v>
+      </c>
+      <c r="B58" s="230" t="s">
         <v>11</v>
       </c>
-      <c r="C58" s="250" t="s">
+      <c r="C58" s="230" t="s">
         <v>25</v>
       </c>
-      <c r="D58" s="250" t="s">
+      <c r="D58" s="230" t="s">
         <v>39</v>
       </c>
-      <c r="E58" s="251">
+      <c r="E58" s="231">
         <v>16</v>
       </c>
-      <c r="F58" s="250">
+      <c r="F58" s="230">
         <v>19</v>
       </c>
-      <c r="G58" s="252">
-        <v>0</v>
-      </c>
-      <c r="H58" s="250">
+      <c r="G58" s="232">
+        <v>0</v>
+      </c>
+      <c r="H58" s="230">
         <v>2.6795900000000001</v>
       </c>
-      <c r="I58" s="250">
+      <c r="I58" s="230">
         <v>23</v>
       </c>
-      <c r="J58" s="252">
-        <v>0</v>
-      </c>
-      <c r="K58" s="252">
-        <v>0</v>
-      </c>
-      <c r="L58" s="250">
+      <c r="J58" s="232">
+        <v>0</v>
+      </c>
+      <c r="K58" s="232">
+        <v>0</v>
+      </c>
+      <c r="L58" s="230">
         <v>4</v>
       </c>
-      <c r="M58" s="250">
+      <c r="M58" s="230">
         <v>23</v>
       </c>
-      <c r="N58" s="250">
-        <v>0</v>
-      </c>
-      <c r="O58" s="253">
+      <c r="N58" s="230">
+        <v>0</v>
+      </c>
+      <c r="O58" s="233">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:18">
-      <c r="A59" s="249">
+      <c r="A59" s="229">
         <v>4</v>
       </c>
-      <c r="B59" s="250" t="s">
+      <c r="B59" s="230" t="s">
         <v>11</v>
       </c>
-      <c r="C59" s="250" t="s">
+      <c r="C59" s="230" t="s">
         <v>25</v>
       </c>
-      <c r="D59" s="250" t="s">
+      <c r="D59" s="230" t="s">
         <v>39</v>
       </c>
-      <c r="E59" s="251">
+      <c r="E59" s="231">
         <v>16</v>
       </c>
-      <c r="F59" s="250">
+      <c r="F59" s="230">
         <v>19</v>
       </c>
-      <c r="G59" s="252">
-        <v>0</v>
-      </c>
-      <c r="H59" s="250">
+      <c r="G59" s="232">
+        <v>0</v>
+      </c>
+      <c r="H59" s="230">
         <v>2.75787</v>
       </c>
-      <c r="I59" s="250">
+      <c r="I59" s="230">
         <v>23</v>
       </c>
-      <c r="J59" s="252">
-        <v>0</v>
-      </c>
-      <c r="K59" s="252">
-        <v>0</v>
-      </c>
-      <c r="L59" s="250">
+      <c r="J59" s="232">
+        <v>0</v>
+      </c>
+      <c r="K59" s="232">
+        <v>0</v>
+      </c>
+      <c r="L59" s="230">
         <v>4</v>
       </c>
-      <c r="M59" s="250">
+      <c r="M59" s="230">
         <v>23</v>
       </c>
-      <c r="N59" s="250">
-        <v>0</v>
-      </c>
-      <c r="O59" s="253">
+      <c r="N59" s="230">
+        <v>0</v>
+      </c>
+      <c r="O59" s="233">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:18">
-      <c r="A60" s="249">
+      <c r="A60" s="229">
         <v>5</v>
       </c>
-      <c r="B60" s="250" t="s">
+      <c r="B60" s="230" t="s">
         <v>11</v>
       </c>
-      <c r="C60" s="250" t="s">
+      <c r="C60" s="230" t="s">
         <v>25</v>
       </c>
-      <c r="D60" s="250" t="s">
+      <c r="D60" s="230" t="s">
         <v>39</v>
       </c>
-      <c r="E60" s="251">
+      <c r="E60" s="231">
         <v>17</v>
       </c>
-      <c r="F60" s="250">
+      <c r="F60" s="230">
         <v>20</v>
       </c>
-      <c r="G60" s="252">
-        <v>0</v>
-      </c>
-      <c r="H60" s="250">
+      <c r="G60" s="232">
+        <v>0</v>
+      </c>
+      <c r="H60" s="230">
         <v>2.6013800000000002</v>
       </c>
-      <c r="I60" s="250">
+      <c r="I60" s="230">
         <v>23</v>
       </c>
-      <c r="J60" s="252">
-        <v>0</v>
-      </c>
-      <c r="K60" s="252">
-        <v>0</v>
-      </c>
-      <c r="L60" s="250">
-        <v>3</v>
-      </c>
-      <c r="M60" s="250">
+      <c r="J60" s="232">
+        <v>0</v>
+      </c>
+      <c r="K60" s="232">
+        <v>0</v>
+      </c>
+      <c r="L60" s="230">
+        <v>3</v>
+      </c>
+      <c r="M60" s="230">
         <v>23</v>
       </c>
-      <c r="N60" s="250">
-        <v>0</v>
-      </c>
-      <c r="O60" s="253">
+      <c r="N60" s="230">
+        <v>0</v>
+      </c>
+      <c r="O60" s="233">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -5000,145 +5000,145 @@
       </c>
     </row>
     <row r="71" spans="1:18">
-      <c r="A71" s="249">
+      <c r="A71" s="229">
         <v>4</v>
       </c>
-      <c r="B71" s="250" t="s">
+      <c r="B71" s="230" t="s">
         <v>12</v>
       </c>
-      <c r="C71" s="250" t="s">
+      <c r="C71" s="230" t="s">
         <v>25</v>
       </c>
-      <c r="D71" s="250" t="s">
+      <c r="D71" s="230" t="s">
         <v>39</v>
       </c>
-      <c r="E71" s="251">
+      <c r="E71" s="231">
         <v>18</v>
       </c>
-      <c r="F71" s="250">
+      <c r="F71" s="230">
         <v>21</v>
       </c>
-      <c r="G71" s="252">
-        <v>0</v>
-      </c>
-      <c r="H71" s="250">
+      <c r="G71" s="232">
+        <v>0</v>
+      </c>
+      <c r="H71" s="230">
         <v>3.25522</v>
       </c>
-      <c r="I71" s="250">
+      <c r="I71" s="230">
         <v>24</v>
       </c>
-      <c r="J71" s="252">
-        <v>0</v>
-      </c>
-      <c r="K71" s="252">
-        <v>0</v>
-      </c>
-      <c r="L71" s="250">
-        <v>3</v>
-      </c>
-      <c r="M71" s="250">
+      <c r="J71" s="232">
+        <v>0</v>
+      </c>
+      <c r="K71" s="232">
+        <v>0</v>
+      </c>
+      <c r="L71" s="230">
+        <v>3</v>
+      </c>
+      <c r="M71" s="230">
         <v>24</v>
       </c>
-      <c r="N71" s="250">
-        <v>0</v>
-      </c>
-      <c r="O71" s="253">
+      <c r="N71" s="230">
+        <v>0</v>
+      </c>
+      <c r="O71" s="233">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:18">
-      <c r="A72" s="249">
+      <c r="A72" s="229">
         <v>5</v>
       </c>
-      <c r="B72" s="250" t="s">
+      <c r="B72" s="230" t="s">
         <v>12</v>
       </c>
-      <c r="C72" s="250" t="s">
+      <c r="C72" s="230" t="s">
         <v>25</v>
       </c>
-      <c r="D72" s="250" t="s">
+      <c r="D72" s="230" t="s">
         <v>39</v>
       </c>
-      <c r="E72" s="251">
+      <c r="E72" s="231">
         <v>18</v>
       </c>
-      <c r="F72" s="250">
+      <c r="F72" s="230">
         <v>21</v>
       </c>
-      <c r="G72" s="252">
-        <v>0</v>
-      </c>
-      <c r="H72" s="250">
+      <c r="G72" s="232">
+        <v>0</v>
+      </c>
+      <c r="H72" s="230">
         <v>2.8711899999999999</v>
       </c>
-      <c r="I72" s="250">
+      <c r="I72" s="230">
         <v>23</v>
       </c>
-      <c r="J72" s="252">
-        <v>0</v>
-      </c>
-      <c r="K72" s="252">
-        <v>0</v>
-      </c>
-      <c r="L72" s="250">
+      <c r="J72" s="232">
+        <v>0</v>
+      </c>
+      <c r="K72" s="232">
+        <v>0</v>
+      </c>
+      <c r="L72" s="230">
         <v>2</v>
       </c>
-      <c r="M72" s="250">
+      <c r="M72" s="230">
         <v>24</v>
       </c>
-      <c r="N72" s="250">
-        <v>0</v>
-      </c>
-      <c r="O72" s="253">
+      <c r="N72" s="230">
+        <v>0</v>
+      </c>
+      <c r="O72" s="233">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:18">
-      <c r="A73" s="249">
+      <c r="A73" s="229">
         <v>6</v>
       </c>
-      <c r="B73" s="250" t="s">
+      <c r="B73" s="230" t="s">
         <v>12</v>
       </c>
-      <c r="C73" s="250" t="s">
+      <c r="C73" s="230" t="s">
         <v>25</v>
       </c>
-      <c r="D73" s="250" t="s">
+      <c r="D73" s="230" t="s">
         <v>39</v>
       </c>
-      <c r="E73" s="251">
+      <c r="E73" s="231">
         <v>18</v>
       </c>
-      <c r="F73" s="250">
+      <c r="F73" s="230">
         <v>21</v>
       </c>
-      <c r="G73" s="252">
-        <v>0</v>
-      </c>
-      <c r="H73" s="250">
+      <c r="G73" s="232">
+        <v>0</v>
+      </c>
+      <c r="H73" s="230">
         <v>2.6543000000000001</v>
       </c>
-      <c r="I73" s="250">
+      <c r="I73" s="230">
         <v>24</v>
       </c>
-      <c r="J73" s="252">
-        <v>0</v>
-      </c>
-      <c r="K73" s="252">
-        <v>0</v>
-      </c>
-      <c r="L73" s="250">
-        <v>3</v>
-      </c>
-      <c r="M73" s="250">
+      <c r="J73" s="232">
+        <v>0</v>
+      </c>
+      <c r="K73" s="232">
+        <v>0</v>
+      </c>
+      <c r="L73" s="230">
+        <v>3</v>
+      </c>
+      <c r="M73" s="230">
         <v>24</v>
       </c>
-      <c r="N73" s="250">
-        <v>0</v>
-      </c>
-      <c r="O73" s="253">
+      <c r="N73" s="230">
+        <v>0</v>
+      </c>
+      <c r="O73" s="233">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -5420,49 +5420,49 @@
       <c r="R79" s="206"/>
     </row>
     <row r="80" spans="1:18">
-      <c r="A80" s="249">
+      <c r="A80" s="229">
         <v>1</v>
       </c>
-      <c r="B80" s="250" t="s">
+      <c r="B80" s="230" t="s">
         <v>13</v>
       </c>
-      <c r="C80" s="250" t="s">
+      <c r="C80" s="230" t="s">
         <v>25</v>
       </c>
-      <c r="D80" s="250" t="s">
+      <c r="D80" s="230" t="s">
         <v>39</v>
       </c>
-      <c r="E80" s="251">
+      <c r="E80" s="231">
         <v>15</v>
       </c>
-      <c r="F80" s="250">
+      <c r="F80" s="230">
         <v>18</v>
       </c>
-      <c r="G80" s="252">
+      <c r="G80" s="232">
         <v>5</v>
       </c>
-      <c r="H80" s="250">
+      <c r="H80" s="230">
         <v>2.7825199999999999</v>
       </c>
-      <c r="I80" s="250">
+      <c r="I80" s="230">
         <v>21</v>
       </c>
-      <c r="J80" s="252">
-        <v>0</v>
-      </c>
-      <c r="K80" s="252">
+      <c r="J80" s="232">
+        <v>0</v>
+      </c>
+      <c r="K80" s="232">
         <v>5</v>
       </c>
-      <c r="L80" s="250">
-        <v>3</v>
-      </c>
-      <c r="M80" s="252">
+      <c r="L80" s="230">
+        <v>3</v>
+      </c>
+      <c r="M80" s="232">
         <v>21</v>
       </c>
-      <c r="N80" s="252">
-        <v>0</v>
-      </c>
-      <c r="O80" s="253">
+      <c r="N80" s="232">
+        <v>0</v>
+      </c>
+      <c r="O80" s="233">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -5940,273 +5940,273 @@
       <c r="S91" s="206"/>
     </row>
     <row r="92" spans="1:19">
-      <c r="A92" s="249">
+      <c r="A92" s="229">
         <v>1</v>
       </c>
-      <c r="B92" s="250" t="s">
+      <c r="B92" s="230" t="s">
         <v>14</v>
       </c>
-      <c r="C92" s="250" t="s">
+      <c r="C92" s="230" t="s">
         <v>24</v>
       </c>
-      <c r="D92" s="250" t="s">
+      <c r="D92" s="230" t="s">
         <v>39</v>
       </c>
-      <c r="E92" s="251">
+      <c r="E92" s="231">
         <v>10</v>
       </c>
-      <c r="F92" s="250">
+      <c r="F92" s="230">
         <v>13</v>
       </c>
-      <c r="G92" s="252">
+      <c r="G92" s="232">
         <v>8</v>
       </c>
-      <c r="H92" s="250">
+      <c r="H92" s="230">
         <v>3.2398899999999999</v>
       </c>
-      <c r="I92" s="250">
+      <c r="I92" s="230">
         <v>19</v>
       </c>
-      <c r="J92" s="252">
-        <v>0</v>
-      </c>
-      <c r="K92" s="252">
-        <v>0</v>
-      </c>
-      <c r="L92" s="250">
+      <c r="J92" s="232">
+        <v>0</v>
+      </c>
+      <c r="K92" s="232">
+        <v>0</v>
+      </c>
+      <c r="L92" s="230">
         <v>6</v>
       </c>
-      <c r="M92" s="252">
+      <c r="M92" s="232">
         <v>20</v>
       </c>
-      <c r="N92" s="252">
-        <v>0</v>
-      </c>
-      <c r="O92" s="253">
+      <c r="N92" s="232">
+        <v>0</v>
+      </c>
+      <c r="O92" s="233">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:19">
-      <c r="A93" s="249">
+      <c r="A93" s="229">
         <v>2</v>
       </c>
-      <c r="B93" s="250" t="s">
+      <c r="B93" s="230" t="s">
         <v>14</v>
       </c>
-      <c r="C93" s="250" t="s">
+      <c r="C93" s="230" t="s">
         <v>24</v>
       </c>
-      <c r="D93" s="250" t="s">
+      <c r="D93" s="230" t="s">
         <v>39</v>
       </c>
-      <c r="E93" s="251"/>
-      <c r="F93" s="250"/>
-      <c r="G93" s="252"/>
-      <c r="H93" s="250"/>
-      <c r="I93" s="250"/>
-      <c r="J93" s="252"/>
-      <c r="K93" s="252"/>
-      <c r="L93" s="250"/>
-      <c r="M93" s="252">
+      <c r="E93" s="231"/>
+      <c r="F93" s="230"/>
+      <c r="G93" s="232"/>
+      <c r="H93" s="230"/>
+      <c r="I93" s="230"/>
+      <c r="J93" s="232"/>
+      <c r="K93" s="232"/>
+      <c r="L93" s="230"/>
+      <c r="M93" s="232">
         <v>8</v>
       </c>
-      <c r="N93" s="252">
+      <c r="N93" s="232">
         <v>1</v>
       </c>
-      <c r="O93" s="253">
+      <c r="O93" s="233">
         <f t="shared" si="5"/>
         <v>0.125</v>
       </c>
     </row>
     <row r="94" spans="1:19">
-      <c r="A94" s="249">
-        <v>3</v>
-      </c>
-      <c r="B94" s="250" t="s">
+      <c r="A94" s="229">
+        <v>3</v>
+      </c>
+      <c r="B94" s="230" t="s">
         <v>14</v>
       </c>
-      <c r="C94" s="250" t="s">
+      <c r="C94" s="230" t="s">
         <v>24</v>
       </c>
-      <c r="D94" s="250" t="s">
+      <c r="D94" s="230" t="s">
         <v>39</v>
       </c>
-      <c r="E94" s="251">
+      <c r="E94" s="231">
         <v>12</v>
       </c>
-      <c r="F94" s="250">
+      <c r="F94" s="230">
         <v>15</v>
       </c>
-      <c r="G94" s="252">
-        <v>0</v>
-      </c>
-      <c r="H94" s="250">
+      <c r="G94" s="232">
+        <v>0</v>
+      </c>
+      <c r="H94" s="230">
         <v>2.8700199999999998</v>
       </c>
-      <c r="I94" s="250">
+      <c r="I94" s="230">
         <v>19</v>
       </c>
-      <c r="J94" s="252">
-        <v>0</v>
-      </c>
-      <c r="K94" s="252">
-        <v>0</v>
-      </c>
-      <c r="L94" s="250">
+      <c r="J94" s="232">
+        <v>0</v>
+      </c>
+      <c r="K94" s="232">
+        <v>0</v>
+      </c>
+      <c r="L94" s="230">
         <v>4</v>
       </c>
-      <c r="M94" s="252">
+      <c r="M94" s="232">
         <v>20</v>
       </c>
-      <c r="N94" s="252">
-        <v>0</v>
-      </c>
-      <c r="O94" s="253">
+      <c r="N94" s="232">
+        <v>0</v>
+      </c>
+      <c r="O94" s="233">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:19">
-      <c r="A95" s="249">
+      <c r="A95" s="229">
         <v>4</v>
       </c>
-      <c r="B95" s="250" t="s">
+      <c r="B95" s="230" t="s">
         <v>14</v>
       </c>
-      <c r="C95" s="250" t="s">
+      <c r="C95" s="230" t="s">
         <v>24</v>
       </c>
-      <c r="D95" s="250" t="s">
+      <c r="D95" s="230" t="s">
         <v>39</v>
       </c>
-      <c r="E95" s="251">
+      <c r="E95" s="231">
         <v>13</v>
       </c>
-      <c r="F95" s="250">
+      <c r="F95" s="230">
         <v>17</v>
       </c>
-      <c r="G95" s="252">
-        <v>0</v>
-      </c>
-      <c r="H95" s="250">
+      <c r="G95" s="232">
+        <v>0</v>
+      </c>
+      <c r="H95" s="230">
         <v>2.8383600000000002</v>
       </c>
-      <c r="I95" s="250">
+      <c r="I95" s="230">
         <v>20</v>
       </c>
-      <c r="J95" s="252">
-        <v>0</v>
-      </c>
-      <c r="K95" s="252">
-        <v>0</v>
-      </c>
-      <c r="L95" s="250">
-        <v>3</v>
-      </c>
-      <c r="M95" s="252">
+      <c r="J95" s="232">
+        <v>0</v>
+      </c>
+      <c r="K95" s="232">
+        <v>0</v>
+      </c>
+      <c r="L95" s="230">
+        <v>3</v>
+      </c>
+      <c r="M95" s="232">
         <v>20</v>
       </c>
-      <c r="N95" s="252">
-        <v>0</v>
-      </c>
-      <c r="O95" s="253">
+      <c r="N95" s="232">
+        <v>0</v>
+      </c>
+      <c r="O95" s="233">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:19">
-      <c r="A96" s="249">
+      <c r="A96" s="229">
         <v>5</v>
       </c>
-      <c r="B96" s="250" t="s">
+      <c r="B96" s="230" t="s">
         <v>14</v>
       </c>
-      <c r="C96" s="250" t="s">
+      <c r="C96" s="230" t="s">
         <v>24</v>
       </c>
-      <c r="D96" s="250" t="s">
+      <c r="D96" s="230" t="s">
         <v>39</v>
       </c>
-      <c r="E96" s="251">
+      <c r="E96" s="231">
         <v>10</v>
       </c>
-      <c r="F96" s="250">
+      <c r="F96" s="230">
         <v>13</v>
       </c>
-      <c r="G96" s="252">
+      <c r="G96" s="232">
         <v>5</v>
       </c>
-      <c r="H96" s="250">
+      <c r="H96" s="230">
         <v>3.1300599999999998</v>
       </c>
-      <c r="I96" s="250">
+      <c r="I96" s="230">
         <v>19</v>
       </c>
-      <c r="J96" s="252">
-        <v>0</v>
-      </c>
-      <c r="K96" s="252">
-        <v>0</v>
-      </c>
-      <c r="L96" s="250">
+      <c r="J96" s="232">
+        <v>0</v>
+      </c>
+      <c r="K96" s="232">
+        <v>0</v>
+      </c>
+      <c r="L96" s="230">
         <v>6</v>
       </c>
-      <c r="M96" s="252">
+      <c r="M96" s="232">
         <v>20</v>
       </c>
-      <c r="N96" s="252">
-        <v>0</v>
-      </c>
-      <c r="O96" s="253">
+      <c r="N96" s="232">
+        <v>0</v>
+      </c>
+      <c r="O96" s="233">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:19">
-      <c r="A97" s="249">
+      <c r="A97" s="229">
         <v>6</v>
       </c>
-      <c r="B97" s="250" t="s">
+      <c r="B97" s="230" t="s">
         <v>14</v>
       </c>
-      <c r="C97" s="250" t="s">
+      <c r="C97" s="230" t="s">
         <v>24</v>
       </c>
-      <c r="D97" s="250" t="s">
+      <c r="D97" s="230" t="s">
         <v>39</v>
       </c>
-      <c r="E97" s="251">
+      <c r="E97" s="231">
         <v>13</v>
       </c>
-      <c r="F97" s="250">
+      <c r="F97" s="230">
         <v>16</v>
       </c>
-      <c r="G97" s="252">
-        <v>0</v>
-      </c>
-      <c r="H97" s="250">
+      <c r="G97" s="232">
+        <v>0</v>
+      </c>
+      <c r="H97" s="230">
         <v>3.1825600000000001</v>
       </c>
-      <c r="I97" s="250">
+      <c r="I97" s="230">
         <v>20</v>
       </c>
-      <c r="J97" s="252">
-        <v>0</v>
-      </c>
-      <c r="K97" s="252">
-        <v>0</v>
-      </c>
-      <c r="L97" s="250">
+      <c r="J97" s="232">
+        <v>0</v>
+      </c>
+      <c r="K97" s="232">
+        <v>0</v>
+      </c>
+      <c r="L97" s="230">
         <v>4</v>
       </c>
-      <c r="M97" s="252">
+      <c r="M97" s="232">
         <v>20</v>
       </c>
-      <c r="N97" s="252">
-        <v>0</v>
-      </c>
-      <c r="O97" s="253">
+      <c r="N97" s="232">
+        <v>0</v>
+      </c>
+      <c r="O97" s="233">
         <f t="shared" ref="O97:O157" si="6">IF(N97=0, 0, 1/M97)</f>
         <v>0</v>
       </c>
@@ -6524,97 +6524,97 @@
       <c r="S103" s="206"/>
     </row>
     <row r="104" spans="1:19">
-      <c r="A104" s="249">
+      <c r="A104" s="229">
         <v>1</v>
       </c>
-      <c r="B104" s="250" t="s">
+      <c r="B104" s="230" t="s">
         <v>15</v>
       </c>
-      <c r="C104" s="250" t="s">
+      <c r="C104" s="230" t="s">
         <v>24</v>
       </c>
-      <c r="D104" s="250" t="s">
+      <c r="D104" s="230" t="s">
         <v>39</v>
       </c>
-      <c r="E104" s="251">
+      <c r="E104" s="231">
         <v>17</v>
       </c>
-      <c r="F104" s="250">
+      <c r="F104" s="230">
         <v>19</v>
       </c>
-      <c r="G104" s="252">
-        <v>0</v>
-      </c>
-      <c r="H104" s="250">
+      <c r="G104" s="232">
+        <v>0</v>
+      </c>
+      <c r="H104" s="230">
         <v>2.15612</v>
       </c>
-      <c r="I104" s="250">
+      <c r="I104" s="230">
         <v>24</v>
       </c>
-      <c r="J104" s="252">
-        <v>0</v>
-      </c>
-      <c r="K104" s="252">
-        <v>0</v>
-      </c>
-      <c r="L104" s="250">
+      <c r="J104" s="232">
+        <v>0</v>
+      </c>
+      <c r="K104" s="232">
+        <v>0</v>
+      </c>
+      <c r="L104" s="230">
         <v>5</v>
       </c>
-      <c r="M104" s="252">
+      <c r="M104" s="232">
         <v>25</v>
       </c>
-      <c r="N104" s="252">
-        <v>0</v>
-      </c>
-      <c r="O104" s="253">
+      <c r="N104" s="232">
+        <v>0</v>
+      </c>
+      <c r="O104" s="233">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:19">
-      <c r="A105" s="249">
+      <c r="A105" s="229">
         <v>2</v>
       </c>
-      <c r="B105" s="250" t="s">
+      <c r="B105" s="230" t="s">
         <v>15</v>
       </c>
-      <c r="C105" s="250" t="s">
+      <c r="C105" s="230" t="s">
         <v>24</v>
       </c>
-      <c r="D105" s="250" t="s">
+      <c r="D105" s="230" t="s">
         <v>39</v>
       </c>
-      <c r="E105" s="251">
+      <c r="E105" s="231">
         <v>15</v>
       </c>
-      <c r="F105" s="250">
+      <c r="F105" s="230">
         <v>18</v>
       </c>
-      <c r="G105" s="252">
+      <c r="G105" s="232">
         <v>4</v>
       </c>
-      <c r="H105" s="250">
+      <c r="H105" s="230">
         <v>2.37175</v>
       </c>
-      <c r="I105" s="250">
+      <c r="I105" s="230">
         <v>24</v>
       </c>
-      <c r="J105" s="252">
-        <v>0</v>
-      </c>
-      <c r="K105" s="252">
+      <c r="J105" s="232">
+        <v>0</v>
+      </c>
+      <c r="K105" s="232">
         <v>4</v>
       </c>
-      <c r="L105" s="250">
+      <c r="L105" s="230">
         <v>6</v>
       </c>
-      <c r="M105" s="252">
+      <c r="M105" s="232">
         <v>25</v>
       </c>
-      <c r="N105" s="252">
-        <v>0</v>
-      </c>
-      <c r="O105" s="253">
+      <c r="N105" s="232">
+        <v>0</v>
+      </c>
+      <c r="O105" s="233">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
@@ -6716,49 +6716,49 @@
       </c>
     </row>
     <row r="109" spans="1:19">
-      <c r="A109" s="249">
+      <c r="A109" s="229">
         <v>6</v>
       </c>
-      <c r="B109" s="250" t="s">
+      <c r="B109" s="230" t="s">
         <v>15</v>
       </c>
-      <c r="C109" s="250" t="s">
+      <c r="C109" s="230" t="s">
         <v>24</v>
       </c>
-      <c r="D109" s="250" t="s">
+      <c r="D109" s="230" t="s">
         <v>39</v>
       </c>
-      <c r="E109" s="251">
+      <c r="E109" s="231">
         <v>17</v>
       </c>
-      <c r="F109" s="250">
+      <c r="F109" s="230">
         <v>19</v>
       </c>
-      <c r="G109" s="252">
-        <v>0</v>
-      </c>
-      <c r="H109" s="250">
+      <c r="G109" s="232">
+        <v>0</v>
+      </c>
+      <c r="H109" s="230">
         <v>2.5436999999999999</v>
       </c>
-      <c r="I109" s="250">
+      <c r="I109" s="230">
         <v>25</v>
       </c>
-      <c r="J109" s="252">
-        <v>0</v>
-      </c>
-      <c r="K109" s="252">
-        <v>0</v>
-      </c>
-      <c r="L109" s="250">
+      <c r="J109" s="232">
+        <v>0</v>
+      </c>
+      <c r="K109" s="232">
+        <v>0</v>
+      </c>
+      <c r="L109" s="230">
         <v>6</v>
       </c>
-      <c r="M109" s="252">
+      <c r="M109" s="232">
         <v>25</v>
       </c>
-      <c r="N109" s="252">
-        <v>0</v>
-      </c>
-      <c r="O109" s="253">
+      <c r="N109" s="232">
+        <v>0</v>
+      </c>
+      <c r="O109" s="233">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
@@ -7156,145 +7156,145 @@
       </c>
     </row>
     <row r="119" spans="1:20">
-      <c r="A119" s="249">
+      <c r="A119" s="229">
         <v>4</v>
       </c>
-      <c r="B119" s="250" t="s">
+      <c r="B119" s="230" t="s">
         <v>16</v>
       </c>
-      <c r="C119" s="250" t="s">
+      <c r="C119" s="230" t="s">
         <v>24</v>
       </c>
-      <c r="D119" s="250" t="s">
+      <c r="D119" s="230" t="s">
         <v>39</v>
       </c>
-      <c r="E119" s="251">
+      <c r="E119" s="231">
         <v>14</v>
       </c>
-      <c r="F119" s="250">
+      <c r="F119" s="230">
         <v>17</v>
       </c>
-      <c r="G119" s="252">
+      <c r="G119" s="232">
         <v>5</v>
       </c>
-      <c r="H119" s="250">
+      <c r="H119" s="230">
         <v>2.8538699999999997</v>
       </c>
-      <c r="I119" s="250">
+      <c r="I119" s="230">
         <v>24</v>
       </c>
-      <c r="J119" s="252">
-        <v>0</v>
-      </c>
-      <c r="K119" s="252">
+      <c r="J119" s="232">
+        <v>0</v>
+      </c>
+      <c r="K119" s="232">
         <v>5</v>
       </c>
-      <c r="L119" s="250">
+      <c r="L119" s="230">
         <v>7</v>
       </c>
-      <c r="M119" s="252">
+      <c r="M119" s="232">
         <v>24</v>
       </c>
-      <c r="N119" s="252">
-        <v>0</v>
-      </c>
-      <c r="O119" s="253">
+      <c r="N119" s="232">
+        <v>0</v>
+      </c>
+      <c r="O119" s="233">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:20">
-      <c r="A120" s="249">
+      <c r="A120" s="229">
         <v>5</v>
       </c>
-      <c r="B120" s="250" t="s">
+      <c r="B120" s="230" t="s">
         <v>16</v>
       </c>
-      <c r="C120" s="250" t="s">
+      <c r="C120" s="230" t="s">
         <v>24</v>
       </c>
-      <c r="D120" s="250" t="s">
+      <c r="D120" s="230" t="s">
         <v>39</v>
       </c>
-      <c r="E120" s="251">
+      <c r="E120" s="231">
         <v>15</v>
       </c>
-      <c r="F120" s="250">
+      <c r="F120" s="230">
         <v>18</v>
       </c>
-      <c r="G120" s="252">
+      <c r="G120" s="232">
         <v>5</v>
       </c>
-      <c r="H120" s="250">
+      <c r="H120" s="230">
         <v>2.5787100000000001</v>
       </c>
-      <c r="I120" s="250">
+      <c r="I120" s="230">
         <v>24</v>
       </c>
-      <c r="J120" s="252">
-        <v>0</v>
-      </c>
-      <c r="K120" s="252">
+      <c r="J120" s="232">
+        <v>0</v>
+      </c>
+      <c r="K120" s="232">
         <v>5</v>
       </c>
-      <c r="L120" s="250">
+      <c r="L120" s="230">
         <v>6</v>
       </c>
-      <c r="M120" s="252">
+      <c r="M120" s="232">
         <v>24</v>
       </c>
-      <c r="N120" s="252">
-        <v>0</v>
-      </c>
-      <c r="O120" s="253">
+      <c r="N120" s="232">
+        <v>0</v>
+      </c>
+      <c r="O120" s="233">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:20">
-      <c r="A121" s="249">
+      <c r="A121" s="229">
         <v>6</v>
       </c>
-      <c r="B121" s="250" t="s">
+      <c r="B121" s="230" t="s">
         <v>16</v>
       </c>
-      <c r="C121" s="250" t="s">
+      <c r="C121" s="230" t="s">
         <v>24</v>
       </c>
-      <c r="D121" s="250" t="s">
+      <c r="D121" s="230" t="s">
         <v>39</v>
       </c>
-      <c r="E121" s="251">
+      <c r="E121" s="231">
         <v>15</v>
       </c>
-      <c r="F121" s="250">
+      <c r="F121" s="230">
         <v>18</v>
       </c>
-      <c r="G121" s="252">
+      <c r="G121" s="232">
         <v>4</v>
       </c>
-      <c r="H121" s="250">
+      <c r="H121" s="230">
         <v>2.6916199999999999</v>
       </c>
-      <c r="I121" s="250">
+      <c r="I121" s="230">
         <v>24</v>
       </c>
-      <c r="J121" s="252">
-        <v>0</v>
-      </c>
-      <c r="K121" s="252">
+      <c r="J121" s="232">
+        <v>0</v>
+      </c>
+      <c r="K121" s="232">
         <v>4</v>
       </c>
-      <c r="L121" s="250">
+      <c r="L121" s="230">
         <v>6</v>
       </c>
-      <c r="M121" s="252">
+      <c r="M121" s="232">
         <v>24</v>
       </c>
-      <c r="N121" s="252">
-        <v>0</v>
-      </c>
-      <c r="O121" s="253">
+      <c r="N121" s="232">
+        <v>0</v>
+      </c>
+      <c r="O121" s="233">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
@@ -7603,47 +7603,47 @@
       <c r="P128" s="206"/>
     </row>
     <row r="129" spans="1:20">
-      <c r="A129" s="249">
+      <c r="A129" s="229">
         <v>2</v>
       </c>
-      <c r="B129" s="250" t="s">
+      <c r="B129" s="230" t="s">
         <v>17</v>
       </c>
-      <c r="C129" s="250" t="s">
+      <c r="C129" s="230" t="s">
         <v>49</v>
       </c>
-      <c r="D129" s="250" t="s">
+      <c r="D129" s="230" t="s">
         <v>39</v>
       </c>
-      <c r="E129" s="251">
+      <c r="E129" s="231">
         <v>19</v>
       </c>
-      <c r="F129" s="250">
+      <c r="F129" s="230">
         <v>22</v>
       </c>
-      <c r="G129" s="252">
-        <v>0</v>
-      </c>
-      <c r="H129" s="250"/>
-      <c r="I129" s="250">
+      <c r="G129" s="232">
+        <v>0</v>
+      </c>
+      <c r="H129" s="230"/>
+      <c r="I129" s="230">
         <v>26</v>
       </c>
-      <c r="J129" s="252">
-        <v>0</v>
-      </c>
-      <c r="K129" s="252">
-        <v>0</v>
-      </c>
-      <c r="L129" s="250">
+      <c r="J129" s="232">
+        <v>0</v>
+      </c>
+      <c r="K129" s="232">
+        <v>0</v>
+      </c>
+      <c r="L129" s="230">
         <v>4</v>
       </c>
-      <c r="M129" s="252">
+      <c r="M129" s="232">
         <v>26</v>
       </c>
-      <c r="N129" s="252">
-        <v>0</v>
-      </c>
-      <c r="O129" s="253">
+      <c r="N129" s="232">
+        <v>0</v>
+      </c>
+      <c r="O129" s="233">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
@@ -7683,49 +7683,49 @@
       <c r="P130" s="206"/>
     </row>
     <row r="131" spans="1:20">
-      <c r="A131" s="249">
+      <c r="A131" s="229">
         <v>4</v>
       </c>
-      <c r="B131" s="250" t="s">
+      <c r="B131" s="230" t="s">
         <v>17</v>
       </c>
-      <c r="C131" s="250" t="s">
+      <c r="C131" s="230" t="s">
         <v>49</v>
       </c>
-      <c r="D131" s="250" t="s">
+      <c r="D131" s="230" t="s">
         <v>39</v>
       </c>
-      <c r="E131" s="251">
+      <c r="E131" s="231">
         <v>16</v>
       </c>
-      <c r="F131" s="250">
+      <c r="F131" s="230">
         <v>19</v>
       </c>
-      <c r="G131" s="252">
-        <v>0</v>
-      </c>
-      <c r="H131" s="250">
+      <c r="G131" s="232">
+        <v>0</v>
+      </c>
+      <c r="H131" s="230">
         <v>3.3693899999999997</v>
       </c>
-      <c r="I131" s="250">
+      <c r="I131" s="230">
         <v>24</v>
       </c>
-      <c r="J131" s="252">
-        <v>0</v>
-      </c>
-      <c r="K131" s="252">
-        <v>0</v>
-      </c>
-      <c r="L131" s="250">
+      <c r="J131" s="232">
+        <v>0</v>
+      </c>
+      <c r="K131" s="232">
+        <v>0</v>
+      </c>
+      <c r="L131" s="230">
         <v>5</v>
       </c>
-      <c r="M131" s="252">
+      <c r="M131" s="232">
         <v>26</v>
       </c>
-      <c r="N131" s="252">
-        <v>0</v>
-      </c>
-      <c r="O131" s="253">
+      <c r="N131" s="232">
+        <v>0</v>
+      </c>
+      <c r="O131" s="233">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
@@ -8133,49 +8133,49 @@
       <c r="P140" s="206"/>
     </row>
     <row r="141" spans="1:20">
-      <c r="A141" s="249">
+      <c r="A141" s="229">
         <v>2</v>
       </c>
-      <c r="B141" s="250" t="s">
+      <c r="B141" s="230" t="s">
         <v>18</v>
       </c>
-      <c r="C141" s="250" t="s">
+      <c r="C141" s="230" t="s">
         <v>49</v>
       </c>
-      <c r="D141" s="250" t="s">
+      <c r="D141" s="230" t="s">
         <v>39</v>
       </c>
-      <c r="E141" s="251">
+      <c r="E141" s="231">
         <v>13</v>
       </c>
-      <c r="F141" s="250">
+      <c r="F141" s="230">
         <v>17</v>
       </c>
-      <c r="G141" s="252">
-        <v>0</v>
-      </c>
-      <c r="H141" s="250">
+      <c r="G141" s="232">
+        <v>0</v>
+      </c>
+      <c r="H141" s="230">
         <v>2.6186599999999998</v>
       </c>
-      <c r="I141" s="250">
+      <c r="I141" s="230">
         <v>21</v>
       </c>
-      <c r="J141" s="252">
-        <v>0</v>
-      </c>
-      <c r="K141" s="252">
-        <v>0</v>
-      </c>
-      <c r="L141" s="250">
+      <c r="J141" s="232">
+        <v>0</v>
+      </c>
+      <c r="K141" s="232">
+        <v>0</v>
+      </c>
+      <c r="L141" s="230">
         <v>4</v>
       </c>
-      <c r="M141" s="252">
+      <c r="M141" s="232">
         <v>21</v>
       </c>
-      <c r="N141" s="252">
-        <v>0</v>
-      </c>
-      <c r="O141" s="253">
+      <c r="N141" s="232">
+        <v>0</v>
+      </c>
+      <c r="O141" s="233">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
@@ -8215,49 +8215,49 @@
       <c r="P142" s="206"/>
     </row>
     <row r="143" spans="1:20">
-      <c r="A143" s="249">
+      <c r="A143" s="229">
         <v>4</v>
       </c>
-      <c r="B143" s="250" t="s">
+      <c r="B143" s="230" t="s">
         <v>18</v>
       </c>
-      <c r="C143" s="250" t="s">
+      <c r="C143" s="230" t="s">
         <v>49</v>
       </c>
-      <c r="D143" s="250" t="s">
+      <c r="D143" s="230" t="s">
         <v>39</v>
       </c>
-      <c r="E143" s="251">
+      <c r="E143" s="231">
         <v>14</v>
       </c>
-      <c r="F143" s="250">
+      <c r="F143" s="230">
         <v>17</v>
       </c>
-      <c r="G143" s="252">
-        <v>0</v>
-      </c>
-      <c r="H143" s="250">
+      <c r="G143" s="232">
+        <v>0</v>
+      </c>
+      <c r="H143" s="230">
         <v>2.5307499999999998</v>
       </c>
-      <c r="I143" s="250">
+      <c r="I143" s="230">
         <v>21</v>
       </c>
-      <c r="J143" s="252">
-        <v>0</v>
-      </c>
-      <c r="K143" s="252">
-        <v>0</v>
-      </c>
-      <c r="L143" s="250">
+      <c r="J143" s="232">
+        <v>0</v>
+      </c>
+      <c r="K143" s="232">
+        <v>0</v>
+      </c>
+      <c r="L143" s="230">
         <v>4</v>
       </c>
-      <c r="M143" s="252">
+      <c r="M143" s="232">
         <v>21</v>
       </c>
-      <c r="N143" s="252">
-        <v>0</v>
-      </c>
-      <c r="O143" s="253">
+      <c r="N143" s="232">
+        <v>0</v>
+      </c>
+      <c r="O143" s="233">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
@@ -8648,245 +8648,245 @@
       <c r="T151" s="206"/>
     </row>
     <row r="152" spans="1:20">
-      <c r="A152" s="249">
+      <c r="A152" s="229">
         <v>1</v>
       </c>
-      <c r="B152" s="250" t="s">
+      <c r="B152" s="230" t="s">
         <v>19</v>
       </c>
-      <c r="C152" s="250" t="s">
+      <c r="C152" s="230" t="s">
         <v>49</v>
       </c>
-      <c r="D152" s="250" t="s">
+      <c r="D152" s="230" t="s">
         <v>39</v>
       </c>
-      <c r="E152" s="251">
+      <c r="E152" s="231">
         <v>15</v>
       </c>
-      <c r="F152" s="250">
+      <c r="F152" s="230">
         <v>18</v>
       </c>
-      <c r="G152" s="252">
+      <c r="G152" s="232">
         <v>19</v>
       </c>
-      <c r="H152" s="250">
+      <c r="H152" s="230">
         <v>3.7448299999999999</v>
       </c>
-      <c r="I152" s="250">
+      <c r="I152" s="230">
         <v>24</v>
       </c>
-      <c r="J152" s="252">
-        <v>0</v>
-      </c>
-      <c r="K152" s="252">
+      <c r="J152" s="232">
+        <v>0</v>
+      </c>
+      <c r="K152" s="232">
         <v>19</v>
       </c>
-      <c r="L152" s="250">
+      <c r="L152" s="230">
         <v>6</v>
       </c>
-      <c r="M152" s="252">
+      <c r="M152" s="232">
         <v>24</v>
       </c>
-      <c r="N152" s="252">
-        <v>0</v>
-      </c>
-      <c r="O152" s="253">
+      <c r="N152" s="232">
+        <v>0</v>
+      </c>
+      <c r="O152" s="233">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="P152" s="206"/>
     </row>
     <row r="153" spans="1:20">
-      <c r="A153" s="249">
+      <c r="A153" s="229">
         <v>2</v>
       </c>
-      <c r="B153" s="250" t="s">
+      <c r="B153" s="230" t="s">
         <v>19</v>
       </c>
-      <c r="C153" s="250" t="s">
+      <c r="C153" s="230" t="s">
         <v>49</v>
       </c>
-      <c r="D153" s="250" t="s">
+      <c r="D153" s="230" t="s">
         <v>39</v>
       </c>
-      <c r="E153" s="251">
+      <c r="E153" s="231">
         <v>15</v>
       </c>
-      <c r="F153" s="250">
+      <c r="F153" s="230">
         <v>19</v>
       </c>
-      <c r="G153" s="252">
-        <v>0</v>
-      </c>
-      <c r="H153" s="250">
+      <c r="G153" s="232">
+        <v>0</v>
+      </c>
+      <c r="H153" s="230">
         <v>3.5450500000000003</v>
       </c>
-      <c r="I153" s="250">
+      <c r="I153" s="230">
         <v>23</v>
       </c>
-      <c r="J153" s="252">
-        <v>0</v>
-      </c>
-      <c r="K153" s="252">
-        <v>0</v>
-      </c>
-      <c r="L153" s="250">
+      <c r="J153" s="232">
+        <v>0</v>
+      </c>
+      <c r="K153" s="232">
+        <v>0</v>
+      </c>
+      <c r="L153" s="230">
         <v>4</v>
       </c>
-      <c r="M153" s="252">
+      <c r="M153" s="232">
         <v>24</v>
       </c>
-      <c r="N153" s="252">
-        <v>0</v>
-      </c>
-      <c r="O153" s="253">
+      <c r="N153" s="232">
+        <v>0</v>
+      </c>
+      <c r="O153" s="233">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="P153" s="206"/>
     </row>
     <row r="154" spans="1:20">
-      <c r="A154" s="249">
-        <v>3</v>
-      </c>
-      <c r="B154" s="250" t="s">
+      <c r="A154" s="229">
+        <v>3</v>
+      </c>
+      <c r="B154" s="230" t="s">
         <v>19</v>
       </c>
-      <c r="C154" s="250" t="s">
+      <c r="C154" s="230" t="s">
         <v>49</v>
       </c>
-      <c r="D154" s="250" t="s">
+      <c r="D154" s="230" t="s">
         <v>39</v>
       </c>
-      <c r="E154" s="251">
+      <c r="E154" s="231">
         <v>15</v>
       </c>
-      <c r="F154" s="250">
+      <c r="F154" s="230">
         <v>18</v>
       </c>
-      <c r="G154" s="252">
-        <v>0</v>
-      </c>
-      <c r="H154" s="250">
+      <c r="G154" s="232">
+        <v>0</v>
+      </c>
+      <c r="H154" s="230">
         <v>3.4198300000000001</v>
       </c>
-      <c r="I154" s="250">
+      <c r="I154" s="230">
         <v>24</v>
       </c>
-      <c r="J154" s="252">
-        <v>0</v>
-      </c>
-      <c r="K154" s="252">
-        <v>0</v>
-      </c>
-      <c r="L154" s="250">
+      <c r="J154" s="232">
+        <v>0</v>
+      </c>
+      <c r="K154" s="232">
+        <v>0</v>
+      </c>
+      <c r="L154" s="230">
         <v>6</v>
       </c>
-      <c r="M154" s="252">
+      <c r="M154" s="232">
         <v>24</v>
       </c>
-      <c r="N154" s="252">
-        <v>0</v>
-      </c>
-      <c r="O154" s="253">
+      <c r="N154" s="232">
+        <v>0</v>
+      </c>
+      <c r="O154" s="233">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="P154" s="206"/>
     </row>
     <row r="155" spans="1:20">
-      <c r="A155" s="249">
+      <c r="A155" s="229">
         <v>4</v>
       </c>
-      <c r="B155" s="250" t="s">
+      <c r="B155" s="230" t="s">
         <v>19</v>
       </c>
-      <c r="C155" s="250" t="s">
+      <c r="C155" s="230" t="s">
         <v>49</v>
       </c>
-      <c r="D155" s="250" t="s">
+      <c r="D155" s="230" t="s">
         <v>39</v>
       </c>
-      <c r="E155" s="251">
+      <c r="E155" s="231">
         <v>15</v>
       </c>
-      <c r="F155" s="250">
+      <c r="F155" s="230">
         <v>18</v>
       </c>
-      <c r="G155" s="252">
-        <v>0</v>
-      </c>
-      <c r="H155" s="250">
+      <c r="G155" s="232">
+        <v>0</v>
+      </c>
+      <c r="H155" s="230">
         <v>3.58934</v>
       </c>
-      <c r="I155" s="250">
+      <c r="I155" s="230">
         <v>24</v>
       </c>
-      <c r="J155" s="252">
-        <v>0</v>
-      </c>
-      <c r="K155" s="252">
-        <v>0</v>
-      </c>
-      <c r="L155" s="250">
+      <c r="J155" s="232">
+        <v>0</v>
+      </c>
+      <c r="K155" s="232">
+        <v>0</v>
+      </c>
+      <c r="L155" s="230">
         <v>6</v>
       </c>
-      <c r="M155" s="252">
+      <c r="M155" s="232">
         <v>24</v>
       </c>
-      <c r="N155" s="252">
-        <v>0</v>
-      </c>
-      <c r="O155" s="253">
+      <c r="N155" s="232">
+        <v>0</v>
+      </c>
+      <c r="O155" s="233">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="P155" s="206"/>
     </row>
     <row r="156" spans="1:20">
-      <c r="A156" s="249">
+      <c r="A156" s="229">
         <v>5</v>
       </c>
-      <c r="B156" s="250" t="s">
+      <c r="B156" s="230" t="s">
         <v>19</v>
       </c>
-      <c r="C156" s="250" t="s">
+      <c r="C156" s="230" t="s">
         <v>49</v>
       </c>
-      <c r="D156" s="250" t="s">
+      <c r="D156" s="230" t="s">
         <v>39</v>
       </c>
-      <c r="E156" s="251">
+      <c r="E156" s="231">
         <v>15</v>
       </c>
-      <c r="F156" s="250">
+      <c r="F156" s="230">
         <v>18</v>
       </c>
-      <c r="G156" s="252">
+      <c r="G156" s="232">
         <v>23</v>
       </c>
-      <c r="H156" s="250">
+      <c r="H156" s="230">
         <v>3.7646700000000002</v>
       </c>
-      <c r="I156" s="250">
+      <c r="I156" s="230">
         <v>23</v>
       </c>
-      <c r="J156" s="252">
-        <v>0</v>
-      </c>
-      <c r="K156" s="252">
+      <c r="J156" s="232">
+        <v>0</v>
+      </c>
+      <c r="K156" s="232">
         <v>23</v>
       </c>
-      <c r="L156" s="250">
+      <c r="L156" s="230">
         <v>5</v>
       </c>
-      <c r="M156" s="252">
+      <c r="M156" s="232">
         <v>24</v>
       </c>
-      <c r="N156" s="252">
-        <v>0</v>
-      </c>
-      <c r="O156" s="253">
+      <c r="N156" s="232">
+        <v>0</v>
+      </c>
+      <c r="O156" s="233">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
@@ -9939,22 +9939,22 @@
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
-      <c r="AA1" s="236" t="s">
+      <c r="AA1" s="253" t="s">
         <v>34</v>
       </c>
-      <c r="AB1" s="236"/>
-      <c r="AC1" s="236"/>
-      <c r="AD1" s="236"/>
-      <c r="AE1" s="236"/>
-      <c r="AF1" s="236"/>
+      <c r="AB1" s="253"/>
+      <c r="AC1" s="253"/>
+      <c r="AD1" s="253"/>
+      <c r="AE1" s="253"/>
+      <c r="AF1" s="253"/>
     </row>
     <row r="2" spans="1:56" ht="15.75" thickBot="1">
-      <c r="AA2" s="236"/>
-      <c r="AB2" s="236"/>
-      <c r="AC2" s="236"/>
-      <c r="AD2" s="236"/>
-      <c r="AE2" s="236"/>
-      <c r="AF2" s="236"/>
+      <c r="AA2" s="253"/>
+      <c r="AB2" s="253"/>
+      <c r="AC2" s="253"/>
+      <c r="AD2" s="253"/>
+      <c r="AE2" s="253"/>
+      <c r="AF2" s="253"/>
     </row>
     <row r="3" spans="1:56" ht="15.75" thickBot="1">
       <c r="A3" s="1"/>
@@ -9985,29 +9985,29 @@
       <c r="X3" s="1"/>
       <c r="Y3" s="1"/>
       <c r="Z3" s="1"/>
-      <c r="AA3" s="237"/>
-      <c r="AB3" s="237"/>
-      <c r="AC3" s="237"/>
-      <c r="AD3" s="237"/>
-      <c r="AE3" s="237"/>
-      <c r="AF3" s="237"/>
-      <c r="AG3" s="238" t="s">
+      <c r="AA3" s="254"/>
+      <c r="AB3" s="254"/>
+      <c r="AC3" s="254"/>
+      <c r="AD3" s="254"/>
+      <c r="AE3" s="254"/>
+      <c r="AF3" s="254"/>
+      <c r="AG3" s="242" t="s">
         <v>31</v>
       </c>
-      <c r="AH3" s="238"/>
-      <c r="AI3" s="238"/>
-      <c r="AJ3" s="238"/>
-      <c r="AK3" s="238"/>
-      <c r="AL3" s="238"/>
+      <c r="AH3" s="242"/>
+      <c r="AI3" s="242"/>
+      <c r="AJ3" s="242"/>
+      <c r="AK3" s="242"/>
+      <c r="AL3" s="242"/>
       <c r="AM3" s="1"/>
-      <c r="AS3" s="238" t="s">
+      <c r="AS3" s="242" t="s">
         <v>28</v>
       </c>
-      <c r="AT3" s="238"/>
-      <c r="AU3" s="238"/>
-      <c r="AV3" s="238"/>
-      <c r="AW3" s="238"/>
-      <c r="AX3" s="238"/>
+      <c r="AT3" s="242"/>
+      <c r="AU3" s="242"/>
+      <c r="AV3" s="242"/>
+      <c r="AW3" s="242"/>
+      <c r="AX3" s="242"/>
     </row>
     <row r="4" spans="1:56" ht="15.75" thickBot="1">
       <c r="A4" s="4" t="s">
@@ -10016,78 +10016,78 @@
       <c r="B4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="233" t="s">
+      <c r="C4" s="235" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="234"/>
-      <c r="E4" s="234"/>
-      <c r="F4" s="234"/>
-      <c r="G4" s="234"/>
-      <c r="H4" s="246"/>
-      <c r="I4" s="240" t="s">
+      <c r="D4" s="236"/>
+      <c r="E4" s="236"/>
+      <c r="F4" s="236"/>
+      <c r="G4" s="236"/>
+      <c r="H4" s="237"/>
+      <c r="I4" s="243" t="s">
         <v>29</v>
       </c>
-      <c r="J4" s="241"/>
-      <c r="K4" s="241"/>
-      <c r="L4" s="241"/>
-      <c r="M4" s="241"/>
-      <c r="N4" s="242"/>
-      <c r="O4" s="243" t="s">
+      <c r="J4" s="244"/>
+      <c r="K4" s="244"/>
+      <c r="L4" s="244"/>
+      <c r="M4" s="244"/>
+      <c r="N4" s="245"/>
+      <c r="O4" s="246" t="s">
         <v>30</v>
       </c>
-      <c r="P4" s="244"/>
-      <c r="Q4" s="244"/>
-      <c r="R4" s="244"/>
-      <c r="S4" s="244"/>
-      <c r="T4" s="245"/>
-      <c r="U4" s="233" t="s">
+      <c r="P4" s="247"/>
+      <c r="Q4" s="247"/>
+      <c r="R4" s="247"/>
+      <c r="S4" s="247"/>
+      <c r="T4" s="248"/>
+      <c r="U4" s="235" t="s">
         <v>32</v>
       </c>
-      <c r="V4" s="234"/>
-      <c r="W4" s="234"/>
-      <c r="X4" s="234"/>
-      <c r="Y4" s="234"/>
-      <c r="Z4" s="235"/>
-      <c r="AA4" s="233" t="s">
+      <c r="V4" s="236"/>
+      <c r="W4" s="236"/>
+      <c r="X4" s="236"/>
+      <c r="Y4" s="236"/>
+      <c r="Z4" s="238"/>
+      <c r="AA4" s="235" t="s">
         <v>33</v>
       </c>
-      <c r="AB4" s="234"/>
-      <c r="AC4" s="234"/>
-      <c r="AD4" s="234"/>
-      <c r="AE4" s="234"/>
-      <c r="AF4" s="235"/>
-      <c r="AG4" s="233" t="s">
+      <c r="AB4" s="236"/>
+      <c r="AC4" s="236"/>
+      <c r="AD4" s="236"/>
+      <c r="AE4" s="236"/>
+      <c r="AF4" s="238"/>
+      <c r="AG4" s="235" t="s">
         <v>4</v>
       </c>
-      <c r="AH4" s="234"/>
-      <c r="AI4" s="234"/>
-      <c r="AJ4" s="234"/>
-      <c r="AK4" s="234"/>
-      <c r="AL4" s="235"/>
-      <c r="AM4" s="233" t="s">
+      <c r="AH4" s="236"/>
+      <c r="AI4" s="236"/>
+      <c r="AJ4" s="236"/>
+      <c r="AK4" s="236"/>
+      <c r="AL4" s="238"/>
+      <c r="AM4" s="235" t="s">
         <v>20</v>
       </c>
-      <c r="AN4" s="234"/>
-      <c r="AO4" s="234"/>
-      <c r="AP4" s="234"/>
-      <c r="AQ4" s="234"/>
-      <c r="AR4" s="235"/>
-      <c r="AS4" s="233" t="s">
+      <c r="AN4" s="236"/>
+      <c r="AO4" s="236"/>
+      <c r="AP4" s="236"/>
+      <c r="AQ4" s="236"/>
+      <c r="AR4" s="238"/>
+      <c r="AS4" s="235" t="s">
         <v>21</v>
       </c>
-      <c r="AT4" s="234"/>
-      <c r="AU4" s="234"/>
-      <c r="AV4" s="234"/>
-      <c r="AW4" s="234"/>
-      <c r="AX4" s="235"/>
-      <c r="AY4" s="229" t="s">
+      <c r="AT4" s="236"/>
+      <c r="AU4" s="236"/>
+      <c r="AV4" s="236"/>
+      <c r="AW4" s="236"/>
+      <c r="AX4" s="238"/>
+      <c r="AY4" s="249" t="s">
         <v>22</v>
       </c>
-      <c r="AZ4" s="230"/>
-      <c r="BA4" s="230"/>
-      <c r="BB4" s="230"/>
-      <c r="BC4" s="230"/>
-      <c r="BD4" s="231"/>
+      <c r="AZ4" s="250"/>
+      <c r="BA4" s="250"/>
+      <c r="BB4" s="250"/>
+      <c r="BC4" s="250"/>
+      <c r="BD4" s="251"/>
     </row>
     <row r="5" spans="1:56" ht="15.75" thickBot="1">
       <c r="A5" s="56" t="s">
@@ -13940,11 +13940,11 @@
       <c r="S35" s="1"/>
       <c r="T35" s="1"/>
       <c r="U35" s="1"/>
-      <c r="V35" s="232" t="s">
+      <c r="V35" s="252" t="s">
         <v>23</v>
       </c>
-      <c r="W35" s="232"/>
-      <c r="X35" s="232"/>
+      <c r="W35" s="252"/>
+      <c r="X35" s="252"/>
       <c r="Y35" s="1"/>
       <c r="Z35" s="1"/>
       <c r="AA35" s="146">
@@ -13986,11 +13986,11 @@
       <c r="S36" s="146">
         <v>2666.35</v>
       </c>
-      <c r="V36" s="247" t="s">
+      <c r="V36" s="239" t="s">
         <v>24</v>
       </c>
-      <c r="W36" s="247"/>
-      <c r="X36" s="247"/>
+      <c r="W36" s="239"/>
+      <c r="X36" s="239"/>
       <c r="AA36" s="146">
         <v>3898.2</v>
       </c>
@@ -14025,11 +14025,11 @@
         <v>3440.5</v>
       </c>
       <c r="S37" s="146"/>
-      <c r="V37" s="248" t="s">
+      <c r="V37" s="240" t="s">
         <v>25</v>
       </c>
-      <c r="W37" s="248"/>
-      <c r="X37" s="248"/>
+      <c r="W37" s="240"/>
+      <c r="X37" s="240"/>
       <c r="AA37" s="146">
         <v>3991.51</v>
       </c>
@@ -14060,11 +14060,11 @@
         <v>2860.36</v>
       </c>
       <c r="S38" s="146"/>
-      <c r="V38" s="239" t="s">
+      <c r="V38" s="241" t="s">
         <v>26</v>
       </c>
-      <c r="W38" s="239"/>
-      <c r="X38" s="239"/>
+      <c r="W38" s="241"/>
+      <c r="X38" s="241"/>
       <c r="AA38" s="146">
         <v>4084.56</v>
       </c>
@@ -14368,22 +14368,22 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="C4:H4"/>
-    <mergeCell ref="U4:Z4"/>
-    <mergeCell ref="AA4:AF4"/>
-    <mergeCell ref="V36:X36"/>
-    <mergeCell ref="V37:X37"/>
-    <mergeCell ref="V38:X38"/>
-    <mergeCell ref="AG4:AL4"/>
-    <mergeCell ref="AS3:AX3"/>
-    <mergeCell ref="I4:N4"/>
-    <mergeCell ref="O4:T4"/>
     <mergeCell ref="AY4:BD4"/>
     <mergeCell ref="V35:X35"/>
     <mergeCell ref="AM4:AR4"/>
     <mergeCell ref="AS4:AX4"/>
     <mergeCell ref="AA1:AF3"/>
     <mergeCell ref="AG3:AL3"/>
+    <mergeCell ref="V38:X38"/>
+    <mergeCell ref="AG4:AL4"/>
+    <mergeCell ref="AS3:AX3"/>
+    <mergeCell ref="I4:N4"/>
+    <mergeCell ref="O4:T4"/>
+    <mergeCell ref="C4:H4"/>
+    <mergeCell ref="U4:Z4"/>
+    <mergeCell ref="AA4:AF4"/>
+    <mergeCell ref="V36:X36"/>
+    <mergeCell ref="V37:X37"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -14393,16 +14393,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF9DD8EE-93D2-4E99-9056-F4DEE3C948BE}">
   <dimension ref="A1:I157"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
-      <selection activeCell="G164" sqref="G164"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11.5703125" customWidth="1"/>
     <col min="2" max="2" width="12" customWidth="1"/>
-    <col min="3" max="3" width="12.5703125" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" customWidth="1"/>
+    <col min="4" max="4" width="12.5703125" customWidth="1"/>
     <col min="5" max="5" width="16" customWidth="1"/>
     <col min="6" max="6" width="16.7109375" customWidth="1"/>
     <col min="7" max="7" width="16.5703125" customWidth="1"/>
@@ -14418,10 +14418,10 @@
         <v>36</v>
       </c>
       <c r="C1" s="226" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" s="226" t="s">
         <v>38</v>
-      </c>
-      <c r="D1" s="226" t="s">
-        <v>48</v>
       </c>
       <c r="E1" s="226" t="s">
         <v>40</v>
@@ -14445,10 +14445,10 @@
         <v>7</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="E2" s="227">
         <v>7</v>
@@ -14472,10 +14472,10 @@
         <v>7</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="E3" s="227">
         <v>9</v>
@@ -14499,10 +14499,10 @@
         <v>7</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="E4" s="227">
         <v>7</v>
@@ -14526,10 +14526,10 @@
         <v>7</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="E5" s="227">
         <v>7</v>
@@ -14553,10 +14553,10 @@
         <v>7</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="E6" s="227">
         <v>7</v>
@@ -14580,10 +14580,10 @@
         <v>7</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="E7" s="227">
         <v>7</v>
@@ -14607,10 +14607,10 @@
         <v>7</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="E8" s="227">
         <v>14</v>
@@ -14630,10 +14630,10 @@
         <v>7</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="E9" s="227"/>
       <c r="F9" s="1"/>
@@ -14649,10 +14649,10 @@
         <v>7</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="E10" s="227"/>
       <c r="F10" s="1"/>
@@ -14668,10 +14668,10 @@
         <v>7</v>
       </c>
       <c r="C11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="E11" s="227">
         <v>12</v>
@@ -14691,10 +14691,10 @@
         <v>7</v>
       </c>
       <c r="C12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="E12" s="227">
         <v>13</v>
@@ -14714,10 +14714,10 @@
         <v>7</v>
       </c>
       <c r="C13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="E13" s="227"/>
       <c r="F13" s="1"/>
@@ -14733,10 +14733,10 @@
         <v>8</v>
       </c>
       <c r="C14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="E14" s="227">
         <v>8</v>
@@ -14760,10 +14760,10 @@
         <v>8</v>
       </c>
       <c r="C15" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="E15" s="227">
         <v>8</v>
@@ -14787,10 +14787,10 @@
         <v>8</v>
       </c>
       <c r="C16" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="E16" s="227">
         <v>8</v>
@@ -14814,10 +14814,10 @@
         <v>8</v>
       </c>
       <c r="C17" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="E17" s="227">
         <v>7</v>
@@ -14841,10 +14841,10 @@
         <v>8</v>
       </c>
       <c r="C18" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="E18" s="227">
         <v>7</v>
@@ -14868,10 +14868,10 @@
         <v>8</v>
       </c>
       <c r="C19" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="E19" s="227"/>
       <c r="F19" s="1"/>
@@ -14887,10 +14887,10 @@
         <v>8</v>
       </c>
       <c r="C20" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="E20" s="227">
         <v>15</v>
@@ -14910,10 +14910,10 @@
         <v>8</v>
       </c>
       <c r="C21" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="E21" s="227">
         <v>15</v>
@@ -14933,10 +14933,10 @@
         <v>8</v>
       </c>
       <c r="C22" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="E22" s="227">
         <v>16</v>
@@ -14960,10 +14960,10 @@
         <v>8</v>
       </c>
       <c r="C23" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="E23" s="227">
         <v>15</v>
@@ -14983,10 +14983,10 @@
         <v>8</v>
       </c>
       <c r="C24" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="E24" s="227">
         <v>15</v>
@@ -15010,10 +15010,10 @@
         <v>8</v>
       </c>
       <c r="C25" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="E25" s="227"/>
       <c r="F25" s="1"/>
@@ -15029,10 +15029,10 @@
         <v>9</v>
       </c>
       <c r="C26" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="E26" s="227">
         <v>9</v>
@@ -15056,10 +15056,10 @@
         <v>9</v>
       </c>
       <c r="C27" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="E27" s="227">
         <v>10</v>
@@ -15083,10 +15083,10 @@
         <v>9</v>
       </c>
       <c r="C28" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="E28" s="227">
         <v>9</v>
@@ -15110,10 +15110,10 @@
         <v>9</v>
       </c>
       <c r="C29" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="E29" s="227">
         <v>10</v>
@@ -15137,10 +15137,10 @@
         <v>9</v>
       </c>
       <c r="C30" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="E30" s="227">
         <v>8</v>
@@ -15164,10 +15164,10 @@
         <v>9</v>
       </c>
       <c r="C31" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="E31" s="227">
         <v>9</v>
@@ -15191,10 +15191,10 @@
         <v>9</v>
       </c>
       <c r="C32" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D32" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="E32" s="227"/>
       <c r="F32" s="1"/>
@@ -15210,10 +15210,10 @@
         <v>9</v>
       </c>
       <c r="C33" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D33" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="E33" s="227">
         <v>17</v>
@@ -15233,10 +15233,10 @@
         <v>9</v>
       </c>
       <c r="C34" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D34" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="E34" s="227"/>
       <c r="F34" s="1"/>
@@ -15252,10 +15252,10 @@
         <v>9</v>
       </c>
       <c r="C35" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D35" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="E35" s="227"/>
       <c r="F35" s="1"/>
@@ -15271,10 +15271,10 @@
         <v>9</v>
       </c>
       <c r="C36" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D36" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="E36" s="227">
         <v>17</v>
@@ -15294,10 +15294,10 @@
         <v>9</v>
       </c>
       <c r="C37" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D37" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="E37" s="227"/>
       <c r="F37" s="1"/>
@@ -15313,10 +15313,10 @@
         <v>10</v>
       </c>
       <c r="C38" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D38" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="E38" s="227">
         <v>8</v>
@@ -15340,10 +15340,10 @@
         <v>10</v>
       </c>
       <c r="C39" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D39" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="E39" s="227">
         <v>8</v>
@@ -15367,10 +15367,10 @@
         <v>10</v>
       </c>
       <c r="C40" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D40" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="E40" s="227">
         <v>8</v>
@@ -15394,10 +15394,10 @@
         <v>10</v>
       </c>
       <c r="C41" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D41" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="E41" s="227"/>
       <c r="F41" s="1"/>
@@ -15413,10 +15413,10 @@
         <v>10</v>
       </c>
       <c r="C42" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D42" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="E42" s="227">
         <v>8</v>
@@ -15440,10 +15440,10 @@
         <v>10</v>
       </c>
       <c r="C43" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D43" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="E43" s="227">
         <v>8</v>
@@ -15467,10 +15467,10 @@
         <v>10</v>
       </c>
       <c r="C44" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D44" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="E44" s="227">
         <v>16</v>
@@ -15494,10 +15494,10 @@
         <v>10</v>
       </c>
       <c r="C45" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D45" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="E45" s="227"/>
       <c r="F45" s="1"/>
@@ -15513,10 +15513,10 @@
         <v>10</v>
       </c>
       <c r="C46" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D46" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="E46" s="227"/>
       <c r="F46" s="1"/>
@@ -15532,10 +15532,10 @@
         <v>10</v>
       </c>
       <c r="C47" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D47" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="E47" s="227"/>
       <c r="F47" s="1"/>
@@ -15551,10 +15551,10 @@
         <v>10</v>
       </c>
       <c r="C48" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D48" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="E48" s="227"/>
       <c r="F48" s="1"/>
@@ -15570,10 +15570,10 @@
         <v>10</v>
       </c>
       <c r="C49" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D49" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="E49" s="227"/>
       <c r="F49" s="1"/>
@@ -15589,10 +15589,10 @@
         <v>11</v>
       </c>
       <c r="C50" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D50" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="E50" s="227">
         <v>8</v>
@@ -15616,10 +15616,10 @@
         <v>11</v>
       </c>
       <c r="C51" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D51" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="E51" s="227">
         <v>7</v>
@@ -15643,10 +15643,10 @@
         <v>11</v>
       </c>
       <c r="C52" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D52" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="E52" s="227"/>
       <c r="F52" s="1"/>
@@ -15662,10 +15662,10 @@
         <v>11</v>
       </c>
       <c r="C53" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D53" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="E53" s="227"/>
       <c r="F53" s="1"/>
@@ -15681,10 +15681,10 @@
         <v>11</v>
       </c>
       <c r="C54" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D54" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="E54" s="227">
         <v>7</v>
@@ -15708,10 +15708,10 @@
         <v>11</v>
       </c>
       <c r="C55" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D55" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="E55" s="227">
         <v>7</v>
@@ -15735,10 +15735,10 @@
         <v>11</v>
       </c>
       <c r="C56" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D56" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="E56" s="227">
         <v>17</v>
@@ -15758,10 +15758,10 @@
         <v>11</v>
       </c>
       <c r="C57" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D57" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="E57" s="227">
         <v>16</v>
@@ -15781,10 +15781,10 @@
         <v>11</v>
       </c>
       <c r="C58" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D58" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="E58" s="227">
         <v>16</v>
@@ -15804,10 +15804,10 @@
         <v>11</v>
       </c>
       <c r="C59" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D59" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="E59" s="227">
         <v>16</v>
@@ -15827,10 +15827,10 @@
         <v>11</v>
       </c>
       <c r="C60" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D60" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="E60" s="227">
         <v>17</v>
@@ -15850,10 +15850,10 @@
         <v>11</v>
       </c>
       <c r="C61" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D61" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="E61" s="227"/>
       <c r="F61" s="1"/>
@@ -15869,10 +15869,10 @@
         <v>12</v>
       </c>
       <c r="C62" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D62" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="E62" s="227">
         <v>8</v>
@@ -15896,10 +15896,10 @@
         <v>12</v>
       </c>
       <c r="C63" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D63" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="E63" s="227">
         <v>9</v>
@@ -15923,10 +15923,10 @@
         <v>12</v>
       </c>
       <c r="C64" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D64" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="D64" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="E64" s="227">
         <v>7</v>
@@ -15950,10 +15950,10 @@
         <v>12</v>
       </c>
       <c r="C65" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D65" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="E65" s="227">
         <v>8</v>
@@ -15977,10 +15977,10 @@
         <v>12</v>
       </c>
       <c r="C66" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D66" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="E66" s="227">
         <v>8</v>
@@ -16004,10 +16004,10 @@
         <v>12</v>
       </c>
       <c r="C67" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D67" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="D67" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="E67" s="227">
         <v>8</v>
@@ -16031,10 +16031,10 @@
         <v>12</v>
       </c>
       <c r="C68" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D68" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="D68" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="E68" s="227"/>
       <c r="F68" s="1"/>
@@ -16050,10 +16050,10 @@
         <v>12</v>
       </c>
       <c r="C69" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D69" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="D69" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="E69" s="227"/>
       <c r="F69" s="1"/>
@@ -16069,10 +16069,10 @@
         <v>12</v>
       </c>
       <c r="C70" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D70" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="D70" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="E70" s="227"/>
       <c r="F70" s="1"/>
@@ -16088,10 +16088,10 @@
         <v>12</v>
       </c>
       <c r="C71" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D71" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="D71" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="E71" s="227">
         <v>18</v>
@@ -16111,10 +16111,10 @@
         <v>12</v>
       </c>
       <c r="C72" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D72" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="D72" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="E72" s="227">
         <v>18</v>
@@ -16134,10 +16134,10 @@
         <v>12</v>
       </c>
       <c r="C73" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D73" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="D73" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="E73" s="227">
         <v>18</v>
@@ -16157,10 +16157,10 @@
         <v>13</v>
       </c>
       <c r="C74" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D74" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="D74" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="E74" s="227"/>
       <c r="F74" s="1"/>
@@ -16176,10 +16176,10 @@
         <v>13</v>
       </c>
       <c r="C75" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D75" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="D75" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="E75" s="227">
         <v>8</v>
@@ -16203,10 +16203,10 @@
         <v>13</v>
       </c>
       <c r="C76" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D76" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="D76" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="E76" s="227">
         <v>8</v>
@@ -16230,10 +16230,10 @@
         <v>13</v>
       </c>
       <c r="C77" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D77" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="D77" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="E77" s="227">
         <v>9</v>
@@ -16257,10 +16257,10 @@
         <v>13</v>
       </c>
       <c r="C78" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D78" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="D78" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="E78" s="227">
         <v>8</v>
@@ -16284,10 +16284,10 @@
         <v>13</v>
       </c>
       <c r="C79" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D79" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="D79" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="E79" s="227">
         <v>8</v>
@@ -16305,10 +16305,10 @@
         <v>13</v>
       </c>
       <c r="C80" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D80" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="D80" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="E80" s="227">
         <v>15</v>
@@ -16332,10 +16332,10 @@
         <v>13</v>
       </c>
       <c r="C81" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D81" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="D81" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="E81" s="227"/>
       <c r="F81" s="1"/>
@@ -16351,10 +16351,10 @@
         <v>13</v>
       </c>
       <c r="C82" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D82" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="D82" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="E82" s="227"/>
       <c r="F82" s="1"/>
@@ -16370,10 +16370,10 @@
         <v>13</v>
       </c>
       <c r="C83" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D83" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="D83" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="E83" s="227"/>
       <c r="F83" s="1"/>
@@ -16389,10 +16389,10 @@
         <v>13</v>
       </c>
       <c r="C84" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D84" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="D84" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="E84" s="227">
         <v>15</v>
@@ -16416,10 +16416,10 @@
         <v>13</v>
       </c>
       <c r="C85" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D85" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="D85" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="E85" s="227"/>
       <c r="F85" s="1"/>
@@ -16435,10 +16435,10 @@
         <v>14</v>
       </c>
       <c r="C86" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D86" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="D86" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="E86" s="227">
         <v>7</v>
@@ -16462,10 +16462,10 @@
         <v>14</v>
       </c>
       <c r="C87" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D87" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="D87" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="E87" s="227">
         <v>6</v>
@@ -16489,10 +16489,10 @@
         <v>14</v>
       </c>
       <c r="C88" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D88" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="D88" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="E88" s="227">
         <v>7</v>
@@ -16516,10 +16516,10 @@
         <v>14</v>
       </c>
       <c r="C89" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D89" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="D89" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="E89" s="227">
         <v>6</v>
@@ -16543,10 +16543,10 @@
         <v>14</v>
       </c>
       <c r="C90" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D90" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="D90" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="E90" s="227"/>
       <c r="F90" s="1"/>
@@ -16562,10 +16562,10 @@
         <v>14</v>
       </c>
       <c r="C91" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D91" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="D91" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="E91" s="227">
         <v>6</v>
@@ -16589,10 +16589,10 @@
         <v>14</v>
       </c>
       <c r="C92" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D92" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="D92" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="E92" s="227">
         <v>10</v>
@@ -16612,10 +16612,10 @@
         <v>14</v>
       </c>
       <c r="C93" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D93" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="D93" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="E93" s="227"/>
       <c r="F93" s="1"/>
@@ -16631,10 +16631,10 @@
         <v>14</v>
       </c>
       <c r="C94" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D94" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="D94" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="E94" s="227">
         <v>12</v>
@@ -16654,10 +16654,10 @@
         <v>14</v>
       </c>
       <c r="C95" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D95" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="D95" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="E95" s="227">
         <v>13</v>
@@ -16677,10 +16677,10 @@
         <v>14</v>
       </c>
       <c r="C96" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D96" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="D96" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="E96" s="227">
         <v>10</v>
@@ -16700,10 +16700,10 @@
         <v>14</v>
       </c>
       <c r="C97" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D97" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="D97" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="E97" s="227">
         <v>13</v>
@@ -16723,10 +16723,10 @@
         <v>15</v>
       </c>
       <c r="C98" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D98" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="D98" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="E98" s="227">
         <v>9</v>
@@ -16750,10 +16750,10 @@
         <v>15</v>
       </c>
       <c r="C99" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D99" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="D99" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="E99" s="227">
         <v>10</v>
@@ -16777,10 +16777,10 @@
         <v>15</v>
       </c>
       <c r="C100" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D100" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="D100" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="E100" s="227">
         <v>8</v>
@@ -16804,10 +16804,10 @@
         <v>15</v>
       </c>
       <c r="C101" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D101" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="D101" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="E101" s="227">
         <v>8</v>
@@ -16831,10 +16831,10 @@
         <v>15</v>
       </c>
       <c r="C102" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D102" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="D102" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="E102" s="227">
         <v>8</v>
@@ -16858,10 +16858,10 @@
         <v>15</v>
       </c>
       <c r="C103" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D103" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="D103" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="E103" s="227">
         <v>8</v>
@@ -16885,10 +16885,10 @@
         <v>15</v>
       </c>
       <c r="C104" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D104" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="D104" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="E104" s="227">
         <v>17</v>
@@ -16908,10 +16908,10 @@
         <v>15</v>
       </c>
       <c r="C105" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D105" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="D105" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="E105" s="227">
         <v>15</v>
@@ -16935,10 +16935,10 @@
         <v>15</v>
       </c>
       <c r="C106" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D106" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="D106" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="E106" s="227"/>
       <c r="F106" s="1"/>
@@ -16954,10 +16954,10 @@
         <v>15</v>
       </c>
       <c r="C107" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D107" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="D107" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="E107" s="227"/>
       <c r="F107" s="1"/>
@@ -16973,10 +16973,10 @@
         <v>15</v>
       </c>
       <c r="C108" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D108" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="D108" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="E108" s="227"/>
       <c r="F108" s="1"/>
@@ -16992,10 +16992,10 @@
         <v>15</v>
       </c>
       <c r="C109" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D109" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="D109" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="E109" s="227">
         <v>17</v>
@@ -17015,10 +17015,10 @@
         <v>16</v>
       </c>
       <c r="C110" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D110" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="D110" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="E110" s="227">
         <v>8</v>
@@ -17042,10 +17042,10 @@
         <v>16</v>
       </c>
       <c r="C111" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D111" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="D111" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="E111" s="227">
         <v>8</v>
@@ -17069,10 +17069,10 @@
         <v>16</v>
       </c>
       <c r="C112" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D112" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="D112" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="E112" s="227">
         <v>9</v>
@@ -17096,10 +17096,10 @@
         <v>16</v>
       </c>
       <c r="C113" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D113" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="D113" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="E113" s="227">
         <v>8</v>
@@ -17123,10 +17123,10 @@
         <v>16</v>
       </c>
       <c r="C114" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D114" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="D114" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="E114" s="227">
         <v>8</v>
@@ -17150,10 +17150,10 @@
         <v>16</v>
       </c>
       <c r="C115" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D115" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="D115" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="E115" s="227"/>
       <c r="F115" s="1"/>
@@ -17169,10 +17169,10 @@
         <v>16</v>
       </c>
       <c r="C116" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D116" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="D116" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="E116" s="227"/>
       <c r="F116" s="1"/>
@@ -17188,10 +17188,10 @@
         <v>16</v>
       </c>
       <c r="C117" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D117" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="D117" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="E117" s="227"/>
       <c r="F117" s="1"/>
@@ -17207,10 +17207,10 @@
         <v>16</v>
       </c>
       <c r="C118" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D118" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="D118" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="E118" s="227"/>
       <c r="F118" s="1"/>
@@ -17226,10 +17226,10 @@
         <v>16</v>
       </c>
       <c r="C119" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D119" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="D119" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="E119" s="227">
         <v>14</v>
@@ -17253,10 +17253,10 @@
         <v>16</v>
       </c>
       <c r="C120" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D120" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="D120" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="E120" s="227">
         <v>15</v>
@@ -17280,10 +17280,10 @@
         <v>16</v>
       </c>
       <c r="C121" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D121" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="D121" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="E121" s="227">
         <v>15</v>
@@ -17307,10 +17307,10 @@
         <v>17</v>
       </c>
       <c r="C122" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D122" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="D122" s="1" t="s">
-        <v>49</v>
       </c>
       <c r="E122" s="227">
         <v>8</v>
@@ -17334,10 +17334,10 @@
         <v>17</v>
       </c>
       <c r="C123" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D123" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="D123" s="1" t="s">
-        <v>49</v>
       </c>
       <c r="E123" s="227">
         <v>9</v>
@@ -17361,10 +17361,10 @@
         <v>17</v>
       </c>
       <c r="C124" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D124" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="D124" s="1" t="s">
-        <v>49</v>
       </c>
       <c r="E124" s="227">
         <v>8</v>
@@ -17388,10 +17388,10 @@
         <v>17</v>
       </c>
       <c r="C125" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D125" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="D125" s="1" t="s">
-        <v>49</v>
       </c>
       <c r="E125" s="227"/>
       <c r="F125" s="1"/>
@@ -17407,10 +17407,10 @@
         <v>17</v>
       </c>
       <c r="C126" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D126" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="D126" s="1" t="s">
-        <v>49</v>
       </c>
       <c r="E126" s="227"/>
       <c r="F126" s="1"/>
@@ -17426,10 +17426,10 @@
         <v>17</v>
       </c>
       <c r="C127" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D127" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="D127" s="1" t="s">
-        <v>49</v>
       </c>
       <c r="E127" s="227"/>
       <c r="F127" s="1"/>
@@ -17445,10 +17445,10 @@
         <v>17</v>
       </c>
       <c r="C128" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D128" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="D128" s="1" t="s">
-        <v>49</v>
       </c>
       <c r="E128" s="227"/>
       <c r="F128" s="1"/>
@@ -17464,10 +17464,10 @@
         <v>17</v>
       </c>
       <c r="C129" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D129" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="D129" s="1" t="s">
-        <v>49</v>
       </c>
       <c r="E129" s="227">
         <v>19</v>
@@ -17485,10 +17485,10 @@
         <v>17</v>
       </c>
       <c r="C130" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D130" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="D130" s="1" t="s">
-        <v>49</v>
       </c>
       <c r="E130" s="227"/>
       <c r="F130" s="1"/>
@@ -17504,10 +17504,10 @@
         <v>17</v>
       </c>
       <c r="C131" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D131" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="D131" s="1" t="s">
-        <v>49</v>
       </c>
       <c r="E131" s="227">
         <v>16</v>
@@ -17527,10 +17527,10 @@
         <v>17</v>
       </c>
       <c r="C132" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D132" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="D132" s="1" t="s">
-        <v>49</v>
       </c>
       <c r="E132" s="227"/>
       <c r="F132" s="1"/>
@@ -17546,10 +17546,10 @@
         <v>17</v>
       </c>
       <c r="C133" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D133" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="D133" s="1" t="s">
-        <v>49</v>
       </c>
       <c r="E133" s="227"/>
       <c r="F133" s="1"/>
@@ -17565,10 +17565,10 @@
         <v>18</v>
       </c>
       <c r="C134" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D134" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="D134" s="1" t="s">
-        <v>49</v>
       </c>
       <c r="E134" s="227">
         <v>7</v>
@@ -17592,10 +17592,10 @@
         <v>18</v>
       </c>
       <c r="C135" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D135" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="D135" s="1" t="s">
-        <v>49</v>
       </c>
       <c r="E135" s="227">
         <v>7</v>
@@ -17619,10 +17619,10 @@
         <v>18</v>
       </c>
       <c r="C136" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D136" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="D136" s="1" t="s">
-        <v>49</v>
       </c>
       <c r="E136" s="227"/>
       <c r="F136" s="1"/>
@@ -17638,10 +17638,10 @@
         <v>18</v>
       </c>
       <c r="C137" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D137" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="D137" s="1" t="s">
-        <v>49</v>
       </c>
       <c r="E137" s="227">
         <v>8</v>
@@ -17665,10 +17665,10 @@
         <v>18</v>
       </c>
       <c r="C138" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D138" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="D138" s="1" t="s">
-        <v>49</v>
       </c>
       <c r="E138" s="227">
         <v>7</v>
@@ -17692,10 +17692,10 @@
         <v>18</v>
       </c>
       <c r="C139" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D139" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="D139" s="1" t="s">
-        <v>49</v>
       </c>
       <c r="E139" s="227">
         <v>7</v>
@@ -17719,10 +17719,10 @@
         <v>18</v>
       </c>
       <c r="C140" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D140" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="D140" s="1" t="s">
-        <v>49</v>
       </c>
       <c r="E140" s="227"/>
       <c r="F140" s="1"/>
@@ -17738,10 +17738,10 @@
         <v>18</v>
       </c>
       <c r="C141" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D141" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="D141" s="1" t="s">
-        <v>49</v>
       </c>
       <c r="E141" s="227">
         <v>13</v>
@@ -17761,10 +17761,10 @@
         <v>18</v>
       </c>
       <c r="C142" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D142" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="D142" s="1" t="s">
-        <v>49</v>
       </c>
       <c r="E142" s="227"/>
       <c r="F142" s="1"/>
@@ -17780,10 +17780,10 @@
         <v>18</v>
       </c>
       <c r="C143" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D143" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="D143" s="1" t="s">
-        <v>49</v>
       </c>
       <c r="E143" s="227">
         <v>14</v>
@@ -17803,10 +17803,10 @@
         <v>18</v>
       </c>
       <c r="C144" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D144" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="D144" s="1" t="s">
-        <v>49</v>
       </c>
       <c r="E144" s="227"/>
       <c r="F144" s="1"/>
@@ -17822,10 +17822,10 @@
         <v>18</v>
       </c>
       <c r="C145" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D145" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="D145" s="1" t="s">
-        <v>49</v>
       </c>
       <c r="E145" s="227"/>
       <c r="F145" s="1"/>
@@ -17841,10 +17841,10 @@
         <v>19</v>
       </c>
       <c r="C146" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D146" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="D146" s="1" t="s">
-        <v>49</v>
       </c>
       <c r="E146" s="227">
         <v>8</v>
@@ -17868,10 +17868,10 @@
         <v>19</v>
       </c>
       <c r="C147" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D147" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="D147" s="1" t="s">
-        <v>49</v>
       </c>
       <c r="E147" s="227">
         <v>8</v>
@@ -17895,10 +17895,10 @@
         <v>19</v>
       </c>
       <c r="C148" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D148" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="D148" s="1" t="s">
-        <v>49</v>
       </c>
       <c r="E148" s="227">
         <v>9</v>
@@ -17922,10 +17922,10 @@
         <v>19</v>
       </c>
       <c r="C149" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D149" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="D149" s="1" t="s">
-        <v>49</v>
       </c>
       <c r="E149" s="227">
         <v>8</v>
@@ -17949,10 +17949,10 @@
         <v>19</v>
       </c>
       <c r="C150" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D150" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="D150" s="1" t="s">
-        <v>49</v>
       </c>
       <c r="E150" s="227">
         <v>9</v>
@@ -17976,10 +17976,10 @@
         <v>19</v>
       </c>
       <c r="C151" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D151" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="D151" s="1" t="s">
-        <v>49</v>
       </c>
       <c r="E151" s="227">
         <v>8</v>
@@ -18003,10 +18003,10 @@
         <v>19</v>
       </c>
       <c r="C152" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D152" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="D152" s="1" t="s">
-        <v>49</v>
       </c>
       <c r="E152" s="227">
         <v>15</v>
@@ -18030,10 +18030,10 @@
         <v>19</v>
       </c>
       <c r="C153" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D153" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="D153" s="1" t="s">
-        <v>49</v>
       </c>
       <c r="E153" s="227">
         <v>15</v>
@@ -18053,10 +18053,10 @@
         <v>19</v>
       </c>
       <c r="C154" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D154" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="D154" s="1" t="s">
-        <v>49</v>
       </c>
       <c r="E154" s="227">
         <v>15</v>
@@ -18076,10 +18076,10 @@
         <v>19</v>
       </c>
       <c r="C155" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D155" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="D155" s="1" t="s">
-        <v>49</v>
       </c>
       <c r="E155" s="227">
         <v>15</v>
@@ -18099,10 +18099,10 @@
         <v>19</v>
       </c>
       <c r="C156" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D156" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="D156" s="1" t="s">
-        <v>49</v>
       </c>
       <c r="E156" s="227">
         <v>15</v>
@@ -18126,10 +18126,10 @@
         <v>19</v>
       </c>
       <c r="C157" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D157" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="D157" s="1" t="s">
-        <v>49</v>
       </c>
       <c r="E157" s="227">
         <v>15</v>
